--- a/VGA Timing.xlsx
+++ b/VGA Timing.xlsx
@@ -3,10 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Display 800x600" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Display 640x480" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -16,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Design Clock (MHz)</t>
   </si>
@@ -83,6 +85,78 @@
   <si>
     <t xml:space="preserve">Whole frame</t>
   </si>
+  <si>
+    <t>160x120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data lines</t>
+  </si>
+  <si>
+    <t>80x60</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color depth</t>
+  </si>
+  <si>
+    <t>pixels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size (bytes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* skip lower bit of horizontal counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*skip lower two bits of vertical counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0-A6 X Coord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7-A13 Y Coord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFFECTIVE RESOLUTION</t>
+  </si>
+  <si>
+    <t>203x120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pixel (8bit)</t>
+  </si>
+  <si>
+    <t>bytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Calculator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal Counter Bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFFSET X BY 1</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
 </sst>
 </file>
 
@@ -103,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +186,24 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor theme="5" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="5" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,13 +219,12 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
@@ -144,11 +235,28 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -670,7 +778,7 @@
     <col customWidth="1" min="1" max="1" width="13.7109375"/>
     <col customWidth="1" min="5" max="5" width="13.140625"/>
     <col customWidth="1" min="7" max="7" width="15.8515625"/>
-    <col bestFit="1" min="8" max="8" width="9.62109375"/>
+    <col bestFit="1" min="8" max="8" width="10.65234375"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -709,7 +817,7 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
@@ -738,26 +846,25 @@
       <c r="B6">
         <v>800</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>20</v>
       </c>
       <c r="D6">
-        <f>B1/B2</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <f>B6/D6</f>
-        <v>160</v>
+        <f t="shared" ref="E6:E9" si="0">B6/D6</f>
+        <v>266.66666666666669</v>
       </c>
       <c r="F6">
         <v>160</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f>F6/(B2*1000000)*1000000</f>
         <v>20</v>
       </c>
       <c r="H6">
-        <f>(G6-C6)/C6</f>
+        <f t="shared" ref="H6:H9" si="1">(G6-C6)/C6</f>
         <v>0</v>
       </c>
       <c r="I6">
@@ -772,30 +879,29 @@
       <c r="B7">
         <v>40</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7">
-        <f>B1/B2</f>
-        <v>5</v>
-      </c>
-      <c r="E7" s="5">
-        <f>B7/D7</f>
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f>F7/(B2*1000000)*1000000</f>
         <v>1</v>
       </c>
-      <c r="H7" s="7">
-        <f>(G7-C7)/C7</f>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>I6+F7</f>
+        <f t="shared" ref="I7:I9" si="2">I6+F7</f>
         <v>168</v>
       </c>
     </row>
@@ -806,30 +912,29 @@
       <c r="B8">
         <v>128</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>3.2000000000000002</v>
       </c>
       <c r="D8">
-        <f>B1/B2</f>
-        <v>5</v>
-      </c>
-      <c r="E8" s="5">
-        <f>B8/D8</f>
-        <v>25.600000000000001</v>
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>42.666666666666664</v>
       </c>
       <c r="F8">
         <v>25</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <f>F8/(B2*1000000)*1000000</f>
         <v>3.125</v>
       </c>
-      <c r="H8" s="7">
-        <f>(G8-C8)/C8</f>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
         <v>-0.023437500000000056</v>
       </c>
-      <c r="I8" s="5">
-        <f>I7+F8</f>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
         <v>193</v>
       </c>
     </row>
@@ -840,30 +945,29 @@
       <c r="B9">
         <v>88</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>2.2000000000000002</v>
       </c>
       <c r="D9">
-        <f>B1/B2</f>
-        <v>5</v>
-      </c>
-      <c r="E9" s="5">
-        <f>B9/D9</f>
-        <v>17.600000000000001</v>
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>29.333333333333332</v>
       </c>
       <c r="F9">
         <v>18</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f>F9/(B2*1000000)*1000000</f>
         <v>2.25</v>
       </c>
-      <c r="H9" s="7">
-        <f>(G9-C9)/C9</f>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
         <v>0.022727272727272645</v>
       </c>
-      <c r="I9" s="5">
-        <f>I8+F9</f>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
         <v>211</v>
       </c>
     </row>
@@ -874,39 +978,38 @@
       <c r="B10">
         <v>1056</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>26.399999999999999</v>
       </c>
       <c r="D10">
-        <f>B1/B2</f>
-        <v>5</v>
-      </c>
-      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4">
         <f>B10/D10</f>
-        <v>211.19999999999999</v>
+        <v>352</v>
       </c>
       <c r="F10">
         <f>SUM(F6:F9)</f>
         <v>211</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f>F10/(B2*1000000)*1000000</f>
         <v>26.375</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <f>(G10-C10)/C10</f>
         <v>-0.00094696969696964322</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
@@ -921,7 +1024,7 @@
       <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
@@ -934,21 +1037,20 @@
         <v>15.84</v>
       </c>
       <c r="D14">
-        <f>B1/B2</f>
-        <v>5</v>
-      </c>
-      <c r="E14" s="5">
-        <f>B14/D14</f>
-        <v>120</v>
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:E18" si="3">B14/D14</f>
+        <v>300</v>
       </c>
       <c r="F14">
         <v>120</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f>F14/(B2*1000000)*1000000</f>
         <v>15</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <f>(G14-C14)/C14</f>
         <v>-0.053030303030303025</v>
       </c>
@@ -964,21 +1066,20 @@
         <v>0.0264</v>
       </c>
       <c r="D15">
-        <f>B1/B2</f>
-        <v>5</v>
-      </c>
-      <c r="E15" s="5">
-        <f>B15/D15</f>
-        <v>0.20000000000000001</v>
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <f>F15/(B2*1000000)*1000000</f>
         <v>0</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <f>(G15-C15)*100/C15</f>
         <v>-100</v>
       </c>
@@ -994,22 +1095,21 @@
         <v>0.1056</v>
       </c>
       <c r="D16">
-        <f>B1/B2</f>
-        <v>5</v>
-      </c>
-      <c r="E16" s="5">
-        <f>B16/D16</f>
-        <v>0.80000000000000004</v>
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f>F16/(B2*1000000)*1000000</f>
         <v>0.125</v>
       </c>
-      <c r="H16" s="7">
-        <f>(G16-C16)/C16</f>
+      <c r="H16" s="6">
+        <f t="shared" ref="H16:H18" si="4">(G16-C16)/C16</f>
         <v>0.18371212121212122</v>
       </c>
     </row>
@@ -1024,22 +1124,21 @@
         <v>0.60719999999999996</v>
       </c>
       <c r="D17">
-        <f>B1/B2</f>
-        <v>5</v>
-      </c>
-      <c r="E17" s="5">
-        <f>B17/D17</f>
-        <v>4.5999999999999996</v>
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="3"/>
+        <v>11.5</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <f>F17/(B2*1000000)*1000000</f>
         <v>0.625</v>
       </c>
-      <c r="H17" s="7">
-        <f>(G17-C17)/C17</f>
+      <c r="H17" s="6">
+        <f t="shared" si="4"/>
         <v>0.02931488801054025</v>
       </c>
     </row>
@@ -1054,24 +1153,173 @@
         <v>16.5792</v>
       </c>
       <c r="D18">
-        <f>B1/B2</f>
-        <v>5</v>
-      </c>
-      <c r="E18" s="5">
-        <f>B18/D18</f>
-        <v>125.59999999999999</v>
-      </c>
-      <c r="F18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="3"/>
+        <v>314</v>
+      </c>
+      <c r="F18" s="4">
         <f>SUM(F14:F17)</f>
         <v>126</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f>F18/(B2*1000000)*1000000</f>
         <v>15.75</v>
       </c>
-      <c r="H18" s="7">
-        <f>(G18-C18)/C18</f>
+      <c r="H18" s="6">
+        <f t="shared" si="4"/>
         <v>-0.05001447596988999</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25"/>
+    <row r="21" ht="14.25">
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>160</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>120</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>332</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="G26">
+        <f>128*1.33</f>
+        <v>170.24000000000001</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="D27">
+        <f>160*120</f>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="C28">
+        <f>128*256</f>
+        <v>32768</v>
+      </c>
+      <c r="D28">
+        <f>2^15</f>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30">
+        <f>2^7</f>
+        <v>128</v>
+      </c>
+      <c r="G30">
+        <f>64*1.33</f>
+        <v>85.120000000000005</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>86</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <f>B33*B34</f>
+        <v>5504</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>64</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35"/>
+      <c r="D35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1084,4 +1332,3208 @@
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.7109375"/>
+    <col customWidth="1" min="5" max="5" width="13.140625"/>
+    <col customWidth="1" min="7" max="7" width="15.8515625"/>
+    <col bestFit="1" min="8" max="8" width="10.65234375"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>25.175000000000001</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>640</v>
+      </c>
+      <c r="C6" s="3">
+        <v>25.42204568</v>
+      </c>
+      <c r="D6">
+        <f>B1/B2</f>
+        <v>3.1468750000000001</v>
+      </c>
+      <c r="E6">
+        <f>B6/D6</f>
+        <v>203.37636544190664</v>
+      </c>
+      <c r="F6" s="3">
+        <f>ROUND(E6,0)</f>
+        <v>203</v>
+      </c>
+      <c r="G6" s="3">
+        <f>F6/B2</f>
+        <v>25.375</v>
+      </c>
+      <c r="H6">
+        <f>(G6-C6)/C6</f>
+        <v>-0.0018505859281423528</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.64555110000000004</v>
+      </c>
+      <c r="D7" s="4">
+        <f>B1/B2</f>
+        <v>3.1468750000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <f>B7/D7</f>
+        <v>5.0844091360476664</v>
+      </c>
+      <c r="F7" s="5">
+        <f>ROUND(E7,0)</f>
+        <v>5</v>
+      </c>
+      <c r="G7" s="5">
+        <f>F7/B2</f>
+        <v>0.625</v>
+      </c>
+      <c r="H7" s="6">
+        <f>(G7-C7)/C7</f>
+        <v>-0.03183497015185946</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>96</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.8133067999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <f>B1/B2</f>
+        <v>3.1468750000000001</v>
+      </c>
+      <c r="E8" s="4">
+        <f>B8/D8</f>
+        <v>30.506454816285999</v>
+      </c>
+      <c r="F8" s="5">
+        <f>ROUND(E8,0)</f>
+        <v>31</v>
+      </c>
+      <c r="G8" s="5">
+        <f>F8/B2</f>
+        <v>3.875</v>
+      </c>
+      <c r="H8" s="6">
+        <f>(G8-C8)/C8</f>
+        <v>0.01617839928326777</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.9066533999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <f>B1/B2</f>
+        <v>3.1468750000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <f>B9/D9</f>
+        <v>15.253227408142999</v>
+      </c>
+      <c r="F9" s="5">
+        <f>ROUND(E9,0)</f>
+        <v>15</v>
+      </c>
+      <c r="G9" s="5">
+        <f>F9/B2</f>
+        <v>1.875</v>
+      </c>
+      <c r="H9" s="6">
+        <f>(G9-C9)/C9</f>
+        <v>-0.01660154908070861</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <f>SUM(B6:B9)</f>
+        <v>800</v>
+      </c>
+      <c r="C10" s="3">
+        <f>SUM(C6:C9)</f>
+        <v>31.787556979999998</v>
+      </c>
+      <c r="D10" s="4">
+        <f>B1/B2</f>
+        <v>3.1468750000000001</v>
+      </c>
+      <c r="E10" s="4">
+        <f>B10/D10</f>
+        <v>254.2204568023833</v>
+      </c>
+      <c r="F10" s="5">
+        <f>ROUND(E10,0)</f>
+        <v>254</v>
+      </c>
+      <c r="G10" s="5">
+        <f>F10/B2</f>
+        <v>31.75</v>
+      </c>
+      <c r="H10" s="6">
+        <f>(G10-C10)/C10</f>
+        <v>-0.0011814994157502558</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>480</v>
+      </c>
+      <c r="C14">
+        <f>C10*B14/1000</f>
+        <v>15.258027350399999</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4">
+        <f>B14/D14</f>
+        <v>120</v>
+      </c>
+      <c r="F14" s="5">
+        <f>ROUND(E14,0)</f>
+        <v>120</v>
+      </c>
+      <c r="G14" s="3">
+        <f>F14/B2</f>
+        <v>15</v>
+      </c>
+      <c r="H14" s="6">
+        <f>(G14-C14)/C14</f>
+        <v>-0.016910924621801434</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <f>C10*B15/1000</f>
+        <v>0.31787556979999998</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4">
+        <f>B15/D15</f>
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="5">
+        <f>E15</f>
+        <v>2.5</v>
+      </c>
+      <c r="G15" s="5">
+        <f>F15/B2</f>
+        <v>0.3125</v>
+      </c>
+      <c r="H15" s="6">
+        <f>(G15-C15)*100/C15</f>
+        <v>-1.6910924621801433</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f>C10*B16/1000</f>
+        <v>0.063575113959999999</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4">
+        <f>B16/D16</f>
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="5">
+        <f>E16</f>
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="5">
+        <f>F16/B2</f>
+        <v>0.0625</v>
+      </c>
+      <c r="H16" s="6">
+        <f>(G16-C16)/C16</f>
+        <v>-0.016910924621801476</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <f>C10*B17/1000</f>
+        <v>1.0489893803400001</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4">
+        <f>B17/D17</f>
+        <v>8.25</v>
+      </c>
+      <c r="F17" s="5">
+        <f>E17</f>
+        <v>8.25</v>
+      </c>
+      <c r="G17" s="5">
+        <f>F17/B2</f>
+        <v>1.03125</v>
+      </c>
+      <c r="H17" s="6">
+        <f>(G17-C17)/C17</f>
+        <v>-0.016910924621801601</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B14:B17)</f>
+        <v>525</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C14:C17)</f>
+        <v>16.6884674145</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4">
+        <f>B18/D18</f>
+        <v>131.25</v>
+      </c>
+      <c r="F18" s="5">
+        <f>SUM(F14:F17)</f>
+        <v>131.25</v>
+      </c>
+      <c r="G18" s="5">
+        <f>F18/B2</f>
+        <v>16.40625</v>
+      </c>
+      <c r="H18" s="6">
+        <f>(G18-C18)/C18</f>
+        <v>-0.016910924621801486</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25"/>
+    <row r="21" ht="14.25">
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25"/>
+    <row r="25" ht="14.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <f>203*120</f>
+        <v>24360</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25"/>
+    <row r="27" ht="14.25"/>
+    <row r="28" ht="14.25"/>
+    <row r="30" ht="14.25"/>
+    <row r="32" ht="14.25">
+      <c r="C32"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34"/>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35"/>
+      <c r="D35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="K1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="K3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="W3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>1</v>
+      </c>
+      <c r="M4" s="13">
+        <v>2</v>
+      </c>
+      <c r="N4" s="13">
+        <v>3</v>
+      </c>
+      <c r="O4" s="13">
+        <v>4</v>
+      </c>
+      <c r="P4" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>6</v>
+      </c>
+      <c r="R4" s="13">
+        <v>7</v>
+      </c>
+      <c r="S4" s="13">
+        <v>8</v>
+      </c>
+      <c r="T4" s="13">
+        <v>9</v>
+      </c>
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" s="13">
+        <v>0</v>
+      </c>
+      <c r="X4" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="13">
+        <v>7</v>
+      </c>
+      <c r="AE4" s="13">
+        <v>8</v>
+      </c>
+      <c r="AF4" s="13">
+        <v>9</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="I5">
+        <f>A5*(2^0)+B5*(2^1)+C5*(2^2)+D5*(2^3)+E5*(2^4)+F5*(2^5)+G5*(2^6)+H5*(2^7)</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f>K5*(2^0)+L5*(2^1)+M5*(2^2)+N5*(2^3)+O5*(2^4)+P5*(2^5)+Q5*(2^6)+R5*(2^7)+S5*(2^8)+T5*(2^9)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <f>I5+_xlfn.BITLSHIFT(U5,8)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4">
+        <f>W5*(2^0)+X5*(2^1)+Y5*(2^2)+Z5*(2^3)+AA5*(2^4)+AB5*(2^5)+AC5*(2^6)+AD5*(2^7)+AE5*(2^8)+AF5*(2^9)</f>
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <f>U5+_xlfn.BITLSHIFT(AG5,7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="I6">
+        <f>A6*(2^0)+B6*(2^1)+C6*(2^2)+D6*(2^3)+E6*(2^4)+F6*(2^5)+G6*(2^6)+H6*(2^7)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <f>K6*(2^0)+L6*(2^1)+M6*(2^2)+N6*(2^3)+O6*(2^4)+P6*(2^5)+Q6*(2^6)+R6*(2^7)+S6*(2^8)+T6*(2^9)</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f>I6+_xlfn.BITLSHIFT(U6,8)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <f>W6*(2^0)+X6*(2^1)+Y6*(2^2)+Z6*(2^3)+AA6*(2^4)+AB6*(2^5)+AC6*(2^6)+AD6*(2^7)+AE6*(2^8)+AF6*(2^9)</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
+        <f>U6+_xlfn.BITLSHIFT(AG6,7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="I7">
+        <f>A7*(2^0)+B7*(2^1)+C7*(2^2)+D7*(2^3)+E7*(2^4)+F7*(2^5)+G7*(2^6)+H7*(2^7)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <f>K7*(2^0)+L7*(2^1)+M7*(2^2)+N7*(2^3)+O7*(2^4)+P7*(2^5)+Q7*(2^6)+R7*(2^7)+S7*(2^8)+T7*(2^9)</f>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f>I7+_xlfn.BITLSHIFT(U7,8)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>W7*(2^0)+X7*(2^1)+Y7*(2^2)+Z7*(2^3)+AA7*(2^4)+AB7*(2^5)+AC7*(2^6)+AD7*(2^7)+AE7*(2^8)+AF7*(2^9)</f>
+        <v>2</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>U7+_xlfn.BITLSHIFT(AG7,7)</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="I8">
+        <f>A8*(2^0)+B8*(2^1)+C8*(2^2)+D8*(2^3)+E8*(2^4)+F8*(2^5)+G8*(2^6)+H8*(2^7)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <f>K8*(2^0)+L8*(2^1)+M8*(2^2)+N8*(2^3)+O8*(2^4)+P8*(2^5)+Q8*(2^6)+R8*(2^7)+S8*(2^8)+T8*(2^9)</f>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f>I8+_xlfn.BITLSHIFT(U8,8)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
+        <f>W8*(2^0)+X8*(2^1)+Y8*(2^2)+Z8*(2^3)+AA8*(2^4)+AB8*(2^5)+AC8*(2^6)+AD8*(2^7)+AE8*(2^8)+AF8*(2^9)</f>
+        <v>2</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>U8+_xlfn.BITLSHIFT(AG8,7)</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f>A9*(2^0)+B9*(2^1)+C9*(2^2)+D9*(2^3)+E9*(2^4)+F9*(2^5)+G9*(2^6)+H9*(2^7)</f>
+        <v>4</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <f>K9*(2^0)+L9*(2^1)+M9*(2^2)+N9*(2^3)+O9*(2^4)+P9*(2^5)+Q9*(2^6)+R9*(2^7)+S9*(2^8)+T9*(2^9)</f>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f>I9+_xlfn.BITLSHIFT(U9,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AI9" s="4">
+        <f>U9+_xlfn.BITLSHIFT(AG9,7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f>A10*(2^0)+B10*(2^1)+C10*(2^2)+D10*(2^3)+E10*(2^4)+F10*(2^5)+G10*(2^6)+H10*(2^7)</f>
+        <v>5</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <f>K10*(2^0)+L10*(2^1)+M10*(2^2)+N10*(2^3)+O10*(2^4)+P10*(2^5)+Q10*(2^6)+R10*(2^7)+S10*(2^8)+T10*(2^9)</f>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f>I10+_xlfn.BITLSHIFT(U10,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AI10" s="4">
+        <f>U10+_xlfn.BITLSHIFT(AG10,7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f>A11*(2^0)+B11*(2^1)+C11*(2^2)+D11*(2^3)+E11*(2^4)+F11*(2^5)+G11*(2^6)+H11*(2^7)</f>
+        <v>6</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <f>K11*(2^0)+L11*(2^1)+M11*(2^2)+N11*(2^3)+O11*(2^4)+P11*(2^5)+Q11*(2^6)+R11*(2^7)+S11*(2^8)+T11*(2^9)</f>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f>I11+_xlfn.BITLSHIFT(U11,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AI11" s="4">
+        <f>U11+_xlfn.BITLSHIFT(AG11,7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f>A12*(2^0)+B12*(2^1)+C12*(2^2)+D12*(2^3)+E12*(2^4)+F12*(2^5)+G12*(2^6)+H12*(2^7)</f>
+        <v>7</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <f>K12*(2^0)+L12*(2^1)+M12*(2^2)+N12*(2^3)+O12*(2^4)+P12*(2^5)+Q12*(2^6)+R12*(2^7)+S12*(2^8)+T12*(2^9)</f>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f>I12+_xlfn.BITLSHIFT(U12,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AI12" s="4">
+        <f>U12+_xlfn.BITLSHIFT(AG12,7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f>A13*(2^0)+B13*(2^1)+C13*(2^2)+D13*(2^3)+E13*(2^4)+F13*(2^5)+G13*(2^6)+H13*(2^7)</f>
+        <v>8</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <f>K13*(2^0)+L13*(2^1)+M13*(2^2)+N13*(2^3)+O13*(2^4)+P13*(2^5)+Q13*(2^6)+R13*(2^7)+S13*(2^8)+T13*(2^9)</f>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f>I13+_xlfn.BITLSHIFT(U13,8)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f>A14*(2^0)+B14*(2^1)+C14*(2^2)+D14*(2^3)+E14*(2^4)+F14*(2^5)+G14*(2^6)+H14*(2^7)</f>
+        <v>211</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <f>K14*(2^0)+L14*(2^1)+M14*(2^2)+N14*(2^3)+O14*(2^4)+P14*(2^5)+Q14*(2^6)+R14*(2^7)+S14*(2^8)+T14*(2^9)</f>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f>I14+_xlfn.BITLSHIFT(U14,8)</f>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="4">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>A16*(2^0)+B16*(2^1)+C16*(2^2)+D16*(2^3)+E16*(2^4)+F16*(2^5)+G16*(2^6)+H16*(2^7)</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="U16" s="4">
+        <f>K16*(2^0)+L16*(2^1)+M16*(2^2)+N16*(2^3)+O16*(2^4)+P16*(2^5)+Q16*(2^6)+R16*(2^7)+S16*(2^8)+T16*(2^9)</f>
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <f>I16+_xlfn.BITLSHIFT(U16,8)</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>A17*(2^0)+B17*(2^1)+C17*(2^2)+D17*(2^3)+E17*(2^4)+F17*(2^5)+G17*(2^6)+H17*(2^7)</f>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="U17" s="4">
+        <f>K17*(2^0)+L17*(2^1)+M17*(2^2)+N17*(2^3)+O17*(2^4)+P17*(2^5)+Q17*(2^6)+R17*(2^7)+S17*(2^8)+T17*(2^9)</f>
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <f>I17+_xlfn.BITLSHIFT(U17,8)</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="4">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>A18*(2^0)+B18*(2^1)+C18*(2^2)+D18*(2^3)+E18*(2^4)+F18*(2^5)+G18*(2^6)+H18*(2^7)</f>
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="U18" s="4">
+        <f>K18*(2^0)+L18*(2^1)+M18*(2^2)+N18*(2^3)+O18*(2^4)+P18*(2^5)+Q18*(2^6)+R18*(2^7)+S18*(2^8)+T18*(2^9)</f>
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <f>I18+_xlfn.BITLSHIFT(U18,8)</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>A19*(2^0)+B19*(2^1)+C19*(2^2)+D19*(2^3)+E19*(2^4)+F19*(2^5)+G19*(2^6)+H19*(2^7)</f>
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="U19" s="4">
+        <f>K19*(2^0)+L19*(2^1)+M19*(2^2)+N19*(2^3)+O19*(2^4)+P19*(2^5)+Q19*(2^6)+R19*(2^7)+S19*(2^8)+T19*(2^9)</f>
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <f>I19+_xlfn.BITLSHIFT(U19,8)</f>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="4">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20">
+        <f>A20*(2^0)+B20*(2^1)+C20*(2^2)+D20*(2^3)+E20*(2^4)+F20*(2^5)+G20*(2^6)+H20*(2^7)</f>
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="U20" s="4">
+        <f>K20*(2^0)+L20*(2^1)+M20*(2^2)+N20*(2^3)+O20*(2^4)+P20*(2^5)+Q20*(2^6)+R20*(2^7)+S20*(2^8)+T20*(2^9)</f>
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <f>I20+_xlfn.BITLSHIFT(U20,8)</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="4">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21">
+        <f>A21*(2^0)+B21*(2^1)+C21*(2^2)+D21*(2^3)+E21*(2^4)+F21*(2^5)+G21*(2^6)+H21*(2^7)</f>
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="U21" s="4">
+        <f>K21*(2^0)+L21*(2^1)+M21*(2^2)+N21*(2^3)+O21*(2^4)+P21*(2^5)+Q21*(2^6)+R21*(2^7)+S21*(2^8)+T21*(2^9)</f>
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <f>I21+_xlfn.BITLSHIFT(U21,8)</f>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="4">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22">
+        <f>A22*(2^0)+B22*(2^1)+C22*(2^2)+D22*(2^3)+E22*(2^4)+F22*(2^5)+G22*(2^6)+H22*(2^7)</f>
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="U22" s="4">
+        <f>K22*(2^0)+L22*(2^1)+M22*(2^2)+N22*(2^3)+O22*(2^4)+P22*(2^5)+Q22*(2^6)+R22*(2^7)+S22*(2^8)+T22*(2^9)</f>
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <f>I22+_xlfn.BITLSHIFT(U22,8)</f>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23">
+        <f>A23*(2^0)+B23*(2^1)+C23*(2^2)+D23*(2^3)+E23*(2^4)+F23*(2^5)+G23*(2^6)+H23*(2^7)</f>
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="U23" s="4">
+        <f>K23*(2^0)+L23*(2^1)+M23*(2^2)+N23*(2^3)+O23*(2^4)+P23*(2^5)+Q23*(2^6)+R23*(2^7)+S23*(2^8)+T23*(2^9)</f>
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <f>I23+_xlfn.BITLSHIFT(U23,8)</f>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="4">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24">
+        <f>A24*(2^0)+B24*(2^1)+C24*(2^2)+D24*(2^3)+E24*(2^4)+F24*(2^5)+G24*(2^6)+H24*(2^7)</f>
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="U24" s="4">
+        <f>K24*(2^0)+L24*(2^1)+M24*(2^2)+N24*(2^3)+O24*(2^4)+P24*(2^5)+Q24*(2^6)+R24*(2^7)+S24*(2^8)+T24*(2^9)</f>
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <f>I24+_xlfn.BITLSHIFT(U24,8)</f>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f>A25*(2^0)+B25*(2^1)+C25*(2^2)+D25*(2^3)+E25*(2^4)+F25*(2^5)+G25*(2^6)+H25*(2^7)</f>
+        <v>211</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="U25" s="4">
+        <f>K25*(2^0)+L25*(2^1)+M25*(2^2)+N25*(2^3)+O25*(2^4)+P25*(2^5)+Q25*(2^6)+R25*(2^7)+S25*(2^8)+T25*(2^9)</f>
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <f>I25+_xlfn.BITLSHIFT(U25,8)</f>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="U26" s="4"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="4">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>A27*(2^0)+B27*(2^1)+C27*(2^2)+D27*(2^3)+E27*(2^4)+F27*(2^5)+G27*(2^6)+H27*(2^7)</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="U27" s="4">
+        <f>K27*(2^0)+L27*(2^1)+M27*(2^2)+N27*(2^3)+O27*(2^4)+P27*(2^5)+Q27*(2^6)+R27*(2^7)+S27*(2^8)+T27*(2^9)</f>
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <f>I27+_xlfn.BITLSHIFT(U27,8)</f>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>A28*(2^0)+B28*(2^1)+C28*(2^2)+D28*(2^3)+E28*(2^4)+F28*(2^5)+G28*(2^6)+H28*(2^7)</f>
+        <v>1</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
+      <c r="U28" s="4">
+        <f>K28*(2^0)+L28*(2^1)+M28*(2^2)+N28*(2^3)+O28*(2^4)+P28*(2^5)+Q28*(2^6)+R28*(2^7)+S28*(2^8)+T28*(2^9)</f>
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <f>I28+_xlfn.BITLSHIFT(U28,8)</f>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="4">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>A29*(2^0)+B29*(2^1)+C29*(2^2)+D29*(2^3)+E29*(2^4)+F29*(2^5)+G29*(2^6)+H29*(2^7)</f>
+        <v>2</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1</v>
+      </c>
+      <c r="U29" s="4">
+        <f>K29*(2^0)+L29*(2^1)+M29*(2^2)+N29*(2^3)+O29*(2^4)+P29*(2^5)+Q29*(2^6)+R29*(2^7)+S29*(2^8)+T29*(2^9)</f>
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <f>I29+_xlfn.BITLSHIFT(U29,8)</f>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>A30*(2^0)+B30*(2^1)+C30*(2^2)+D30*(2^3)+E30*(2^4)+F30*(2^5)+G30*(2^6)+H30*(2^7)</f>
+        <v>3</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1</v>
+      </c>
+      <c r="U30" s="4">
+        <f>K30*(2^0)+L30*(2^1)+M30*(2^2)+N30*(2^3)+O30*(2^4)+P30*(2^5)+Q30*(2^6)+R30*(2^7)+S30*(2^8)+T30*(2^9)</f>
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <f>I30+_xlfn.BITLSHIFT(U30,8)</f>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="4">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31">
+        <f>A31*(2^0)+B31*(2^1)+C31*(2^2)+D31*(2^3)+E31*(2^4)+F31*(2^5)+G31*(2^6)+H31*(2^7)</f>
+        <v>4</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
+      <c r="U31" s="4">
+        <f>K31*(2^0)+L31*(2^1)+M31*(2^2)+N31*(2^3)+O31*(2^4)+P31*(2^5)+Q31*(2^6)+R31*(2^7)+S31*(2^8)+T31*(2^9)</f>
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <f>I31+_xlfn.BITLSHIFT(U31,8)</f>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32">
+        <f>A32*(2^0)+B32*(2^1)+C32*(2^2)+D32*(2^3)+E32*(2^4)+F32*(2^5)+G32*(2^6)+H32*(2^7)</f>
+        <v>5</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="U32" s="4">
+        <f>K32*(2^0)+L32*(2^1)+M32*(2^2)+N32*(2^3)+O32*(2^4)+P32*(2^5)+Q32*(2^6)+R32*(2^7)+S32*(2^8)+T32*(2^9)</f>
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <f>I32+_xlfn.BITLSHIFT(U32,8)</f>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="4">
+        <v>0</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33">
+        <f>A33*(2^0)+B33*(2^1)+C33*(2^2)+D33*(2^3)+E33*(2^4)+F33*(2^5)+G33*(2^6)+H33*(2^7)</f>
+        <v>6</v>
+      </c>
+      <c r="L33" s="4">
+        <v>1</v>
+      </c>
+      <c r="U33" s="4">
+        <f>K33*(2^0)+L33*(2^1)+M33*(2^2)+N33*(2^3)+O33*(2^4)+P33*(2^5)+Q33*(2^6)+R33*(2^7)+S33*(2^8)+T33*(2^9)</f>
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <f>I33+_xlfn.BITLSHIFT(U33,8)</f>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34">
+        <f>A34*(2^0)+B34*(2^1)+C34*(2^2)+D34*(2^3)+E34*(2^4)+F34*(2^5)+G34*(2^6)+H34*(2^7)</f>
+        <v>7</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="U34" s="4">
+        <f>K34*(2^0)+L34*(2^1)+M34*(2^2)+N34*(2^3)+O34*(2^4)+P34*(2^5)+Q34*(2^6)+R34*(2^7)+S34*(2^8)+T34*(2^9)</f>
+        <v>2</v>
+      </c>
+      <c r="W34">
+        <f>I34+_xlfn.BITLSHIFT(U34,8)</f>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="4">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35">
+        <f>A35*(2^0)+B35*(2^1)+C35*(2^2)+D35*(2^3)+E35*(2^4)+F35*(2^5)+G35*(2^6)+H35*(2^7)</f>
+        <v>8</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1</v>
+      </c>
+      <c r="U35" s="4">
+        <f>K35*(2^0)+L35*(2^1)+M35*(2^2)+N35*(2^3)+O35*(2^4)+P35*(2^5)+Q35*(2^6)+R35*(2^7)+S35*(2^8)+T35*(2^9)</f>
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <f>I35+_xlfn.BITLSHIFT(U35,8)</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="4">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f>A36*(2^0)+B36*(2^1)+C36*(2^2)+D36*(2^3)+E36*(2^4)+F36*(2^5)+G36*(2^6)+H36*(2^7)</f>
+        <v>211</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+      <c r="U36" s="4">
+        <f>K36*(2^0)+L36*(2^1)+M36*(2^2)+N36*(2^3)+O36*(2^4)+P36*(2^5)+Q36*(2^6)+R36*(2^7)+S36*(2^8)+T36*(2^9)</f>
+        <v>2</v>
+      </c>
+      <c r="W36">
+        <f>I36+_xlfn.BITLSHIFT(U36,8)</f>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="U37" s="4"/>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="4">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <f>A38*(2^0)+B38*(2^1)+C38*(2^2)+D38*(2^3)+E38*(2^4)+F38*(2^5)+G38*(2^6)+H38*(2^7)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4">
+        <f>K38*(2^0)+L38*(2^1)+M38*(2^2)+N38*(2^3)+O38*(2^4)+P38*(2^5)+Q38*(2^6)+R38*(2^7)+S38*(2^8)+T38*(2^9)</f>
+        <v>3</v>
+      </c>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4">
+        <f>I38+_xlfn.BITLSHIFT(U38,8)</f>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="4">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <f>A39*(2^0)+B39*(2^1)+C39*(2^2)+D39*(2^3)+E39*(2^4)+F39*(2^5)+G39*(2^6)+H39*(2^7)</f>
+        <v>1</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4">
+        <v>1</v>
+      </c>
+      <c r="L39" s="4">
+        <v>1</v>
+      </c>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4">
+        <f>K39*(2^0)+L39*(2^1)+M39*(2^2)+N39*(2^3)+O39*(2^4)+P39*(2^5)+Q39*(2^6)+R39*(2^7)+S39*(2^8)+T39*(2^9)</f>
+        <v>3</v>
+      </c>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4">
+        <f>I39+_xlfn.BITLSHIFT(U39,8)</f>
+        <v>769</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="4">
+        <v>0</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <f>A40*(2^0)+B40*(2^1)+C40*(2^2)+D40*(2^3)+E40*(2^4)+F40*(2^5)+G40*(2^6)+H40*(2^7)</f>
+        <v>2</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4">
+        <v>1</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4">
+        <f>K40*(2^0)+L40*(2^1)+M40*(2^2)+N40*(2^3)+O40*(2^4)+P40*(2^5)+Q40*(2^6)+R40*(2^7)+S40*(2^8)+T40*(2^9)</f>
+        <v>3</v>
+      </c>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4">
+        <f>I40+_xlfn.BITLSHIFT(U40,8)</f>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="4">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <f>A41*(2^0)+B41*(2^1)+C41*(2^2)+D41*(2^3)+E41*(2^4)+F41*(2^5)+G41*(2^6)+H41*(2^7)</f>
+        <v>3</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4">
+        <f>K41*(2^0)+L41*(2^1)+M41*(2^2)+N41*(2^3)+O41*(2^4)+P41*(2^5)+Q41*(2^6)+R41*(2^7)+S41*(2^8)+T41*(2^9)</f>
+        <v>3</v>
+      </c>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4">
+        <f>I41+_xlfn.BITLSHIFT(U41,8)</f>
+        <v>771</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="4">
+        <v>0</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4">
+        <f>A42*(2^0)+B42*(2^1)+C42*(2^2)+D42*(2^3)+E42*(2^4)+F42*(2^5)+G42*(2^6)+H42*(2^7)</f>
+        <v>4</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4">
+        <v>1</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4">
+        <f>K42*(2^0)+L42*(2^1)+M42*(2^2)+N42*(2^3)+O42*(2^4)+P42*(2^5)+Q42*(2^6)+R42*(2^7)+S42*(2^8)+T42*(2^9)</f>
+        <v>3</v>
+      </c>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4">
+        <f>I42+_xlfn.BITLSHIFT(U42,8)</f>
+        <v>772</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="4">
+        <v>1</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4">
+        <f>A43*(2^0)+B43*(2^1)+C43*(2^2)+D43*(2^3)+E43*(2^4)+F43*(2^5)+G43*(2^6)+H43*(2^7)</f>
+        <v>5</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4">
+        <v>1</v>
+      </c>
+      <c r="L43" s="4">
+        <v>1</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4">
+        <f>K43*(2^0)+L43*(2^1)+M43*(2^2)+N43*(2^3)+O43*(2^4)+P43*(2^5)+Q43*(2^6)+R43*(2^7)+S43*(2^8)+T43*(2^9)</f>
+        <v>3</v>
+      </c>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4">
+        <f>I43+_xlfn.BITLSHIFT(U43,8)</f>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="4">
+        <v>0</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4">
+        <f>A44*(2^0)+B44*(2^1)+C44*(2^2)+D44*(2^3)+E44*(2^4)+F44*(2^5)+G44*(2^6)+H44*(2^7)</f>
+        <v>6</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4">
+        <v>1</v>
+      </c>
+      <c r="L44" s="4">
+        <v>1</v>
+      </c>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4">
+        <f>K44*(2^0)+L44*(2^1)+M44*(2^2)+N44*(2^3)+O44*(2^4)+P44*(2^5)+Q44*(2^6)+R44*(2^7)+S44*(2^8)+T44*(2^9)</f>
+        <v>3</v>
+      </c>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4">
+        <f>I44+_xlfn.BITLSHIFT(U44,8)</f>
+        <v>774</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="4">
+        <v>1</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4">
+        <f>A45*(2^0)+B45*(2^1)+C45*(2^2)+D45*(2^3)+E45*(2^4)+F45*(2^5)+G45*(2^6)+H45*(2^7)</f>
+        <v>7</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4">
+        <v>1</v>
+      </c>
+      <c r="L45" s="4">
+        <v>1</v>
+      </c>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4">
+        <f>K45*(2^0)+L45*(2^1)+M45*(2^2)+N45*(2^3)+O45*(2^4)+P45*(2^5)+Q45*(2^6)+R45*(2^7)+S45*(2^8)+T45*(2^9)</f>
+        <v>3</v>
+      </c>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4">
+        <f>I45+_xlfn.BITLSHIFT(U45,8)</f>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="4">
+        <v>0</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4">
+        <f>A46*(2^0)+B46*(2^1)+C46*(2^2)+D46*(2^3)+E46*(2^4)+F46*(2^5)+G46*(2^6)+H46*(2^7)</f>
+        <v>8</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4">
+        <v>1</v>
+      </c>
+      <c r="L46" s="4">
+        <v>1</v>
+      </c>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4">
+        <f>K46*(2^0)+L46*(2^1)+M46*(2^2)+N46*(2^3)+O46*(2^4)+P46*(2^5)+Q46*(2^6)+R46*(2^7)+S46*(2^8)+T46*(2^9)</f>
+        <v>3</v>
+      </c>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4">
+        <f>I46+_xlfn.BITLSHIFT(U46,8)</f>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="4">
+        <v>1</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4">
+        <f>A47*(2^0)+B47*(2^1)+C47*(2^2)+D47*(2^3)+E47*(2^4)+F47*(2^5)+G47*(2^6)+H47*(2^7)</f>
+        <v>211</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4">
+        <v>1</v>
+      </c>
+      <c r="L47" s="4">
+        <v>1</v>
+      </c>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4">
+        <f>K47*(2^0)+L47*(2^1)+M47*(2^2)+N47*(2^3)+O47*(2^4)+P47*(2^5)+Q47*(2^6)+R47*(2^7)+S47*(2^8)+T47*(2^9)</f>
+        <v>3</v>
+      </c>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4">
+        <f>I47+_xlfn.BITLSHIFT(U47,8)</f>
+        <v>979</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="4">
+        <v>0</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <f>A49*(2^0)+B49*(2^1)+C49*(2^2)+D49*(2^3)+E49*(2^4)+F49*(2^5)+G49*(2^6)+H49*(2^7)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
+        <v>1</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0</v>
+      </c>
+      <c r="O49" s="4">
+        <v>1</v>
+      </c>
+      <c r="P49" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>1</v>
+      </c>
+      <c r="R49" s="4">
+        <v>0</v>
+      </c>
+      <c r="S49" s="4">
+        <v>0</v>
+      </c>
+      <c r="T49" s="4">
+        <v>1</v>
+      </c>
+      <c r="U49" s="4">
+        <f>K49*(2^0)+L49*(2^1)+M49*(2^2)+N49*(2^3)+O49*(2^4)+P49*(2^5)+Q49*(2^6)+R49*(2^7)+S49*(2^8)+T49*(2^9)</f>
+        <v>628</v>
+      </c>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4">
+        <f>I49+_xlfn.BITLSHIFT(U49,8)</f>
+        <v>160768</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="4">
+        <v>1</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <f>A50*(2^0)+B50*(2^1)+C50*(2^2)+D50*(2^3)+E50*(2^4)+F50*(2^5)+G50*(2^6)+H50*(2^7)</f>
+        <v>1</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4">
+        <v>0</v>
+      </c>
+      <c r="L50" s="4">
+        <v>0</v>
+      </c>
+      <c r="M50" s="4">
+        <v>1</v>
+      </c>
+      <c r="N50" s="4">
+        <v>0</v>
+      </c>
+      <c r="O50" s="4">
+        <v>1</v>
+      </c>
+      <c r="P50" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>1</v>
+      </c>
+      <c r="R50" s="4">
+        <v>0</v>
+      </c>
+      <c r="S50" s="4">
+        <v>0</v>
+      </c>
+      <c r="T50" s="4">
+        <v>1</v>
+      </c>
+      <c r="U50" s="4">
+        <f>K50*(2^0)+L50*(2^1)+M50*(2^2)+N50*(2^3)+O50*(2^4)+P50*(2^5)+Q50*(2^6)+R50*(2^7)+S50*(2^8)+T50*(2^9)</f>
+        <v>628</v>
+      </c>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4">
+        <f>I50+_xlfn.BITLSHIFT(U50,8)</f>
+        <v>160769</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="4">
+        <v>0</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
+        <f>A51*(2^0)+B51*(2^1)+C51*(2^2)+D51*(2^3)+E51*(2^4)+F51*(2^5)+G51*(2^6)+H51*(2^7)</f>
+        <v>2</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4">
+        <v>0</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
+        <v>1</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0</v>
+      </c>
+      <c r="O51" s="4">
+        <v>1</v>
+      </c>
+      <c r="P51" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>1</v>
+      </c>
+      <c r="R51" s="4">
+        <v>0</v>
+      </c>
+      <c r="S51" s="4">
+        <v>0</v>
+      </c>
+      <c r="T51" s="4">
+        <v>1</v>
+      </c>
+      <c r="U51" s="4">
+        <f>K51*(2^0)+L51*(2^1)+M51*(2^2)+N51*(2^3)+O51*(2^4)+P51*(2^5)+Q51*(2^6)+R51*(2^7)+S51*(2^8)+T51*(2^9)</f>
+        <v>628</v>
+      </c>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4">
+        <f>I51+_xlfn.BITLSHIFT(U51,8)</f>
+        <v>160770</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="4">
+        <v>1</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <f>A52*(2^0)+B52*(2^1)+C52*(2^2)+D52*(2^3)+E52*(2^4)+F52*(2^5)+G52*(2^6)+H52*(2^7)</f>
+        <v>3</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
+        <v>1</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0</v>
+      </c>
+      <c r="O52" s="4">
+        <v>1</v>
+      </c>
+      <c r="P52" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>1</v>
+      </c>
+      <c r="R52" s="4">
+        <v>0</v>
+      </c>
+      <c r="S52" s="4">
+        <v>0</v>
+      </c>
+      <c r="T52" s="4">
+        <v>1</v>
+      </c>
+      <c r="U52" s="4">
+        <f>K52*(2^0)+L52*(2^1)+M52*(2^2)+N52*(2^3)+O52*(2^4)+P52*(2^5)+Q52*(2^6)+R52*(2^7)+S52*(2^8)+T52*(2^9)</f>
+        <v>628</v>
+      </c>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4">
+        <f>I52+_xlfn.BITLSHIFT(U52,8)</f>
+        <v>160771</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="4">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4">
+        <f>A53*(2^0)+B53*(2^1)+C53*(2^2)+D53*(2^3)+E53*(2^4)+F53*(2^5)+G53*(2^6)+H53*(2^7)</f>
+        <v>4</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0</v>
+      </c>
+      <c r="M53" s="4">
+        <v>1</v>
+      </c>
+      <c r="N53" s="4">
+        <v>0</v>
+      </c>
+      <c r="O53" s="4">
+        <v>1</v>
+      </c>
+      <c r="P53" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>1</v>
+      </c>
+      <c r="R53" s="4">
+        <v>0</v>
+      </c>
+      <c r="S53" s="4">
+        <v>0</v>
+      </c>
+      <c r="T53" s="4">
+        <v>1</v>
+      </c>
+      <c r="U53" s="4">
+        <f>K53*(2^0)+L53*(2^1)+M53*(2^2)+N53*(2^3)+O53*(2^4)+P53*(2^5)+Q53*(2^6)+R53*(2^7)+S53*(2^8)+T53*(2^9)</f>
+        <v>628</v>
+      </c>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4">
+        <f>I53+_xlfn.BITLSHIFT(U53,8)</f>
+        <v>160772</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="4">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4">
+        <f>A54*(2^0)+B54*(2^1)+C54*(2^2)+D54*(2^3)+E54*(2^4)+F54*(2^5)+G54*(2^6)+H54*(2^7)</f>
+        <v>5</v>
+      </c>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
+        <v>1</v>
+      </c>
+      <c r="N54" s="4">
+        <v>0</v>
+      </c>
+      <c r="O54" s="4">
+        <v>1</v>
+      </c>
+      <c r="P54" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>1</v>
+      </c>
+      <c r="R54" s="4">
+        <v>0</v>
+      </c>
+      <c r="S54" s="4">
+        <v>0</v>
+      </c>
+      <c r="T54" s="4">
+        <v>1</v>
+      </c>
+      <c r="U54" s="4">
+        <f>K54*(2^0)+L54*(2^1)+M54*(2^2)+N54*(2^3)+O54*(2^4)+P54*(2^5)+Q54*(2^6)+R54*(2^7)+S54*(2^8)+T54*(2^9)</f>
+        <v>628</v>
+      </c>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4">
+        <f>I54+_xlfn.BITLSHIFT(U54,8)</f>
+        <v>160773</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="4">
+        <v>0</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4">
+        <f>A55*(2^0)+B55*(2^1)+C55*(2^2)+D55*(2^3)+E55*(2^4)+F55*(2^5)+G55*(2^6)+H55*(2^7)</f>
+        <v>6</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0</v>
+      </c>
+      <c r="M55" s="4">
+        <v>1</v>
+      </c>
+      <c r="N55" s="4">
+        <v>0</v>
+      </c>
+      <c r="O55" s="4">
+        <v>1</v>
+      </c>
+      <c r="P55" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>1</v>
+      </c>
+      <c r="R55" s="4">
+        <v>0</v>
+      </c>
+      <c r="S55" s="4">
+        <v>0</v>
+      </c>
+      <c r="T55" s="4">
+        <v>1</v>
+      </c>
+      <c r="U55" s="4">
+        <f>K55*(2^0)+L55*(2^1)+M55*(2^2)+N55*(2^3)+O55*(2^4)+P55*(2^5)+Q55*(2^6)+R55*(2^7)+S55*(2^8)+T55*(2^9)</f>
+        <v>628</v>
+      </c>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4">
+        <f>I55+_xlfn.BITLSHIFT(U55,8)</f>
+        <v>160774</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="4">
+        <v>1</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4">
+        <f>A56*(2^0)+B56*(2^1)+C56*(2^2)+D56*(2^3)+E56*(2^4)+F56*(2^5)+G56*(2^6)+H56*(2^7)</f>
+        <v>7</v>
+      </c>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
+      <c r="L56" s="4">
+        <v>0</v>
+      </c>
+      <c r="M56" s="4">
+        <v>1</v>
+      </c>
+      <c r="N56" s="4">
+        <v>0</v>
+      </c>
+      <c r="O56" s="4">
+        <v>1</v>
+      </c>
+      <c r="P56" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>1</v>
+      </c>
+      <c r="R56" s="4">
+        <v>0</v>
+      </c>
+      <c r="S56" s="4">
+        <v>0</v>
+      </c>
+      <c r="T56" s="4">
+        <v>1</v>
+      </c>
+      <c r="U56" s="4">
+        <f>K56*(2^0)+L56*(2^1)+M56*(2^2)+N56*(2^3)+O56*(2^4)+P56*(2^5)+Q56*(2^6)+R56*(2^7)+S56*(2^8)+T56*(2^9)</f>
+        <v>628</v>
+      </c>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4">
+        <f>I56+_xlfn.BITLSHIFT(U56,8)</f>
+        <v>160775</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="4">
+        <v>0</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4">
+        <f>A57*(2^0)+B57*(2^1)+C57*(2^2)+D57*(2^3)+E57*(2^4)+F57*(2^5)+G57*(2^6)+H57*(2^7)</f>
+        <v>8</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4">
+        <v>0</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0</v>
+      </c>
+      <c r="M57" s="4">
+        <v>1</v>
+      </c>
+      <c r="N57" s="4">
+        <v>0</v>
+      </c>
+      <c r="O57" s="4">
+        <v>1</v>
+      </c>
+      <c r="P57" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>1</v>
+      </c>
+      <c r="R57" s="4">
+        <v>0</v>
+      </c>
+      <c r="S57" s="4">
+        <v>0</v>
+      </c>
+      <c r="T57" s="4">
+        <v>1</v>
+      </c>
+      <c r="U57" s="4">
+        <f>K57*(2^0)+L57*(2^1)+M57*(2^2)+N57*(2^3)+O57*(2^4)+P57*(2^5)+Q57*(2^6)+R57*(2^7)+S57*(2^8)+T57*(2^9)</f>
+        <v>628</v>
+      </c>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4">
+        <f>I57+_xlfn.BITLSHIFT(U57,8)</f>
+        <v>160776</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" s="4">
+        <v>1</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4">
+        <v>1</v>
+      </c>
+      <c r="I58" s="4">
+        <f>A58*(2^0)+B58*(2^1)+C58*(2^2)+D58*(2^3)+E58*(2^4)+F58*(2^5)+G58*(2^6)+H58*(2^7)</f>
+        <v>211</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4">
+        <v>0</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0</v>
+      </c>
+      <c r="M58" s="4">
+        <v>1</v>
+      </c>
+      <c r="N58" s="4">
+        <v>0</v>
+      </c>
+      <c r="O58" s="4">
+        <v>1</v>
+      </c>
+      <c r="P58" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>1</v>
+      </c>
+      <c r="R58" s="4">
+        <v>0</v>
+      </c>
+      <c r="S58" s="4">
+        <v>0</v>
+      </c>
+      <c r="T58" s="4">
+        <v>1</v>
+      </c>
+      <c r="U58" s="4">
+        <f>K58*(2^0)+L58*(2^1)+M58*(2^2)+N58*(2^3)+O58*(2^4)+P58*(2^5)+Q58*(2^6)+R58*(2^7)+S58*(2^8)+T58*(2^9)</f>
+        <v>628</v>
+      </c>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4">
+        <f>I58+_xlfn.BITLSHIFT(U58,8)</f>
+        <v>160979</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K3:U3"/>
+    <mergeCell ref="W3:AG3"/>
+    <mergeCell ref="A48:W48"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/VGA Timing.xlsx
+++ b/VGA Timing.xlsx
@@ -7,8 +7,10 @@
   </bookViews>
   <sheets>
     <sheet name="Display 800x600" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Display 640x480" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Display 640x480 @ 60hZ big" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Display 640x480 @ 60hZ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Display 640x480 @ 85Hz" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -18,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">Design Clock (MHz)</t>
   </si>
@@ -101,6 +103,9 @@
     <t>width</t>
   </si>
   <si>
+    <t xml:space="preserve">% drawing</t>
+  </si>
+  <si>
     <t>height</t>
   </si>
   <si>
@@ -125,16 +130,49 @@
     <t xml:space="preserve">A7-A13 Y Coord</t>
   </si>
   <si>
+    <t xml:space="preserve">pld clock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pixel clock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 bit x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 bit y</t>
+  </si>
+  <si>
     <t xml:space="preserve">EFFECTIVE RESOLUTION</t>
   </si>
   <si>
-    <t>203x120</t>
+    <t>407x240</t>
   </si>
   <si>
     <t xml:space="preserve">Pixel (8bit)</t>
   </si>
   <si>
     <t>bytes</t>
+  </si>
+  <si>
+    <t>203x120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 bit x</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">427x240 px @85hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspect ratio</t>
   </si>
   <si>
     <t xml:space="preserve">Address Calculator</t>
@@ -177,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +224,12 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -219,7 +263,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -235,26 +279,19 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -850,11 +887,12 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <f>B1/B2</f>
+        <v>5</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:E9" si="0">B6/D6</f>
-        <v>266.66666666666669</v>
+        <v>160</v>
       </c>
       <c r="F6">
         <v>160</v>
@@ -883,11 +921,12 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <f>B1/B2</f>
+        <v>5</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -916,11 +955,12 @@
         <v>3.2000000000000002</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <f>B1/B2</f>
+        <v>5</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>42.666666666666664</v>
+        <v>25.600000000000001</v>
       </c>
       <c r="F8">
         <v>25</v>
@@ -949,11 +989,12 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <f>B1/B2</f>
+        <v>5</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>29.333333333333332</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F9">
         <v>18</v>
@@ -982,11 +1023,12 @@
         <v>26.399999999999999</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <f>B1/B2</f>
+        <v>5</v>
       </c>
       <c r="E10" s="4">
         <f>B10/D10</f>
-        <v>352</v>
+        <v>211.19999999999999</v>
       </c>
       <c r="F10">
         <f>SUM(F6:F9)</f>
@@ -1037,11 +1079,11 @@
         <v>15.84</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ref="E14:E18" si="3">B14/D14</f>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F14">
         <v>120</v>
@@ -1066,11 +1108,11 @@
         <v>0.0264</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1095,11 +1137,11 @@
         <v>0.1056</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1124,11 +1166,11 @@
         <v>0.60719999999999996</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="3"/>
-        <v>11.5</v>
+        <v>5.75</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -1153,11 +1195,11 @@
         <v>16.5792</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="3"/>
-        <v>314</v>
+        <v>157</v>
       </c>
       <c r="F18" s="4">
         <f>SUM(F14:F17)</f>
@@ -1202,10 +1244,17 @@
       <c r="D23">
         <v>0</v>
       </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="7">
+        <f>(C6*B14)/(C18*1000)</f>
+        <v>0.72379849449913136</v>
+      </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>120</v>
@@ -1219,7 +1268,7 @@
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>332</v>
@@ -1262,7 +1311,7 @@
     </row>
     <row r="32" ht="14.25">
       <c r="B32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
@@ -1271,7 +1320,7 @@
         <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="14.25">
@@ -1288,13 +1337,13 @@
         <f>B33*B34</f>
         <v>5504</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>31</v>
+      <c r="G33" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34">
         <v>64</v>
@@ -1303,23 +1352,22 @@
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35"/>
       <c r="D35">
         <v>8</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1362,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -1416,23 +1464,33 @@
       </c>
       <c r="D6">
         <f>B1/B2</f>
-        <v>3.1468750000000001</v>
+        <v>1.5734375</v>
       </c>
       <c r="E6">
         <f>B6/D6</f>
-        <v>203.37636544190664</v>
+        <v>406.75273088381329</v>
       </c>
       <c r="F6" s="3">
         <f>ROUND(E6,0)</f>
-        <v>203</v>
+        <v>407</v>
       </c>
       <c r="G6" s="3">
         <f>F6/B2</f>
-        <v>25.375</v>
+        <v>25.4375</v>
       </c>
       <c r="H6">
         <f>(G6-C6)/C6</f>
-        <v>-0.0018505859281423528</v>
+        <v>0.0006079101656306956</v>
+      </c>
+      <c r="J6" t="str">
+        <f>DEC2HEX(F6)</f>
+        <v>197</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" ht="14.25">
@@ -1447,15 +1505,15 @@
       </c>
       <c r="D7" s="4">
         <f>B1/B2</f>
-        <v>3.1468750000000001</v>
+        <v>1.5734375</v>
       </c>
       <c r="E7" s="4">
         <f>B7/D7</f>
-        <v>5.0844091360476664</v>
+        <v>10.168818272095333</v>
       </c>
       <c r="F7" s="5">
         <f>ROUND(E7,0)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G7" s="5">
         <f>F7/B2</f>
@@ -1465,6 +1523,16 @@
         <f>(G7-C7)/C7</f>
         <v>-0.03183497015185946</v>
       </c>
+      <c r="J7" s="4" t="str">
+        <f>DEC2HEX(F7+J6)</f>
+        <v>CF</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
@@ -1478,25 +1546,31 @@
       </c>
       <c r="D8" s="4">
         <f>B1/B2</f>
-        <v>3.1468750000000001</v>
+        <v>1.5734375</v>
       </c>
       <c r="E8" s="4">
         <f>B8/D8</f>
-        <v>30.506454816285999</v>
+        <v>61.012909632571997</v>
       </c>
       <c r="F8" s="5">
         <f>ROUND(E8,0)</f>
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="G8" s="5">
         <f>F8/B2</f>
-        <v>3.875</v>
+        <v>3.8125</v>
       </c>
       <c r="H8" s="6">
         <f>(G8-C8)/C8</f>
-        <v>0.01617839928326777</v>
+        <v>-0.00021157489872041909</v>
       </c>
       <c r="I8" s="4"/>
+      <c r="J8" t="str">
+        <f>DEC2HEX(F6+F7+F8)</f>
+        <v>1DE</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
@@ -1510,25 +1584,31 @@
       </c>
       <c r="D9" s="4">
         <f>B1/B2</f>
-        <v>3.1468750000000001</v>
+        <v>1.5734375</v>
       </c>
       <c r="E9" s="4">
         <f>B9/D9</f>
-        <v>15.253227408142999</v>
+        <v>30.506454816285999</v>
       </c>
       <c r="F9" s="5">
         <f>ROUND(E9,0)</f>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G9" s="5">
         <f>F9/B2</f>
-        <v>1.875</v>
+        <v>1.9375</v>
       </c>
       <c r="H9" s="6">
         <f>(G9-C9)/C9</f>
-        <v>-0.01660154908070861</v>
+        <v>0.01617839928326777</v>
       </c>
       <c r="I9" s="4"/>
+      <c r="J9" t="str">
+        <f>DEC2HEX(F6+F7+F8+F9)</f>
+        <v>1FD</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
@@ -1544,15 +1624,15 @@
       </c>
       <c r="D10" s="4">
         <f>B1/B2</f>
-        <v>3.1468750000000001</v>
+        <v>1.5734375</v>
       </c>
       <c r="E10" s="4">
         <f>B10/D10</f>
-        <v>254.2204568023833</v>
+        <v>508.44091360476659</v>
       </c>
       <c r="F10" s="5">
         <f>ROUND(E10,0)</f>
-        <v>254</v>
+        <v>508</v>
       </c>
       <c r="G10" s="5">
         <f>F10/B2</f>
@@ -1563,9 +1643,13 @@
         <v>-0.0011814994157502558</v>
       </c>
       <c r="I10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" ht="14.25">
       <c r="F11" s="3"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="2" t="s">
@@ -1576,6 +1660,8 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
@@ -1592,6 +1678,8 @@
       </c>
       <c r="F13" s="3"/>
       <c r="H13" s="6"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
@@ -1605,15 +1693,15 @@
         <v>15.258027350399999</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4">
         <f>B14/D14</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="F14" s="5">
         <f>ROUND(E14,0)</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="G14" s="3">
         <f>F14/B2</f>
@@ -1623,6 +1711,12 @@
         <f>(G14-C14)/C14</f>
         <v>-0.016910924621801434</v>
       </c>
+      <c r="J14" t="str">
+        <f>DEC2HEX(B14)</f>
+        <v>1E0</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
@@ -1636,24 +1730,29 @@
         <v>0.31787556979999998</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4">
         <f>B15/D15</f>
-        <v>2.5</v>
-      </c>
-      <c r="F15" s="5">
-        <f>E15</f>
-        <v>2.5</v>
+        <v>5</v>
+      </c>
+      <c r="F15" s="9">
+        <v>7</v>
       </c>
       <c r="G15" s="5">
         <f>F15/B2</f>
-        <v>0.3125</v>
+        <v>0.4375</v>
       </c>
       <c r="H15" s="6">
         <f>(G15-C15)*100/C15</f>
-        <v>-1.6910924621801433</v>
-      </c>
+        <v>37.632470552947801</v>
+      </c>
+      <c r="J15" t="str">
+        <f>DEC2HEX(B15+B14)</f>
+        <v>1EA</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
@@ -1667,23 +1766,32 @@
         <v>0.063575113959999999</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="4">
         <f>B16/D16</f>
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="5">
-        <f>E16</f>
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2</v>
       </c>
       <c r="G16" s="5">
         <f>F16/B2</f>
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="H16" s="6">
         <f>(G16-C16)/C16</f>
-        <v>-0.016910924621801476</v>
+        <v>0.96617815075639701</v>
+      </c>
+      <c r="J16" t="str">
+        <f>DEC2HEX(B16+B15+B14)</f>
+        <v>1EC</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="14.25">
@@ -1698,15 +1806,15 @@
         <v>1.0489893803400001</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4">
         <f>B17/D17</f>
-        <v>8.25</v>
+        <v>16.5</v>
       </c>
       <c r="F17" s="5">
         <f>E17</f>
-        <v>8.25</v>
+        <v>16.5</v>
       </c>
       <c r="G17" s="5">
         <f>F17/B2</f>
@@ -1716,6 +1824,10 @@
         <f>(G17-C17)/C17</f>
         <v>-0.016910924621801601</v>
       </c>
+      <c r="J17" t="str">
+        <f>DEC2HEX(B14+B15+B16+B17)</f>
+        <v>20D</v>
+      </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
@@ -1730,86 +1842,84 @@
         <v>16.6884674145</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" s="4">
         <f>B18/D18</f>
-        <v>131.25</v>
+        <v>262.5</v>
       </c>
       <c r="F18" s="5">
         <f>SUM(F14:F17)</f>
-        <v>131.25</v>
+        <v>265.5</v>
       </c>
       <c r="G18" s="5">
         <f>F18/B2</f>
-        <v>16.40625</v>
+        <v>16.59375</v>
       </c>
       <c r="H18" s="6">
         <f>(G18-C18)/C18</f>
-        <v>-0.016910924621801486</v>
+        <v>-0.0056756209031935019</v>
       </c>
     </row>
     <row r="20" ht="14.25"/>
-    <row r="21" ht="14.25">
-      <c r="K21" t="s">
-        <v>22</v>
-      </c>
-    </row>
+    <row r="21" ht="14.25"/>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="7">
+        <f>(C6*B14)/(C18*1000)</f>
+        <v>0.73119847516960268</v>
       </c>
     </row>
     <row r="24" ht="14.25"/>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B25">
-        <f>203*120</f>
-        <v>24360</v>
+        <f>407*240</f>
+        <v>97680</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="B26">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+    </row>
     <row r="27" ht="14.25"/>
     <row r="28" ht="14.25"/>
     <row r="30" ht="14.25"/>
-    <row r="32" ht="14.25">
-      <c r="C32"/>
-      <c r="D32"/>
-    </row>
+    <row r="32" ht="14.25"/>
     <row r="33" ht="14.25">
-      <c r="A33"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34"/>
-    </row>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" ht="14.25"/>
     <row r="35" ht="14.25">
-      <c r="A35"/>
       <c r="D35">
         <v>8</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1832,121 +1942,1193 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.7109375"/>
+    <col customWidth="1" min="5" max="5" width="13.140625"/>
+    <col customWidth="1" min="7" max="7" width="15.8515625"/>
+    <col bestFit="1" min="8" max="8" width="10.65234375"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="K1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="8"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>25.175000000000001</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="K3" s="9" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>640</v>
+      </c>
+      <c r="C6" s="3">
+        <v>25.42204568</v>
+      </c>
+      <c r="D6">
+        <f>B1/B2</f>
+        <v>3.1468750000000001</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E9" si="5">B6/D6</f>
+        <v>203.37636544190664</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:F9" si="6">ROUND(E6,0)</f>
+        <v>203</v>
+      </c>
+      <c r="G6" s="3">
+        <f>F6/B2</f>
+        <v>25.375</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H9" si="7">(G6-C6)/C6</f>
+        <v>-0.0018505859281423528</v>
+      </c>
+      <c r="J6" t="str">
+        <f>DEC2HEX(F6)</f>
+        <v>CB</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.64555110000000004</v>
+      </c>
+      <c r="D7" s="4">
+        <f>B1/B2</f>
+        <v>3.1468750000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="5"/>
+        <v>5.0844091360476664</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G7" s="5">
+        <f>F7/B2</f>
+        <v>0.625</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="7"/>
+        <v>-0.03183497015185946</v>
+      </c>
+      <c r="J7" s="4" t="e">
+        <f>DEC2HEX(F7+J6)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>96</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.8133067999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <f>B1/B2</f>
+        <v>3.1468750000000001</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="5"/>
+        <v>30.506454816285999</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="G8" s="5">
+        <f>F8/B2</f>
+        <v>3.875</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.01617839928326777</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" t="str">
+        <f>DEC2HEX(F6+F7+F8)</f>
+        <v>EF</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.9066533999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <f>B1/B2</f>
+        <v>3.1468750000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="5"/>
+        <v>15.253227408142999</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G9" s="5">
+        <f>F9/B2</f>
+        <v>1.875</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="7"/>
+        <v>-0.01660154908070861</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" t="str">
+        <f>DEC2HEX(F6+F7+F8+F9)</f>
+        <v>FE</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <f>SUM(B6:B9)</f>
+        <v>800</v>
+      </c>
+      <c r="C10" s="3">
+        <f>SUM(C6:C9)</f>
+        <v>31.787556979999998</v>
+      </c>
+      <c r="D10" s="4">
+        <f>B1/B2</f>
+        <v>3.1468750000000001</v>
+      </c>
+      <c r="E10" s="4">
+        <f>B10/D10</f>
+        <v>254.2204568023833</v>
+      </c>
+      <c r="F10" s="5">
+        <f>ROUND(E10,0)</f>
+        <v>254</v>
+      </c>
+      <c r="G10" s="5">
+        <f>F10/B2</f>
+        <v>31.75</v>
+      </c>
+      <c r="H10" s="6">
+        <f>(G10-C10)/C10</f>
+        <v>-0.0011814994157502558</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>480</v>
+      </c>
+      <c r="C14">
+        <f>C10*B14/1000</f>
+        <v>15.258027350399999</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:E18" si="8">B14/D14</f>
+        <v>120</v>
+      </c>
+      <c r="F14" s="5">
+        <f>ROUND(E14,0)</f>
+        <v>120</v>
+      </c>
+      <c r="G14" s="3">
+        <f>F14/B2</f>
+        <v>15</v>
+      </c>
+      <c r="H14" s="6">
+        <f>(G14-C14)/C14</f>
+        <v>-0.016910924621801434</v>
+      </c>
+      <c r="J14" t="str">
+        <f>DEC2HEX(B14)</f>
+        <v>1E0</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <f>C10*B15/1000</f>
+        <v>0.31787556979999998</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ref="F15:F17" si="9">E15</f>
+        <v>2.5</v>
+      </c>
+      <c r="G15" s="5">
+        <f>F15/B2</f>
+        <v>0.3125</v>
+      </c>
+      <c r="H15" s="6">
+        <f>(G15-C15)*100/C15</f>
+        <v>-1.6910924621801433</v>
+      </c>
+      <c r="J15" t="str">
+        <f>DEC2HEX(B15+B14)</f>
+        <v>1EA</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f>C10*B16/1000</f>
+        <v>0.063575113959999999</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="5">
+        <f>F16/B2</f>
+        <v>0.0625</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" ref="H16:H18" si="10">(G16-C16)/C16</f>
+        <v>-0.016910924621801476</v>
+      </c>
+      <c r="J16" t="str">
+        <f>DEC2HEX(B16+B15+B14)</f>
+        <v>1EC</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <f>C10*B17/1000</f>
+        <v>1.0489893803400001</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="8"/>
+        <v>8.25</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="9"/>
+        <v>8.25</v>
+      </c>
+      <c r="G17" s="5">
+        <f>F17/B2</f>
+        <v>1.03125</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="10"/>
+        <v>-0.016910924621801601</v>
+      </c>
+      <c r="J17" t="str">
+        <f>DEC2HEX(B14+B15+B16+B17)</f>
+        <v>20D</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B14:B17)</f>
+        <v>525</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C14:C17)</f>
+        <v>16.6884674145</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="8"/>
+        <v>131.25</v>
+      </c>
+      <c r="F18" s="5">
+        <f>SUM(F14:F17)</f>
+        <v>131.25</v>
+      </c>
+      <c r="G18" s="5">
+        <f>F18/B2</f>
+        <v>16.40625</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="10"/>
+        <v>-0.016910924621801486</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25"/>
+    <row r="21" ht="14.25">
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="7">
+        <f>(C6*B14)/(C18*1000)</f>
+        <v>0.73119847516960268</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25"/>
+    <row r="25" ht="14.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <f>203*120</f>
+        <v>24360</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25"/>
+    <row r="27" ht="14.25"/>
+    <row r="28" ht="14.25"/>
+    <row r="30" ht="14.25"/>
+    <row r="32" ht="14.25"/>
+    <row r="33" ht="14.25">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" ht="14.25"/>
+    <row r="35" ht="14.25">
+      <c r="D35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.7109375"/>
+    <col customWidth="1" min="5" max="5" width="13.140625"/>
+    <col customWidth="1" min="7" max="7" width="15.8515625"/>
+    <col bestFit="1" min="8" max="8" width="10.65234375"/>
+    <col customWidth="1" min="10" max="10" width="11.00390625"/>
+    <col customWidth="1" min="12" max="12" width="11.421875"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>640</v>
+      </c>
+      <c r="C6" s="3">
+        <v>17.777699999999999</v>
+      </c>
+      <c r="D6">
+        <f>B1/B2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E9" si="11">B6/D6</f>
+        <v>426.66666666666669</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:F9" si="12">ROUND(E6,0)</f>
+        <v>427</v>
+      </c>
+      <c r="G6" s="3">
+        <f>F6/B2</f>
+        <v>17.791666666666668</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H9" si="13">(G6-C6)/C6</f>
+        <v>0.00078562843712451326</v>
+      </c>
+      <c r="J6" t="str">
+        <f>DEC2HEX(F6)</f>
+        <v>1AB</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>56</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <f>B1/B2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="11"/>
+        <v>37.333333333333336</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="G7" s="5">
+        <f>F7/B2</f>
+        <v>1.5416666666666667</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="13"/>
+        <v>-0.008574490889603343</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f>DEC2HEX(F7+F6)</f>
+        <v>1D0</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>56</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <f>B1/B2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="11"/>
+        <v>37.333333333333336</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="G8" s="5">
+        <f>F8/B2</f>
+        <v>1.5416666666666667</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="13"/>
+        <v>-0.008574490889603343</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" t="str">
+        <f>DEC2HEX(F6+F7+F8)</f>
+        <v>1F5</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.222</v>
+      </c>
+      <c r="D9" s="4">
+        <f>B1/B2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="11"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="G9" s="5">
+        <f>F9/B2</f>
+        <v>2.2083333333333335</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="13"/>
+        <v>-0.0061506150615060727</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" t="str">
+        <f>DEC2HEX(F6+F7+F8+F9)</f>
+        <v>22A</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <f>SUM(B6:B9)</f>
+        <v>832</v>
+      </c>
+      <c r="C10" s="3">
+        <v>23.109999999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <f>B1/B2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="4">
+        <f>B10/D10</f>
+        <v>554.66666666666663</v>
+      </c>
+      <c r="F10" s="5">
+        <f>ROUND(E10,0)</f>
+        <v>555</v>
+      </c>
+      <c r="G10" s="5">
+        <f>F10/B2</f>
+        <v>23.125</v>
+      </c>
+      <c r="H10" s="6">
+        <f>(G10-C10)/C10</f>
+        <v>0.00064906966681092901</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>480</v>
+      </c>
+      <c r="C14">
+        <f>C10*B14/1000</f>
+        <v>11.092799999999999</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:E18" si="14">B14/D14</f>
+        <v>240</v>
+      </c>
+      <c r="F14" s="5">
+        <f>ROUND(E14,0)</f>
+        <v>240</v>
+      </c>
+      <c r="G14" s="3">
+        <f>F14/B2</f>
+        <v>10</v>
+      </c>
+      <c r="H14" s="6">
+        <f>(G14-C14)/C14</f>
+        <v>-0.098514351651521601</v>
+      </c>
+      <c r="J14" t="str">
+        <f>DEC2HEX(B14)</f>
+        <v>1E0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f>C10*B15/1000</f>
+        <v>0.023109999999999999</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ref="F15:F17" si="15">E15</f>
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="5">
+        <f>F15/B2</f>
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="H15" s="6">
+        <f>(G15-C15)*100/C15</f>
+        <v>-9.8514351651521697</v>
+      </c>
+      <c r="J15" t="str">
+        <f>DEC2HEX(B15+B14)</f>
+        <v>1E1</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <f>C10*B16/1000</f>
+        <v>0.069330000000000003</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="5">
+        <f>F16/B2</f>
+        <v>0.0625</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" ref="H16:H18" si="16">(G16-C16)/C16</f>
+        <v>-0.098514351651521739</v>
+      </c>
+      <c r="J16" t="str">
+        <f>DEC2HEX(B16+B15+B14)</f>
+        <v>1E4</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <f>C10*B17/1000</f>
+        <v>0.57774999999999999</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="14"/>
+        <v>12.5</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="15"/>
+        <v>12.5</v>
+      </c>
+      <c r="G17" s="5">
+        <f>F17/B2</f>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="16"/>
+        <v>-0.098514351651521628</v>
+      </c>
+      <c r="J17" t="str">
+        <f>DEC2HEX(B14+B15+B16+B17)</f>
+        <v>1FD</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B14:B17)</f>
+        <v>509</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C14:C17)</f>
+        <v>11.76299</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="14"/>
+        <v>254.5</v>
+      </c>
+      <c r="F18" s="5">
+        <f>SUM(F14:F17)</f>
+        <v>254.5</v>
+      </c>
+      <c r="G18" s="5">
+        <f>F18/B2</f>
+        <v>10.604166666666666</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="16"/>
+        <v>-0.098514351651521781</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25"/>
+    <row r="21" ht="14.25">
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="7">
+        <f>(C6*B14)/(C18*1000)</f>
+        <v>0.72543596483547124</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25"/>
+    <row r="25" ht="14.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <f>203*120</f>
+        <v>24360</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25"/>
+    <row r="27" ht="14.25"/>
+    <row r="28" ht="14.25"/>
+    <row r="30" ht="14.25"/>
+    <row r="32" ht="14.25"/>
+    <row r="33" ht="14.25">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" ht="14.25"/>
+    <row r="35" ht="14.25">
+      <c r="D35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="K1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="K3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
       <c r="W3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13">
-        <v>1</v>
-      </c>
-      <c r="M4" s="13">
+        <v>55</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12">
+        <v>1</v>
+      </c>
+      <c r="M4" s="12">
         <v>2</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="12">
         <v>3</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="12">
         <v>4</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="12">
         <v>5</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="12">
         <v>6</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="12">
         <v>7</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="12">
         <v>8</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="12">
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" s="13">
-        <v>0</v>
-      </c>
-      <c r="X4" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="13">
+        <v>56</v>
+      </c>
+      <c r="W4" s="12">
+        <v>0</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="12">
         <v>2</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="Z4" s="12">
         <v>3</v>
       </c>
-      <c r="AA4" s="13">
+      <c r="AA4" s="12">
         <v>4</v>
       </c>
-      <c r="AB4" s="13">
+      <c r="AB4" s="12">
         <v>5</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AC4" s="12">
         <v>6</v>
       </c>
-      <c r="AD4" s="13">
+      <c r="AD4" s="12">
         <v>7</v>
       </c>
-      <c r="AE4" s="13">
+      <c r="AE4" s="12">
         <v>8</v>
       </c>
-      <c r="AF4" s="13">
+      <c r="AF4" s="12">
         <v>9</v>
       </c>
       <c r="AG4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="I5">
-        <f>A5*(2^0)+B5*(2^1)+C5*(2^2)+D5*(2^3)+E5*(2^4)+F5*(2^5)+G5*(2^6)+H5*(2^7)</f>
+        <f t="shared" ref="I5:I9" si="17">A5*(2^0)+B5*(2^1)+C5*(2^2)+D5*(2^3)+E5*(2^4)+F5*(2^5)+G5*(2^6)+H5*(2^7)</f>
         <v>0</v>
       </c>
       <c r="K5">
@@ -1980,11 +3162,11 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <f>K5*(2^0)+L5*(2^1)+M5*(2^2)+N5*(2^3)+O5*(2^4)+P5*(2^5)+Q5*(2^6)+R5*(2^7)+S5*(2^8)+T5*(2^9)</f>
+        <f t="shared" ref="U5:U9" si="18">K5*(2^0)+L5*(2^1)+M5*(2^2)+N5*(2^3)+O5*(2^4)+P5*(2^5)+Q5*(2^6)+R5*(2^7)+S5*(2^8)+T5*(2^9)</f>
         <v>0</v>
       </c>
       <c r="W5" s="4">
-        <f>I5+_xlfn.BITLSHIFT(U5,8)</f>
+        <f t="shared" ref="W5:W9" si="19">I5+_xlfn.BITLSHIFT(U5,8)</f>
         <v>0</v>
       </c>
       <c r="X5" s="4">
@@ -2015,17 +3197,17 @@
         <v>0</v>
       </c>
       <c r="AG5" s="4">
-        <f>W5*(2^0)+X5*(2^1)+Y5*(2^2)+Z5*(2^3)+AA5*(2^4)+AB5*(2^5)+AC5*(2^6)+AD5*(2^7)+AE5*(2^8)+AF5*(2^9)</f>
+        <f t="shared" ref="AG5:AG8" si="20">W5*(2^0)+X5*(2^1)+Y5*(2^2)+Z5*(2^3)+AA5*(2^4)+AB5*(2^5)+AC5*(2^6)+AD5*(2^7)+AE5*(2^8)+AF5*(2^9)</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>U5+_xlfn.BITLSHIFT(AG5,7)</f>
+        <f t="shared" ref="AI5:AI9" si="21">U5+_xlfn.BITLSHIFT(AG5,7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="I6">
-        <f>A6*(2^0)+B6*(2^1)+C6*(2^2)+D6*(2^3)+E6*(2^4)+F6*(2^5)+G6*(2^6)+H6*(2^7)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K6" s="4">
@@ -2059,11 +3241,11 @@
         <v>0</v>
       </c>
       <c r="U6" s="4">
-        <f>K6*(2^0)+L6*(2^1)+M6*(2^2)+N6*(2^3)+O6*(2^4)+P6*(2^5)+Q6*(2^6)+R6*(2^7)+S6*(2^8)+T6*(2^9)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>I6+_xlfn.BITLSHIFT(U6,8)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X6" s="4">
@@ -2094,17 +3276,17 @@
         <v>0</v>
       </c>
       <c r="AG6" s="4">
-        <f>W6*(2^0)+X6*(2^1)+Y6*(2^2)+Z6*(2^3)+AA6*(2^4)+AB6*(2^5)+AC6*(2^6)+AD6*(2^7)+AE6*(2^8)+AF6*(2^9)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AI6" s="4">
-        <f>U6+_xlfn.BITLSHIFT(AG6,7)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="I7">
-        <f>A7*(2^0)+B7*(2^1)+C7*(2^2)+D7*(2^3)+E7*(2^4)+F7*(2^5)+G7*(2^6)+H7*(2^7)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K7" s="4">
@@ -2138,11 +3320,11 @@
         <v>0</v>
       </c>
       <c r="U7" s="4">
-        <f>K7*(2^0)+L7*(2^1)+M7*(2^2)+N7*(2^3)+O7*(2^4)+P7*(2^5)+Q7*(2^6)+R7*(2^7)+S7*(2^8)+T7*(2^9)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>I7+_xlfn.BITLSHIFT(U7,8)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X7" s="4">
@@ -2173,17 +3355,17 @@
         <v>0</v>
       </c>
       <c r="AG7" s="4">
-        <f>W7*(2^0)+X7*(2^1)+Y7*(2^2)+Z7*(2^3)+AA7*(2^4)+AB7*(2^5)+AC7*(2^6)+AD7*(2^7)+AE7*(2^8)+AF7*(2^9)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AI7" s="4">
-        <f>U7+_xlfn.BITLSHIFT(AG7,7)</f>
+        <f t="shared" si="21"/>
         <v>256</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="I8">
-        <f>A8*(2^0)+B8*(2^1)+C8*(2^2)+D8*(2^3)+E8*(2^4)+F8*(2^5)+G8*(2^6)+H8*(2^7)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K8" s="4">
@@ -2217,11 +3399,11 @@
         <v>0</v>
       </c>
       <c r="U8" s="4">
-        <f>K8*(2^0)+L8*(2^1)+M8*(2^2)+N8*(2^3)+O8*(2^4)+P8*(2^5)+Q8*(2^6)+R8*(2^7)+S8*(2^8)+T8*(2^9)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>I8+_xlfn.BITLSHIFT(U8,8)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X8" s="4">
@@ -2252,11 +3434,11 @@
         <v>0</v>
       </c>
       <c r="AG8" s="4">
-        <f>W8*(2^0)+X8*(2^1)+Y8*(2^2)+Z8*(2^3)+AA8*(2^4)+AB8*(2^5)+AC8*(2^6)+AD8*(2^7)+AE8*(2^8)+AF8*(2^9)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AI8" s="4">
-        <f>U8+_xlfn.BITLSHIFT(AG8,7)</f>
+        <f t="shared" si="21"/>
         <v>256</v>
       </c>
     </row>
@@ -2271,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <f>A9*(2^0)+B9*(2^1)+C9*(2^2)+D9*(2^3)+E9*(2^4)+F9*(2^5)+G9*(2^6)+H9*(2^7)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="K9" s="4">
@@ -2305,15 +3487,15 @@
         <v>0</v>
       </c>
       <c r="U9" s="4">
-        <f>K9*(2^0)+L9*(2^1)+M9*(2^2)+N9*(2^3)+O9*(2^4)+P9*(2^5)+Q9*(2^6)+R9*(2^7)+S9*(2^8)+T9*(2^9)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>I9+_xlfn.BITLSHIFT(U9,8)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="AI9" s="4">
-        <f>U9+_xlfn.BITLSHIFT(AG9,7)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -2328,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <f>A10*(2^0)+B10*(2^1)+C10*(2^2)+D10*(2^3)+E10*(2^4)+F10*(2^5)+G10*(2^6)+H10*(2^7)</f>
+        <f t="shared" ref="I10:I58" si="22">A10*(2^0)+B10*(2^1)+C10*(2^2)+D10*(2^3)+E10*(2^4)+F10*(2^5)+G10*(2^6)+H10*(2^7)</f>
         <v>5</v>
       </c>
       <c r="K10" s="4">
@@ -2362,15 +3544,15 @@
         <v>0</v>
       </c>
       <c r="U10" s="4">
-        <f>K10*(2^0)+L10*(2^1)+M10*(2^2)+N10*(2^3)+O10*(2^4)+P10*(2^5)+Q10*(2^6)+R10*(2^7)+S10*(2^8)+T10*(2^9)</f>
+        <f t="shared" ref="U10:U58" si="23">K10*(2^0)+L10*(2^1)+M10*(2^2)+N10*(2^3)+O10*(2^4)+P10*(2^5)+Q10*(2^6)+R10*(2^7)+S10*(2^8)+T10*(2^9)</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f>I10+_xlfn.BITLSHIFT(U10,8)</f>
+        <f t="shared" ref="W10:W58" si="24">I10+_xlfn.BITLSHIFT(U10,8)</f>
         <v>5</v>
       </c>
       <c r="AI10" s="4">
-        <f>U10+_xlfn.BITLSHIFT(AG10,7)</f>
+        <f t="shared" ref="AI10:AI12" si="25">U10+_xlfn.BITLSHIFT(AG10,7)</f>
         <v>0</v>
       </c>
     </row>
@@ -2385,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <f>A11*(2^0)+B11*(2^1)+C11*(2^2)+D11*(2^3)+E11*(2^4)+F11*(2^5)+G11*(2^6)+H11*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="K11" s="4">
@@ -2419,15 +3601,15 @@
         <v>0</v>
       </c>
       <c r="U11" s="4">
-        <f>K11*(2^0)+L11*(2^1)+M11*(2^2)+N11*(2^3)+O11*(2^4)+P11*(2^5)+Q11*(2^6)+R11*(2^7)+S11*(2^8)+T11*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>I11+_xlfn.BITLSHIFT(U11,8)</f>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="AI11" s="4">
-        <f>U11+_xlfn.BITLSHIFT(AG11,7)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -2442,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <f>A12*(2^0)+B12*(2^1)+C12*(2^2)+D12*(2^3)+E12*(2^4)+F12*(2^5)+G12*(2^6)+H12*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="K12" s="4">
@@ -2476,15 +3658,15 @@
         <v>0</v>
       </c>
       <c r="U12" s="4">
-        <f>K12*(2^0)+L12*(2^1)+M12*(2^2)+N12*(2^3)+O12*(2^4)+P12*(2^5)+Q12*(2^6)+R12*(2^7)+S12*(2^8)+T12*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>I12+_xlfn.BITLSHIFT(U12,8)</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="AI12" s="4">
-        <f>U12+_xlfn.BITLSHIFT(AG12,7)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -2502,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <f>A13*(2^0)+B13*(2^1)+C13*(2^2)+D13*(2^3)+E13*(2^4)+F13*(2^5)+G13*(2^6)+H13*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="K13" s="4">
@@ -2536,11 +3718,11 @@
         <v>0</v>
       </c>
       <c r="U13" s="4">
-        <f>K13*(2^0)+L13*(2^1)+M13*(2^2)+N13*(2^3)+O13*(2^4)+P13*(2^5)+Q13*(2^6)+R13*(2^7)+S13*(2^8)+T13*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f>I13+_xlfn.BITLSHIFT(U13,8)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
     </row>
@@ -2570,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <f>A14*(2^0)+B14*(2^1)+C14*(2^2)+D14*(2^3)+E14*(2^4)+F14*(2^5)+G14*(2^6)+H14*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>211</v>
       </c>
       <c r="K14" s="4">
@@ -2604,11 +3786,11 @@
         <v>0</v>
       </c>
       <c r="U14" s="4">
-        <f>K14*(2^0)+L14*(2^1)+M14*(2^2)+N14*(2^3)+O14*(2^4)+P14*(2^5)+Q14*(2^6)+R14*(2^7)+S14*(2^8)+T14*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f>I14+_xlfn.BITLSHIFT(U14,8)</f>
+        <f t="shared" si="24"/>
         <v>211</v>
       </c>
     </row>
@@ -2649,18 +3831,18 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <f>A16*(2^0)+B16*(2^1)+C16*(2^2)+D16*(2^3)+E16*(2^4)+F16*(2^5)+G16*(2^6)+H16*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="U16" s="4">
-        <f>K16*(2^0)+L16*(2^1)+M16*(2^2)+N16*(2^3)+O16*(2^4)+P16*(2^5)+Q16*(2^6)+R16*(2^7)+S16*(2^8)+T16*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="W16">
-        <f>I16+_xlfn.BITLSHIFT(U16,8)</f>
+        <f t="shared" si="24"/>
         <v>256</v>
       </c>
     </row>
@@ -2690,18 +3872,18 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f>A17*(2^0)+B17*(2^1)+C17*(2^2)+D17*(2^3)+E17*(2^4)+F17*(2^5)+G17*(2^6)+H17*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="U17" s="4">
-        <f>K17*(2^0)+L17*(2^1)+M17*(2^2)+N17*(2^3)+O17*(2^4)+P17*(2^5)+Q17*(2^6)+R17*(2^7)+S17*(2^8)+T17*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="W17">
-        <f>I17+_xlfn.BITLSHIFT(U17,8)</f>
+        <f t="shared" si="24"/>
         <v>257</v>
       </c>
     </row>
@@ -2731,18 +3913,18 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <f>A18*(2^0)+B18*(2^1)+C18*(2^2)+D18*(2^3)+E18*(2^4)+F18*(2^5)+G18*(2^6)+H18*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="U18" s="4">
-        <f>K18*(2^0)+L18*(2^1)+M18*(2^2)+N18*(2^3)+O18*(2^4)+P18*(2^5)+Q18*(2^6)+R18*(2^7)+S18*(2^8)+T18*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="W18">
-        <f>I18+_xlfn.BITLSHIFT(U18,8)</f>
+        <f t="shared" si="24"/>
         <v>258</v>
       </c>
     </row>
@@ -2772,18 +3954,18 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <f>A19*(2^0)+B19*(2^1)+C19*(2^2)+D19*(2^3)+E19*(2^4)+F19*(2^5)+G19*(2^6)+H19*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="U19" s="4">
-        <f>K19*(2^0)+L19*(2^1)+M19*(2^2)+N19*(2^3)+O19*(2^4)+P19*(2^5)+Q19*(2^6)+R19*(2^7)+S19*(2^8)+T19*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="W19">
-        <f>I19+_xlfn.BITLSHIFT(U19,8)</f>
+        <f t="shared" si="24"/>
         <v>259</v>
       </c>
     </row>
@@ -2803,18 +3985,18 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20">
-        <f>A20*(2^0)+B20*(2^1)+C20*(2^2)+D20*(2^3)+E20*(2^4)+F20*(2^5)+G20*(2^6)+H20*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="U20" s="4">
-        <f>K20*(2^0)+L20*(2^1)+M20*(2^2)+N20*(2^3)+O20*(2^4)+P20*(2^5)+Q20*(2^6)+R20*(2^7)+S20*(2^8)+T20*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="W20">
-        <f>I20+_xlfn.BITLSHIFT(U20,8)</f>
+        <f t="shared" si="24"/>
         <v>260</v>
       </c>
     </row>
@@ -2834,18 +4016,18 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21">
-        <f>A21*(2^0)+B21*(2^1)+C21*(2^2)+D21*(2^3)+E21*(2^4)+F21*(2^5)+G21*(2^6)+H21*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="U21" s="4">
-        <f>K21*(2^0)+L21*(2^1)+M21*(2^2)+N21*(2^3)+O21*(2^4)+P21*(2^5)+Q21*(2^6)+R21*(2^7)+S21*(2^8)+T21*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="W21">
-        <f>I21+_xlfn.BITLSHIFT(U21,8)</f>
+        <f t="shared" si="24"/>
         <v>261</v>
       </c>
     </row>
@@ -2865,18 +4047,18 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22">
-        <f>A22*(2^0)+B22*(2^1)+C22*(2^2)+D22*(2^3)+E22*(2^4)+F22*(2^5)+G22*(2^6)+H22*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="U22" s="4">
-        <f>K22*(2^0)+L22*(2^1)+M22*(2^2)+N22*(2^3)+O22*(2^4)+P22*(2^5)+Q22*(2^6)+R22*(2^7)+S22*(2^8)+T22*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="W22">
-        <f>I22+_xlfn.BITLSHIFT(U22,8)</f>
+        <f t="shared" si="24"/>
         <v>262</v>
       </c>
     </row>
@@ -2896,18 +4078,18 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23">
-        <f>A23*(2^0)+B23*(2^1)+C23*(2^2)+D23*(2^3)+E23*(2^4)+F23*(2^5)+G23*(2^6)+H23*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="U23" s="4">
-        <f>K23*(2^0)+L23*(2^1)+M23*(2^2)+N23*(2^3)+O23*(2^4)+P23*(2^5)+Q23*(2^6)+R23*(2^7)+S23*(2^8)+T23*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="W23">
-        <f>I23+_xlfn.BITLSHIFT(U23,8)</f>
+        <f t="shared" si="24"/>
         <v>263</v>
       </c>
     </row>
@@ -2929,18 +4111,18 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24">
-        <f>A24*(2^0)+B24*(2^1)+C24*(2^2)+D24*(2^3)+E24*(2^4)+F24*(2^5)+G24*(2^6)+H24*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="U24" s="4">
-        <f>K24*(2^0)+L24*(2^1)+M24*(2^2)+N24*(2^3)+O24*(2^4)+P24*(2^5)+Q24*(2^6)+R24*(2^7)+S24*(2^8)+T24*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="W24">
-        <f>I24+_xlfn.BITLSHIFT(U24,8)</f>
+        <f t="shared" si="24"/>
         <v>264</v>
       </c>
     </row>
@@ -2970,18 +4152,18 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <f>A25*(2^0)+B25*(2^1)+C25*(2^2)+D25*(2^3)+E25*(2^4)+F25*(2^5)+G25*(2^6)+H25*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>211</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="U25" s="4">
-        <f>K25*(2^0)+L25*(2^1)+M25*(2^2)+N25*(2^3)+O25*(2^4)+P25*(2^5)+Q25*(2^6)+R25*(2^7)+S25*(2^8)+T25*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="W25">
-        <f>I25+_xlfn.BITLSHIFT(U25,8)</f>
+        <f t="shared" si="24"/>
         <v>467</v>
       </c>
     </row>
@@ -3014,18 +4196,18 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <f>A27*(2^0)+B27*(2^1)+C27*(2^2)+D27*(2^3)+E27*(2^4)+F27*(2^5)+G27*(2^6)+H27*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="U27" s="4">
-        <f>K27*(2^0)+L27*(2^1)+M27*(2^2)+N27*(2^3)+O27*(2^4)+P27*(2^5)+Q27*(2^6)+R27*(2^7)+S27*(2^8)+T27*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="W27">
-        <f>I27+_xlfn.BITLSHIFT(U27,8)</f>
+        <f t="shared" si="24"/>
         <v>512</v>
       </c>
     </row>
@@ -3055,18 +4237,18 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f>A28*(2^0)+B28*(2^1)+C28*(2^2)+D28*(2^3)+E28*(2^4)+F28*(2^5)+G28*(2^6)+H28*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="L28" s="4">
         <v>1</v>
       </c>
       <c r="U28" s="4">
-        <f>K28*(2^0)+L28*(2^1)+M28*(2^2)+N28*(2^3)+O28*(2^4)+P28*(2^5)+Q28*(2^6)+R28*(2^7)+S28*(2^8)+T28*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="W28">
-        <f>I28+_xlfn.BITLSHIFT(U28,8)</f>
+        <f t="shared" si="24"/>
         <v>513</v>
       </c>
     </row>
@@ -3096,18 +4278,18 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <f>A29*(2^0)+B29*(2^1)+C29*(2^2)+D29*(2^3)+E29*(2^4)+F29*(2^5)+G29*(2^6)+H29*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="L29" s="4">
         <v>1</v>
       </c>
       <c r="U29" s="4">
-        <f>K29*(2^0)+L29*(2^1)+M29*(2^2)+N29*(2^3)+O29*(2^4)+P29*(2^5)+Q29*(2^6)+R29*(2^7)+S29*(2^8)+T29*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="W29">
-        <f>I29+_xlfn.BITLSHIFT(U29,8)</f>
+        <f t="shared" si="24"/>
         <v>514</v>
       </c>
     </row>
@@ -3137,18 +4319,18 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f>A30*(2^0)+B30*(2^1)+C30*(2^2)+D30*(2^3)+E30*(2^4)+F30*(2^5)+G30*(2^6)+H30*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="L30" s="4">
         <v>1</v>
       </c>
       <c r="U30" s="4">
-        <f>K30*(2^0)+L30*(2^1)+M30*(2^2)+N30*(2^3)+O30*(2^4)+P30*(2^5)+Q30*(2^6)+R30*(2^7)+S30*(2^8)+T30*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="W30">
-        <f>I30+_xlfn.BITLSHIFT(U30,8)</f>
+        <f t="shared" si="24"/>
         <v>515</v>
       </c>
     </row>
@@ -3168,18 +4350,18 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31">
-        <f>A31*(2^0)+B31*(2^1)+C31*(2^2)+D31*(2^3)+E31*(2^4)+F31*(2^5)+G31*(2^6)+H31*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="L31" s="4">
         <v>1</v>
       </c>
       <c r="U31" s="4">
-        <f>K31*(2^0)+L31*(2^1)+M31*(2^2)+N31*(2^3)+O31*(2^4)+P31*(2^5)+Q31*(2^6)+R31*(2^7)+S31*(2^8)+T31*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="W31">
-        <f>I31+_xlfn.BITLSHIFT(U31,8)</f>
+        <f t="shared" si="24"/>
         <v>516</v>
       </c>
     </row>
@@ -3199,18 +4381,18 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32">
-        <f>A32*(2^0)+B32*(2^1)+C32*(2^2)+D32*(2^3)+E32*(2^4)+F32*(2^5)+G32*(2^6)+H32*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="L32" s="4">
         <v>1</v>
       </c>
       <c r="U32" s="4">
-        <f>K32*(2^0)+L32*(2^1)+M32*(2^2)+N32*(2^3)+O32*(2^4)+P32*(2^5)+Q32*(2^6)+R32*(2^7)+S32*(2^8)+T32*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="W32">
-        <f>I32+_xlfn.BITLSHIFT(U32,8)</f>
+        <f t="shared" si="24"/>
         <v>517</v>
       </c>
     </row>
@@ -3230,18 +4412,18 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33">
-        <f>A33*(2^0)+B33*(2^1)+C33*(2^2)+D33*(2^3)+E33*(2^4)+F33*(2^5)+G33*(2^6)+H33*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="L33" s="4">
         <v>1</v>
       </c>
       <c r="U33" s="4">
-        <f>K33*(2^0)+L33*(2^1)+M33*(2^2)+N33*(2^3)+O33*(2^4)+P33*(2^5)+Q33*(2^6)+R33*(2^7)+S33*(2^8)+T33*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="W33">
-        <f>I33+_xlfn.BITLSHIFT(U33,8)</f>
+        <f t="shared" si="24"/>
         <v>518</v>
       </c>
     </row>
@@ -3261,18 +4443,18 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34">
-        <f>A34*(2^0)+B34*(2^1)+C34*(2^2)+D34*(2^3)+E34*(2^4)+F34*(2^5)+G34*(2^6)+H34*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="L34" s="4">
         <v>1</v>
       </c>
       <c r="U34" s="4">
-        <f>K34*(2^0)+L34*(2^1)+M34*(2^2)+N34*(2^3)+O34*(2^4)+P34*(2^5)+Q34*(2^6)+R34*(2^7)+S34*(2^8)+T34*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="W34">
-        <f>I34+_xlfn.BITLSHIFT(U34,8)</f>
+        <f t="shared" si="24"/>
         <v>519</v>
       </c>
     </row>
@@ -3294,18 +4476,18 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35">
-        <f>A35*(2^0)+B35*(2^1)+C35*(2^2)+D35*(2^3)+E35*(2^4)+F35*(2^5)+G35*(2^6)+H35*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="L35" s="4">
         <v>1</v>
       </c>
       <c r="U35" s="4">
-        <f>K35*(2^0)+L35*(2^1)+M35*(2^2)+N35*(2^3)+O35*(2^4)+P35*(2^5)+Q35*(2^6)+R35*(2^7)+S35*(2^8)+T35*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="W35">
-        <f>I35+_xlfn.BITLSHIFT(U35,8)</f>
+        <f t="shared" si="24"/>
         <v>520</v>
       </c>
     </row>
@@ -3335,18 +4517,18 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <f>A36*(2^0)+B36*(2^1)+C36*(2^2)+D36*(2^3)+E36*(2^4)+F36*(2^5)+G36*(2^6)+H36*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>211</v>
       </c>
       <c r="L36" s="4">
         <v>1</v>
       </c>
       <c r="U36" s="4">
-        <f>K36*(2^0)+L36*(2^1)+M36*(2^2)+N36*(2^3)+O36*(2^4)+P36*(2^5)+Q36*(2^6)+R36*(2^7)+S36*(2^8)+T36*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="W36">
-        <f>I36+_xlfn.BITLSHIFT(U36,8)</f>
+        <f t="shared" si="24"/>
         <v>723</v>
       </c>
     </row>
@@ -3379,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="4">
-        <f>A38*(2^0)+B38*(2^1)+C38*(2^2)+D38*(2^3)+E38*(2^4)+F38*(2^5)+G38*(2^6)+H38*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J38" s="4"/>
@@ -3398,12 +4580,12 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4">
-        <f>K38*(2^0)+L38*(2^1)+M38*(2^2)+N38*(2^3)+O38*(2^4)+P38*(2^5)+Q38*(2^6)+R38*(2^7)+S38*(2^8)+T38*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="V38" s="4"/>
       <c r="W38" s="4">
-        <f>I38+_xlfn.BITLSHIFT(U38,8)</f>
+        <f t="shared" si="24"/>
         <v>768</v>
       </c>
     </row>
@@ -3433,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="4">
-        <f>A39*(2^0)+B39*(2^1)+C39*(2^2)+D39*(2^3)+E39*(2^4)+F39*(2^5)+G39*(2^6)+H39*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J39" s="4"/>
@@ -3452,12 +4634,12 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4">
-        <f>K39*(2^0)+L39*(2^1)+M39*(2^2)+N39*(2^3)+O39*(2^4)+P39*(2^5)+Q39*(2^6)+R39*(2^7)+S39*(2^8)+T39*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="V39" s="4"/>
       <c r="W39" s="4">
-        <f>I39+_xlfn.BITLSHIFT(U39,8)</f>
+        <f t="shared" si="24"/>
         <v>769</v>
       </c>
     </row>
@@ -3487,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="4">
-        <f>A40*(2^0)+B40*(2^1)+C40*(2^2)+D40*(2^3)+E40*(2^4)+F40*(2^5)+G40*(2^6)+H40*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="J40" s="4"/>
@@ -3506,12 +4688,12 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4">
-        <f>K40*(2^0)+L40*(2^1)+M40*(2^2)+N40*(2^3)+O40*(2^4)+P40*(2^5)+Q40*(2^6)+R40*(2^7)+S40*(2^8)+T40*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="V40" s="4"/>
       <c r="W40" s="4">
-        <f>I40+_xlfn.BITLSHIFT(U40,8)</f>
+        <f t="shared" si="24"/>
         <v>770</v>
       </c>
     </row>
@@ -3541,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="4">
-        <f>A41*(2^0)+B41*(2^1)+C41*(2^2)+D41*(2^3)+E41*(2^4)+F41*(2^5)+G41*(2^6)+H41*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="J41" s="4"/>
@@ -3560,12 +4742,12 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4">
-        <f>K41*(2^0)+L41*(2^1)+M41*(2^2)+N41*(2^3)+O41*(2^4)+P41*(2^5)+Q41*(2^6)+R41*(2^7)+S41*(2^8)+T41*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="V41" s="4"/>
       <c r="W41" s="4">
-        <f>I41+_xlfn.BITLSHIFT(U41,8)</f>
+        <f t="shared" si="24"/>
         <v>771</v>
       </c>
     </row>
@@ -3585,7 +4767,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4">
-        <f>A42*(2^0)+B42*(2^1)+C42*(2^2)+D42*(2^3)+E42*(2^4)+F42*(2^5)+G42*(2^6)+H42*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="J42" s="4"/>
@@ -3604,12 +4786,12 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4">
-        <f>K42*(2^0)+L42*(2^1)+M42*(2^2)+N42*(2^3)+O42*(2^4)+P42*(2^5)+Q42*(2^6)+R42*(2^7)+S42*(2^8)+T42*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="V42" s="4"/>
       <c r="W42" s="4">
-        <f>I42+_xlfn.BITLSHIFT(U42,8)</f>
+        <f t="shared" si="24"/>
         <v>772</v>
       </c>
     </row>
@@ -3629,7 +4811,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4">
-        <f>A43*(2^0)+B43*(2^1)+C43*(2^2)+D43*(2^3)+E43*(2^4)+F43*(2^5)+G43*(2^6)+H43*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="J43" s="4"/>
@@ -3648,12 +4830,12 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4">
-        <f>K43*(2^0)+L43*(2^1)+M43*(2^2)+N43*(2^3)+O43*(2^4)+P43*(2^5)+Q43*(2^6)+R43*(2^7)+S43*(2^8)+T43*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="V43" s="4"/>
       <c r="W43" s="4">
-        <f>I43+_xlfn.BITLSHIFT(U43,8)</f>
+        <f t="shared" si="24"/>
         <v>773</v>
       </c>
     </row>
@@ -3673,7 +4855,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4">
-        <f>A44*(2^0)+B44*(2^1)+C44*(2^2)+D44*(2^3)+E44*(2^4)+F44*(2^5)+G44*(2^6)+H44*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="J44" s="4"/>
@@ -3692,12 +4874,12 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4">
-        <f>K44*(2^0)+L44*(2^1)+M44*(2^2)+N44*(2^3)+O44*(2^4)+P44*(2^5)+Q44*(2^6)+R44*(2^7)+S44*(2^8)+T44*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="V44" s="4"/>
       <c r="W44" s="4">
-        <f>I44+_xlfn.BITLSHIFT(U44,8)</f>
+        <f t="shared" si="24"/>
         <v>774</v>
       </c>
     </row>
@@ -3717,7 +4899,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4">
-        <f>A45*(2^0)+B45*(2^1)+C45*(2^2)+D45*(2^3)+E45*(2^4)+F45*(2^5)+G45*(2^6)+H45*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="J45" s="4"/>
@@ -3736,12 +4918,12 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
       <c r="U45" s="4">
-        <f>K45*(2^0)+L45*(2^1)+M45*(2^2)+N45*(2^3)+O45*(2^4)+P45*(2^5)+Q45*(2^6)+R45*(2^7)+S45*(2^8)+T45*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="V45" s="4"/>
       <c r="W45" s="4">
-        <f>I45+_xlfn.BITLSHIFT(U45,8)</f>
+        <f t="shared" si="24"/>
         <v>775</v>
       </c>
     </row>
@@ -3763,7 +4945,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4">
-        <f>A46*(2^0)+B46*(2^1)+C46*(2^2)+D46*(2^3)+E46*(2^4)+F46*(2^5)+G46*(2^6)+H46*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="J46" s="4"/>
@@ -3782,12 +4964,12 @@
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4">
-        <f>K46*(2^0)+L46*(2^1)+M46*(2^2)+N46*(2^3)+O46*(2^4)+P46*(2^5)+Q46*(2^6)+R46*(2^7)+S46*(2^8)+T46*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4">
-        <f>I46+_xlfn.BITLSHIFT(U46,8)</f>
+        <f t="shared" si="24"/>
         <v>776</v>
       </c>
     </row>
@@ -3817,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="4">
-        <f>A47*(2^0)+B47*(2^1)+C47*(2^2)+D47*(2^3)+E47*(2^4)+F47*(2^5)+G47*(2^6)+H47*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>211</v>
       </c>
       <c r="J47" s="4"/>
@@ -3836,41 +5018,41 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4">
-        <f>K47*(2^0)+L47*(2^1)+M47*(2^2)+N47*(2^3)+O47*(2^4)+P47*(2^5)+Q47*(2^6)+R47*(2^7)+S47*(2^8)+T47*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="V47" s="4"/>
       <c r="W47" s="4">
-        <f>I47+_xlfn.BITLSHIFT(U47,8)</f>
+        <f t="shared" si="24"/>
         <v>979</v>
       </c>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
+      <c r="A48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="4">
@@ -3898,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="4">
-        <f>A49*(2^0)+B49*(2^1)+C49*(2^2)+D49*(2^3)+E49*(2^4)+F49*(2^5)+G49*(2^6)+H49*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J49" s="4"/>
@@ -3933,12 +5115,12 @@
         <v>1</v>
       </c>
       <c r="U49" s="4">
-        <f>K49*(2^0)+L49*(2^1)+M49*(2^2)+N49*(2^3)+O49*(2^4)+P49*(2^5)+Q49*(2^6)+R49*(2^7)+S49*(2^8)+T49*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>628</v>
       </c>
       <c r="V49" s="4"/>
       <c r="W49" s="4">
-        <f>I49+_xlfn.BITLSHIFT(U49,8)</f>
+        <f t="shared" si="24"/>
         <v>160768</v>
       </c>
     </row>
@@ -3968,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="4">
-        <f>A50*(2^0)+B50*(2^1)+C50*(2^2)+D50*(2^3)+E50*(2^4)+F50*(2^5)+G50*(2^6)+H50*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J50" s="4"/>
@@ -4003,12 +5185,12 @@
         <v>1</v>
       </c>
       <c r="U50" s="4">
-        <f>K50*(2^0)+L50*(2^1)+M50*(2^2)+N50*(2^3)+O50*(2^4)+P50*(2^5)+Q50*(2^6)+R50*(2^7)+S50*(2^8)+T50*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>628</v>
       </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4">
-        <f>I50+_xlfn.BITLSHIFT(U50,8)</f>
+        <f t="shared" si="24"/>
         <v>160769</v>
       </c>
     </row>
@@ -4038,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="4">
-        <f>A51*(2^0)+B51*(2^1)+C51*(2^2)+D51*(2^3)+E51*(2^4)+F51*(2^5)+G51*(2^6)+H51*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="J51" s="4"/>
@@ -4073,12 +5255,12 @@
         <v>1</v>
       </c>
       <c r="U51" s="4">
-        <f>K51*(2^0)+L51*(2^1)+M51*(2^2)+N51*(2^3)+O51*(2^4)+P51*(2^5)+Q51*(2^6)+R51*(2^7)+S51*(2^8)+T51*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>628</v>
       </c>
       <c r="V51" s="4"/>
       <c r="W51" s="4">
-        <f>I51+_xlfn.BITLSHIFT(U51,8)</f>
+        <f t="shared" si="24"/>
         <v>160770</v>
       </c>
     </row>
@@ -4108,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="4">
-        <f>A52*(2^0)+B52*(2^1)+C52*(2^2)+D52*(2^3)+E52*(2^4)+F52*(2^5)+G52*(2^6)+H52*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="J52" s="4"/>
@@ -4143,12 +5325,12 @@
         <v>1</v>
       </c>
       <c r="U52" s="4">
-        <f>K52*(2^0)+L52*(2^1)+M52*(2^2)+N52*(2^3)+O52*(2^4)+P52*(2^5)+Q52*(2^6)+R52*(2^7)+S52*(2^8)+T52*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>628</v>
       </c>
       <c r="V52" s="4"/>
       <c r="W52" s="4">
-        <f>I52+_xlfn.BITLSHIFT(U52,8)</f>
+        <f t="shared" si="24"/>
         <v>160771</v>
       </c>
     </row>
@@ -4168,7 +5350,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4">
-        <f>A53*(2^0)+B53*(2^1)+C53*(2^2)+D53*(2^3)+E53*(2^4)+F53*(2^5)+G53*(2^6)+H53*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="J53" s="4"/>
@@ -4203,12 +5385,12 @@
         <v>1</v>
       </c>
       <c r="U53" s="4">
-        <f>K53*(2^0)+L53*(2^1)+M53*(2^2)+N53*(2^3)+O53*(2^4)+P53*(2^5)+Q53*(2^6)+R53*(2^7)+S53*(2^8)+T53*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>628</v>
       </c>
       <c r="V53" s="4"/>
       <c r="W53" s="4">
-        <f>I53+_xlfn.BITLSHIFT(U53,8)</f>
+        <f t="shared" si="24"/>
         <v>160772</v>
       </c>
     </row>
@@ -4228,7 +5410,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4">
-        <f>A54*(2^0)+B54*(2^1)+C54*(2^2)+D54*(2^3)+E54*(2^4)+F54*(2^5)+G54*(2^6)+H54*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="J54" s="4"/>
@@ -4263,12 +5445,12 @@
         <v>1</v>
       </c>
       <c r="U54" s="4">
-        <f>K54*(2^0)+L54*(2^1)+M54*(2^2)+N54*(2^3)+O54*(2^4)+P54*(2^5)+Q54*(2^6)+R54*(2^7)+S54*(2^8)+T54*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>628</v>
       </c>
       <c r="V54" s="4"/>
       <c r="W54" s="4">
-        <f>I54+_xlfn.BITLSHIFT(U54,8)</f>
+        <f t="shared" si="24"/>
         <v>160773</v>
       </c>
     </row>
@@ -4288,7 +5470,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4">
-        <f>A55*(2^0)+B55*(2^1)+C55*(2^2)+D55*(2^3)+E55*(2^4)+F55*(2^5)+G55*(2^6)+H55*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="J55" s="4"/>
@@ -4323,12 +5505,12 @@
         <v>1</v>
       </c>
       <c r="U55" s="4">
-        <f>K55*(2^0)+L55*(2^1)+M55*(2^2)+N55*(2^3)+O55*(2^4)+P55*(2^5)+Q55*(2^6)+R55*(2^7)+S55*(2^8)+T55*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>628</v>
       </c>
       <c r="V55" s="4"/>
       <c r="W55" s="4">
-        <f>I55+_xlfn.BITLSHIFT(U55,8)</f>
+        <f t="shared" si="24"/>
         <v>160774</v>
       </c>
     </row>
@@ -4348,7 +5530,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4">
-        <f>A56*(2^0)+B56*(2^1)+C56*(2^2)+D56*(2^3)+E56*(2^4)+F56*(2^5)+G56*(2^6)+H56*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="J56" s="4"/>
@@ -4383,12 +5565,12 @@
         <v>1</v>
       </c>
       <c r="U56" s="4">
-        <f>K56*(2^0)+L56*(2^1)+M56*(2^2)+N56*(2^3)+O56*(2^4)+P56*(2^5)+Q56*(2^6)+R56*(2^7)+S56*(2^8)+T56*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>628</v>
       </c>
       <c r="V56" s="4"/>
       <c r="W56" s="4">
-        <f>I56+_xlfn.BITLSHIFT(U56,8)</f>
+        <f t="shared" si="24"/>
         <v>160775</v>
       </c>
     </row>
@@ -4410,7 +5592,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4">
-        <f>A57*(2^0)+B57*(2^1)+C57*(2^2)+D57*(2^3)+E57*(2^4)+F57*(2^5)+G57*(2^6)+H57*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="J57" s="4"/>
@@ -4445,12 +5627,12 @@
         <v>1</v>
       </c>
       <c r="U57" s="4">
-        <f>K57*(2^0)+L57*(2^1)+M57*(2^2)+N57*(2^3)+O57*(2^4)+P57*(2^5)+Q57*(2^6)+R57*(2^7)+S57*(2^8)+T57*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>628</v>
       </c>
       <c r="V57" s="4"/>
       <c r="W57" s="4">
-        <f>I57+_xlfn.BITLSHIFT(U57,8)</f>
+        <f t="shared" si="24"/>
         <v>160776</v>
       </c>
     </row>
@@ -4480,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="4">
-        <f>A58*(2^0)+B58*(2^1)+C58*(2^2)+D58*(2^3)+E58*(2^4)+F58*(2^5)+G58*(2^6)+H58*(2^7)</f>
+        <f t="shared" si="22"/>
         <v>211</v>
       </c>
       <c r="J58" s="4"/>
@@ -4515,12 +5697,12 @@
         <v>1</v>
       </c>
       <c r="U58" s="4">
-        <f>K58*(2^0)+L58*(2^1)+M58*(2^2)+N58*(2^3)+O58*(2^4)+P58*(2^5)+Q58*(2^6)+R58*(2^7)+S58*(2^8)+T58*(2^9)</f>
+        <f t="shared" si="23"/>
         <v>628</v>
       </c>
       <c r="V58" s="4"/>
       <c r="W58" s="4">
-        <f>I58+_xlfn.BITLSHIFT(U58,8)</f>
+        <f t="shared" si="24"/>
         <v>160979</v>
       </c>
     </row>

--- a/VGA Timing.xlsx
+++ b/VGA Timing.xlsx
@@ -3,14 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Display 800x600" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Display 640x480 @ 60hZ big" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Display 640x480 @ 60hZ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Display 640x480 @ 85Hz" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="1024x768 @75Hz (40MHZ)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1024x768 @70Hz (40MHZ)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1024x768 @60Hz (40MHZ)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Display 800x600 56Hz (16MHZ) " sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Display 800x600 (16MHZ)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Display 640x480 @ 60Hz (16MHz)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Display 640x480 @ 60hZ (8MHz)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Display 640x480 @ 24MHz" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="AddressW" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Cursors" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t xml:space="preserve">Design Clock (MHz)</t>
   </si>
@@ -130,6 +136,18 @@
     <t xml:space="preserve">A7-A13 Y Coord</t>
   </si>
   <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>adjusted</t>
+  </si>
+  <si>
     <t xml:space="preserve">pld clock</t>
   </si>
   <si>
@@ -145,10 +163,40 @@
     <t xml:space="preserve">8 bit y</t>
   </si>
   <si>
+    <t xml:space="preserve">CPU CLOCK</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>IOPS</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>t/s</t>
+  </si>
+  <si>
     <t xml:space="preserve">EFFECTIVE RESOLUTION</t>
   </si>
   <si>
-    <t>407x240</t>
+    <t xml:space="preserve">Horizontal Time</t>
+  </si>
+  <si>
+    <t>µs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertical Time</t>
+  </si>
+  <si>
+    <t>ms</t>
   </si>
   <si>
     <t xml:space="preserve">Pixel (8bit)</t>
@@ -157,10 +205,28 @@
     <t>bytes</t>
   </si>
   <si>
-    <t>203x120</t>
+    <t xml:space="preserve">current speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ops per char</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max pixels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0-A9 X Coord</t>
   </si>
   <si>
     <t xml:space="preserve">10 bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A10-A18 Y Coord</t>
+  </si>
+  <si>
+    <t>203x120</t>
   </si>
   <si>
     <t xml:space="preserve">10 bit x</t>
@@ -194,6 +260,33 @@
   </si>
   <si>
     <t>...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VGA Resistor Ladder</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>RVGA</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
 </sst>
 </file>
@@ -250,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -258,12 +351,118 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -280,7 +479,18 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1">
@@ -823,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>40</v>
+        <v>78.799999999999997</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -831,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -881,33 +1091,38 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>800</v>
+        <v>1024</v>
       </c>
       <c r="C6" s="3">
-        <v>20</v>
+        <v>13.653333333333</v>
       </c>
       <c r="D6">
         <f>B1/B2</f>
-        <v>5</v>
+        <v>1.97</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:E9" si="0">B6/D6</f>
-        <v>160</v>
+        <v>519.79695431472078</v>
       </c>
       <c r="F6">
-        <v>160</v>
+        <f t="shared" ref="F6:F7" si="1">ROUND(E6,0)</f>
+        <v>520</v>
       </c>
       <c r="G6" s="3">
         <f>F6/(B2*1000000)*1000000</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H9" si="1">(G6-C6)/C6</f>
-        <v>0</v>
+        <f t="shared" ref="H6:H9" si="2">(G6-C6)/C6</f>
+        <v>-0.047851562499976769</v>
       </c>
       <c r="I6">
         <f>F6</f>
-        <v>160</v>
+        <v>520</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f>DEC2HEX(F6)</f>
+        <v>208</v>
       </c>
     </row>
     <row r="7" ht="14.25">
@@ -915,33 +1130,38 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>0.32000000000000001</v>
       </c>
       <c r="D7">
         <f>B1/B2</f>
-        <v>5</v>
+        <v>1.97</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
+        <v>12.18274111675127</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="G7" s="5">
         <f>F7/(B2*1000000)*1000000</f>
-        <v>1</v>
+        <v>0.29999999999999999</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-0.062500000000000056</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I9" si="2">I6+F7</f>
-        <v>168</v>
+        <f t="shared" ref="I7:I9" si="3">I6+F7</f>
+        <v>532</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f>DEC2HEX(F7+F6)</f>
+        <v>214</v>
       </c>
     </row>
     <row r="8" ht="14.25">
@@ -949,33 +1169,37 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C8" s="3">
-        <v>3.2000000000000002</v>
+        <v>1.8133333333332999</v>
       </c>
       <c r="D8">
         <f>B1/B2</f>
-        <v>5</v>
+        <v>1.97</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>25.600000000000001</v>
-      </c>
-      <c r="F8">
-        <v>25</v>
+        <v>69.035532994923855</v>
+      </c>
+      <c r="F8" s="4">
+        <v>57</v>
       </c>
       <c r="G8" s="5">
         <f>F8/(B2*1000000)*1000000</f>
-        <v>3.125</v>
+        <v>1.4249999999999998</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="1"/>
-        <v>-0.023437500000000056</v>
+        <f t="shared" si="2"/>
+        <v>-0.21415441176469149</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>193</v>
+        <f t="shared" si="3"/>
+        <v>589</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f>DEC2HEX(F6+F7+F8)</f>
+        <v>24D</v>
       </c>
     </row>
     <row r="9" ht="14.25">
@@ -983,33 +1207,37 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3">
-        <v>2.2000000000000002</v>
+        <v>1.9199999999999999</v>
       </c>
       <c r="D9">
         <f>B1/B2</f>
-        <v>5</v>
+        <v>1.97</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F9">
-        <v>18</v>
+        <v>73.096446700507613</v>
+      </c>
+      <c r="F9" s="4">
+        <v>52</v>
       </c>
       <c r="G9" s="5">
         <f>F9/(B2*1000000)*1000000</f>
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="1"/>
-        <v>0.022727272727272645</v>
+        <f t="shared" si="2"/>
+        <v>-0.32291666666666663</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>211</v>
+        <f t="shared" si="3"/>
+        <v>641</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f>DEC2HEX(F6+F7+F8+F9)</f>
+        <v>281</v>
       </c>
     </row>
     <row r="10" ht="14.25">
@@ -1017,30 +1245,30 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>1056</v>
+        <v>1328</v>
       </c>
       <c r="C10" s="3">
-        <v>26.399999999999999</v>
+        <v>17.706666666667001</v>
       </c>
       <c r="D10">
         <f>B1/B2</f>
-        <v>5</v>
+        <v>1.97</v>
       </c>
       <c r="E10" s="4">
         <f>B10/D10</f>
-        <v>211.19999999999999</v>
+        <v>674.11167512690361</v>
       </c>
       <c r="F10">
         <f>SUM(F6:F9)</f>
-        <v>211</v>
+        <v>641</v>
       </c>
       <c r="G10" s="5">
         <f>F10/(B2*1000000)*1000000</f>
-        <v>26.375</v>
+        <v>16.024999999999999</v>
       </c>
       <c r="H10" s="6">
         <f>(G10-C10)/C10</f>
-        <v>-0.00094696969696964322</v>
+        <v>-0.094973644578330421</v>
       </c>
       <c r="I10" s="4"/>
     </row>
@@ -1073,28 +1301,33 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>600</v>
-      </c>
-      <c r="C14">
-        <v>15.84</v>
+        <v>768</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13.59872</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" ref="E14:E18" si="3">B14/D14</f>
-        <v>150</v>
-      </c>
-      <c r="F14">
-        <v>120</v>
+        <f t="shared" ref="E14:E18" si="4">B14/D14</f>
+        <v>384</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" ref="F14:F18" si="5">ROUND(E14,0)</f>
+        <v>384</v>
       </c>
       <c r="G14" s="3">
-        <f>F14/(B2*1000000)*1000000</f>
-        <v>15</v>
+        <f>F14/(B2*1000000)*1000000*D14</f>
+        <v>19.199999999999999</v>
       </c>
       <c r="H14" s="6">
         <f>(G14-C14)/C14</f>
-        <v>-0.053030303030303025</v>
+        <v>0.41189759036144574</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f>DEC2HEX(B14)</f>
+        <v>300</v>
       </c>
     </row>
     <row r="15" ht="14.25">
@@ -1102,28 +1335,33 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0.0264</v>
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.053120000000000001</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="G15" s="5">
-        <f>F15/(B2*1000000)*1000000</f>
-        <v>0</v>
+        <f>F15/(B2*1000000)*1000000*D15</f>
+        <v>0.099999999999999992</v>
       </c>
       <c r="H15" s="6">
         <f>(G15-C15)*100/C15</f>
-        <v>-100</v>
+        <v>88.253012048192744</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f>DEC2HEX(B15+B14)</f>
+        <v>303</v>
       </c>
     </row>
     <row r="16" ht="14.25">
@@ -1131,28 +1369,33 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>0.1056</v>
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.10624</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="G16" s="5">
-        <f>F16/(B2*1000000)*1000000</f>
-        <v>0.125</v>
+        <f>F16/(B2*1000000)*1000000*D16</f>
+        <v>0.14999999999999999</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" ref="H16:H18" si="4">(G16-C16)/C16</f>
-        <v>0.18371212121212122</v>
+        <f t="shared" ref="H16:H18" si="6">(G16-C16)/C16</f>
+        <v>0.41189759036144574</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f>DEC2HEX(B16+B15+B14)</f>
+        <v>309</v>
       </c>
     </row>
     <row r="17" ht="14.25">
@@ -1160,28 +1403,33 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23</v>
-      </c>
-      <c r="C17">
-        <v>0.60719999999999996</v>
+        <v>29</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.51349333333333003</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="3"/>
-        <v>5.75</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>14.5</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="G17" s="5">
-        <f>F17/(B2*1000000)*1000000</f>
-        <v>0.625</v>
+        <f>F17/(B2*1000000)*1000000*D17</f>
+        <v>0.75</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="4"/>
-        <v>0.02931488801054025</v>
+        <f t="shared" si="6"/>
+        <v>0.46058371416702226</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f>DEC2HEX(B14+B15+B16+B17)</f>
+        <v>326</v>
       </c>
     </row>
     <row r="18" ht="14.25">
@@ -1189,29 +1437,29 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>628</v>
-      </c>
-      <c r="C18">
-        <v>16.5792</v>
+        <v>806</v>
+      </c>
+      <c r="C18" s="3">
+        <v>14.271573333333</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="3"/>
-        <v>157</v>
+        <f t="shared" si="4"/>
+        <v>403</v>
       </c>
       <c r="F18" s="4">
-        <f>SUM(F14:F17)</f>
-        <v>126</v>
+        <f t="shared" si="5"/>
+        <v>403</v>
       </c>
       <c r="G18" s="5">
-        <f>F18/(B2*1000000)*1000000</f>
-        <v>15.75</v>
+        <f>F18/(B2*1000000)*1000000*D18</f>
+        <v>20.149999999999999</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="4"/>
-        <v>-0.05001447596988999</v>
+        <f t="shared" si="6"/>
+        <v>0.4118975903614786</v>
       </c>
     </row>
     <row r="20" ht="14.25"/>
@@ -1249,7 +1497,7 @@
       </c>
       <c r="M23" s="7">
         <f>(C6*B14)/(C18*1000)</f>
-        <v>0.72379849449913136</v>
+        <v>0.73473048521629858</v>
       </c>
     </row>
     <row r="24" ht="14.25">
@@ -1379,6 +1627,947 @@
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4">
+        <v>3.2999999999999998</v>
+      </c>
+      <c r="B4">
+        <v>70</v>
+      </c>
+      <c r="C4">
+        <v>740</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>A4*B4/SUM(B4:G4)</f>
+        <v>0.28518518518518521</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="3" max="10" width="1.54296875"/>
+    <col customWidth="1" min="17" max="23" width="2.00390625"/>
+    <col customWidth="1" min="24" max="24" width="1.8515625"/>
+    <col customWidth="1" min="30" max="37" width="2.140625"/>
+  </cols>
+  <sheetData>
+    <row r="6" ht="11.4" customHeight="1">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f t="shared" ref="L6:L9" si="51">DEC2HEX(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITLSHIFT(C6,7),_xlfn.BITLSHIFT(D6,6)),_xlfn.BITLSHIFT(E6,5)),_xlfn.BITLSHIFT(F6,4)),_xlfn.BITLSHIFT(G6,3)),_xlfn.BITLSHIFT(H6,2)),_xlfn.BITLSHIFT(I6,1)),J6))</f>
+        <v>80</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4" t="str">
+        <f t="shared" ref="Z6:Z9" si="52">DEC2HEX(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITLSHIFT(Q6,7),_xlfn.BITLSHIFT(R6,6)),_xlfn.BITLSHIFT(S6,5)),_xlfn.BITLSHIFT(T6,4)),_xlfn.BITLSHIFT(U6,3)),_xlfn.BITLSHIFT(V6,2)),_xlfn.BITLSHIFT(W6,1)),X6))</f>
+        <v>C0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4" t="str">
+        <f t="shared" ref="AM6:AM9" si="53">DEC2HEX(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITLSHIFT(AD6,7),_xlfn.BITLSHIFT(AE6,6)),_xlfn.BITLSHIFT(AF6,5)),_xlfn.BITLSHIFT(AG6,4)),_xlfn.BITLSHIFT(AH6,3)),_xlfn.BITLSHIFT(AI6,2)),_xlfn.BITLSHIFT(AJ6,1)),AK6))</f>
+        <v>F8</v>
+      </c>
+    </row>
+    <row r="7" ht="11.4" customHeight="1">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4" t="str">
+        <f t="shared" si="51"/>
+        <v>E0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4" t="str">
+        <f t="shared" si="52"/>
+        <v>F0</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4" t="str">
+        <f t="shared" si="53"/>
+        <v>E0</v>
+      </c>
+    </row>
+    <row r="8" ht="11.4" customHeight="1">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4" t="str">
+        <f t="shared" si="51"/>
+        <v>F8</v>
+      </c>
+      <c r="O8" s="4">
+        <v>3</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1</v>
+      </c>
+      <c r="T8" s="4">
+        <v>1</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1</v>
+      </c>
+      <c r="V8" s="4">
+        <v>1</v>
+      </c>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4" t="str">
+        <f t="shared" si="52"/>
+        <v>FC</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4" t="str">
+        <f t="shared" si="53"/>
+        <v>F0</v>
+      </c>
+    </row>
+    <row r="9" ht="11.4" customHeight="1">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="str">
+        <f t="shared" si="51"/>
+        <v>FE</v>
+      </c>
+      <c r="O9" s="4">
+        <v>4</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4" t="str">
+        <f t="shared" si="52"/>
+        <v>B0</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4" t="str">
+        <f t="shared" si="53"/>
+        <v>B0</v>
+      </c>
+    </row>
+    <row r="10" ht="11.4" customHeight="1">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4" t="str">
+        <f t="shared" ref="L10:L13" si="54">DEC2HEX(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITLSHIFT(C10,7),_xlfn.BITLSHIFT(D10,6)),_xlfn.BITLSHIFT(E10,5)),_xlfn.BITLSHIFT(F10,4)),_xlfn.BITLSHIFT(G10,3)),_xlfn.BITLSHIFT(H10,2)),_xlfn.BITLSHIFT(I10,1)),J10))</f>
+        <v>F8</v>
+      </c>
+      <c r="O10" s="4">
+        <v>5</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4">
+        <v>1</v>
+      </c>
+      <c r="U10" s="4">
+        <v>1</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4" t="str">
+        <f t="shared" ref="Z10:Z13" si="55">DEC2HEX(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITLSHIFT(Q10,7),_xlfn.BITLSHIFT(R10,6)),_xlfn.BITLSHIFT(S10,5)),_xlfn.BITLSHIFT(T10,4)),_xlfn.BITLSHIFT(U10,3)),_xlfn.BITLSHIFT(V10,2)),_xlfn.BITLSHIFT(W10,1)),X10))</f>
+        <v>98</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4" t="str">
+        <f t="shared" ref="AM10:AM24" si="56">DEC2HEX(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITLSHIFT(AD10,7),_xlfn.BITLSHIFT(AE10,6)),_xlfn.BITLSHIFT(AF10,5)),_xlfn.BITLSHIFT(AG10,4)),_xlfn.BITLSHIFT(AH10,3)),_xlfn.BITLSHIFT(AI10,2)),_xlfn.BITLSHIFT(AJ10,1)),AK10))</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" ht="11.4" customHeight="1">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4" t="str">
+        <f t="shared" si="54"/>
+        <v>1C</v>
+      </c>
+      <c r="O11" s="4">
+        <v>6</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4">
+        <v>1</v>
+      </c>
+      <c r="V11" s="4">
+        <v>1</v>
+      </c>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4" t="str">
+        <f t="shared" si="55"/>
+        <v>C</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>6</v>
+      </c>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4" t="str">
+        <f t="shared" si="56"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="12" ht="11.4" customHeight="1">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4" t="str">
+        <f t="shared" si="54"/>
+        <v>E</v>
+      </c>
+      <c r="O12" s="4">
+        <v>7</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4">
+        <v>1</v>
+      </c>
+      <c r="W12" s="4">
+        <v>1</v>
+      </c>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4" t="str">
+        <f t="shared" si="55"/>
+        <v>6</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4" t="str">
+        <f t="shared" si="56"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" ht="11.4" customHeight="1">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4" t="str">
+        <f t="shared" si="54"/>
+        <v>6</v>
+      </c>
+      <c r="O13" s="4">
+        <v>8</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4">
+        <v>1</v>
+      </c>
+      <c r="X13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4" t="str">
+        <f t="shared" si="55"/>
+        <v>3</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>8</v>
+      </c>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4" t="str">
+        <f t="shared" si="56"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25"/>
+    <row r="16" ht="14.25">
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="Z17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4" t="str">
+        <f t="shared" si="56"/>
+        <v>F0</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="AB18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4" t="str">
+        <f t="shared" si="56"/>
+        <v>C0</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="AB19" s="4">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4" t="str">
+        <f t="shared" si="56"/>
+        <v>A0</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="AB20" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4" t="str">
+        <f t="shared" si="56"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="AB21" s="4">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4" t="str">
+        <f t="shared" si="56"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="AB22" s="4">
+        <v>6</v>
+      </c>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4" t="str">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="AB23" s="4">
+        <v>7</v>
+      </c>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4" t="str">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="AB24" s="4">
+        <v>8</v>
+      </c>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4" t="str">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00C7008C-0047-4F62-B43D-00E8008100E9}">
+            <xm:f>0</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C6:I13 K6:K13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00F10078-00B3-4104-9A69-009E00F40076}">
+            <xm:f>0</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>Q6:W13 Y6:Y13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00630041-0008-49A8-8920-006D00D000C0}">
+            <xm:f>0</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>X6:X13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00BA009F-000F-42D0-870B-00DA006E00D4}">
+            <xm:f>0</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AD6:AJ13 AL6:AL13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{004500B9-00C2-4CCF-8DA7-003600880090}">
+            <xm:f>0</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AK6:AK13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="greaterThan" id="{00CB00AC-005A-420B-A92E-00E1005700B6}">
+            <xm:f>0</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AD17:AJ24 AL17:AL24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{00F60035-00CD-4F21-8EAB-008C0019002A}">
+            <xm:f>0</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AK17:AK24</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1402,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>25.175000000000001</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -1410,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -1451,46 +2640,43 @@
       <c r="H5" t="s">
         <v>10</v>
       </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>640</v>
+        <v>1024</v>
       </c>
       <c r="C6" s="3">
-        <v>25.42204568</v>
+        <v>13.653333333333</v>
       </c>
       <c r="D6">
         <f>B1/B2</f>
-        <v>1.5734375</v>
+        <v>1.75</v>
       </c>
       <c r="E6">
-        <f>B6/D6</f>
-        <v>406.75273088381329</v>
-      </c>
-      <c r="F6" s="3">
-        <f>ROUND(E6,0)</f>
-        <v>407</v>
+        <f t="shared" ref="E6:E9" si="7">B6/D6</f>
+        <v>585.14285714285711</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F7" si="8">ROUND(E6,0)</f>
+        <v>585</v>
       </c>
       <c r="G6" s="3">
-        <f>F6/B2</f>
-        <v>25.4375</v>
+        <f>F6/(B2*1000000)*1000000</f>
+        <v>14.625</v>
       </c>
       <c r="H6">
-        <f>(G6-C6)/C6</f>
-        <v>0.0006079101656306956</v>
-      </c>
-      <c r="J6" t="str">
-        <f>DEC2HEX(F6)</f>
-        <v>197</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>37</v>
+        <f t="shared" ref="H6:H9" si="9">(G6-C6)/C6</f>
+        <v>0.071166992187526132</v>
+      </c>
+      <c r="I6">
+        <f>F6</f>
+        <v>585</v>
       </c>
     </row>
     <row r="7" ht="14.25">
@@ -1498,40 +2684,34 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3">
-        <v>0.64555110000000004</v>
-      </c>
-      <c r="D7" s="4">
+        <v>0.32000000000000001</v>
+      </c>
+      <c r="D7">
         <f>B1/B2</f>
-        <v>1.5734375</v>
+        <v>1.75</v>
       </c>
       <c r="E7" s="4">
-        <f>B7/D7</f>
-        <v>10.168818272095333</v>
-      </c>
-      <c r="F7" s="5">
-        <f>ROUND(E7,0)</f>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>13.714285714285714</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="G7" s="5">
-        <f>F7/B2</f>
-        <v>0.625</v>
+        <f>F7/(B2*1000000)*1000000</f>
+        <v>0.34999999999999998</v>
       </c>
       <c r="H7" s="6">
-        <f>(G7-C7)/C7</f>
-        <v>-0.03183497015185946</v>
-      </c>
-      <c r="J7" s="4" t="str">
-        <f>DEC2HEX(F7+J6)</f>
-        <v>CF</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>39</v>
+        <f t="shared" si="9"/>
+        <v>0.093749999999999903</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I9" si="10">I6+F7</f>
+        <v>599</v>
       </c>
     </row>
     <row r="8" ht="14.25">
@@ -1539,117 +2719,100 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="C8" s="3">
-        <v>3.8133067999999999</v>
-      </c>
-      <c r="D8" s="4">
+        <v>1.8133333333332999</v>
+      </c>
+      <c r="D8">
         <f>B1/B2</f>
-        <v>1.5734375</v>
+        <v>1.75</v>
       </c>
       <c r="E8" s="4">
-        <f>B8/D8</f>
-        <v>61.012909632571997</v>
-      </c>
-      <c r="F8" s="5">
-        <f>ROUND(E8,0)</f>
-        <v>61</v>
+        <f t="shared" si="7"/>
+        <v>77.714285714285708</v>
+      </c>
+      <c r="F8" s="4">
+        <v>57</v>
       </c>
       <c r="G8" s="5">
-        <f>F8/B2</f>
-        <v>3.8125</v>
+        <f>F8/(B2*1000000)*1000000</f>
+        <v>1.4249999999999998</v>
       </c>
       <c r="H8" s="6">
-        <f>(G8-C8)/C8</f>
-        <v>-0.00021157489872041909</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" t="str">
-        <f>DEC2HEX(F6+F7+F8)</f>
-        <v>1DE</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+        <f t="shared" si="9"/>
+        <v>-0.21415441176469149</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="10"/>
+        <v>656</v>
+      </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3">
-        <v>1.9066533999999999</v>
-      </c>
-      <c r="D9" s="4">
+        <v>1.9199999999999999</v>
+      </c>
+      <c r="D9">
         <f>B1/B2</f>
-        <v>1.5734375</v>
+        <v>1.75</v>
       </c>
       <c r="E9" s="4">
-        <f>B9/D9</f>
-        <v>30.506454816285999</v>
-      </c>
-      <c r="F9" s="5">
-        <f>ROUND(E9,0)</f>
-        <v>31</v>
+        <f t="shared" si="7"/>
+        <v>82.285714285714292</v>
+      </c>
+      <c r="F9" s="4">
+        <v>52</v>
       </c>
       <c r="G9" s="5">
-        <f>F9/B2</f>
-        <v>1.9375</v>
+        <f>F9/(B2*1000000)*1000000</f>
+        <v>1.3</v>
       </c>
       <c r="H9" s="6">
-        <f>(G9-C9)/C9</f>
-        <v>0.01617839928326777</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" t="str">
-        <f>DEC2HEX(F6+F7+F8+F9)</f>
-        <v>1FD</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+        <f t="shared" si="9"/>
+        <v>-0.32291666666666663</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="10"/>
+        <v>708</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10">
-        <f>SUM(B6:B9)</f>
-        <v>800</v>
+        <v>1328</v>
       </c>
       <c r="C10" s="3">
-        <f>SUM(C6:C9)</f>
-        <v>31.787556979999998</v>
-      </c>
-      <c r="D10" s="4">
+        <v>17.706666666667001</v>
+      </c>
+      <c r="D10">
         <f>B1/B2</f>
-        <v>1.5734375</v>
+        <v>1.75</v>
       </c>
       <c r="E10" s="4">
         <f>B10/D10</f>
-        <v>508.44091360476659</v>
-      </c>
-      <c r="F10" s="5">
-        <f>ROUND(E10,0)</f>
-        <v>508</v>
+        <v>758.85714285714289</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F6:F9)</f>
+        <v>708</v>
       </c>
       <c r="G10" s="5">
-        <f>F10/B2</f>
-        <v>31.75</v>
+        <f>F10/(B2*1000000)*1000000</f>
+        <v>17.699999999999999</v>
       </c>
       <c r="H10" s="6">
         <f>(G10-C10)/C10</f>
-        <v>-0.0011814994157502558</v>
+        <v>-0.00037650602411529768</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="F11" s="3"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="2" t="s">
@@ -1659,9 +2822,6 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
@@ -1676,122 +2836,96 @@
       <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="3"/>
       <c r="H13" s="6"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>480</v>
-      </c>
-      <c r="C14">
-        <f>C10*B14/1000</f>
-        <v>15.258027350399999</v>
+        <v>768</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13.59872</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" s="4">
-        <f>B14/D14</f>
-        <v>240</v>
-      </c>
-      <c r="F14" s="5">
-        <f>ROUND(E14,0)</f>
-        <v>240</v>
+        <f t="shared" ref="E14:E18" si="11">B14/D14</f>
+        <v>384</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" ref="F14:F18" si="12">ROUND(E14,0)</f>
+        <v>384</v>
       </c>
       <c r="G14" s="3">
-        <f>F14/B2</f>
-        <v>15</v>
+        <f>F14/(B2*1000000)*1000000*D14</f>
+        <v>19.199999999999999</v>
       </c>
       <c r="H14" s="6">
         <f>(G14-C14)/C14</f>
-        <v>-0.016910924621801434</v>
-      </c>
-      <c r="J14" t="str">
-        <f>DEC2HEX(B14)</f>
-        <v>1E0</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+        <v>0.41189759036144574</v>
+      </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <f>C10*B15/1000</f>
-        <v>0.31787556979999998</v>
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.053120000000000001</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" s="4">
-        <f>B15/D15</f>
-        <v>5</v>
-      </c>
-      <c r="F15" s="9">
-        <v>7</v>
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="G15" s="5">
-        <f>F15/B2</f>
-        <v>0.4375</v>
+        <f>F15/(B2*1000000)*1000000*D15</f>
+        <v>0.099999999999999992</v>
       </c>
       <c r="H15" s="6">
         <f>(G15-C15)*100/C15</f>
-        <v>37.632470552947801</v>
-      </c>
-      <c r="J15" t="str">
-        <f>DEC2HEX(B15+B14)</f>
-        <v>1EA</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+        <v>88.253012048192744</v>
+      </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <f>C10*B16/1000</f>
-        <v>0.063575113959999999</v>
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.10624</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" s="4">
-        <f>B16/D16</f>
-        <v>1</v>
-      </c>
-      <c r="F16" s="9">
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="G16" s="5">
-        <f>F16/B2</f>
-        <v>0.125</v>
+        <f>F16/(B2*1000000)*1000000*D16</f>
+        <v>0.14999999999999999</v>
       </c>
       <c r="H16" s="6">
-        <f>(G16-C16)/C16</f>
-        <v>0.96617815075639701</v>
-      </c>
-      <c r="J16" t="str">
-        <f>DEC2HEX(B16+B15+B14)</f>
-        <v>1EC</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>40</v>
+        <f t="shared" ref="H16:H18" si="13">(G16-C16)/C16</f>
+        <v>0.41189759036144574</v>
       </c>
     </row>
     <row r="17" ht="14.25">
@@ -1799,34 +2933,29 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33</v>
-      </c>
-      <c r="C17">
-        <f>C10*B17/1000</f>
-        <v>1.0489893803400001</v>
+        <v>29</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.51349333333333003</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" s="4">
-        <f>B17/D17</f>
-        <v>16.5</v>
-      </c>
-      <c r="F17" s="5">
-        <f>E17</f>
-        <v>16.5</v>
+        <f t="shared" si="11"/>
+        <v>14.5</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="G17" s="5">
-        <f>F17/B2</f>
-        <v>1.03125</v>
+        <f>F17/(B2*1000000)*1000000*D17</f>
+        <v>0.75</v>
       </c>
       <c r="H17" s="6">
-        <f>(G17-C17)/C17</f>
-        <v>-0.016910924621801601</v>
-      </c>
-      <c r="J17" t="str">
-        <f>DEC2HEX(B14+B15+B16+B17)</f>
-        <v>20D</v>
+        <f t="shared" si="13"/>
+        <v>0.46058371416702226</v>
       </c>
     </row>
     <row r="18" ht="14.25">
@@ -1834,79 +2963,172 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <f>SUM(B14:B17)</f>
-        <v>525</v>
-      </c>
-      <c r="C18">
-        <f>SUM(C14:C17)</f>
-        <v>16.6884674145</v>
+        <v>806</v>
+      </c>
+      <c r="C18" s="3">
+        <v>14.271573333333</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" s="4">
-        <f>B18/D18</f>
-        <v>262.5</v>
-      </c>
-      <c r="F18" s="5">
-        <f>SUM(F14:F17)</f>
-        <v>265.5</v>
+        <f t="shared" si="11"/>
+        <v>403</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="12"/>
+        <v>403</v>
       </c>
       <c r="G18" s="5">
-        <f>F18/B2</f>
-        <v>16.59375</v>
+        <f>F18/(B2*1000000)*1000000*D18</f>
+        <v>20.149999999999999</v>
       </c>
       <c r="H18" s="6">
-        <f>(G18-C18)/C18</f>
-        <v>-0.0056756209031935019</v>
+        <f t="shared" si="13"/>
+        <v>0.4118975903614786</v>
       </c>
     </row>
     <row r="20" ht="14.25"/>
-    <row r="21" ht="14.25"/>
+    <row r="21" ht="14.25">
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="22" ht="14.25">
-      <c r="A22" t="s">
-        <v>41</v>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>160</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>27</v>
       </c>
       <c r="M23" s="7">
         <f>(C6*B14)/(C18*1000)</f>
-        <v>0.73119847516960268</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25"/>
+        <v>0.73473048521629858</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>120</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <f>407*240</f>
-        <v>97680</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
+        <v>332</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="B26">
-        <f>2^17</f>
-        <v>131072</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25"/>
-    <row r="28" ht="14.25"/>
-    <row r="30" ht="14.25"/>
-    <row r="32" ht="14.25"/>
+      <c r="G26">
+        <f>128*1.33</f>
+        <v>170.24000000000001</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="D27">
+        <f>160*120</f>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="C28">
+        <f>128*256</f>
+        <v>32768</v>
+      </c>
+      <c r="D28">
+        <f>2^15</f>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30">
+        <f>2^7</f>
+        <v>128</v>
+      </c>
+      <c r="G30">
+        <f>64*1.33</f>
+        <v>85.120000000000005</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="33" ht="14.25">
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" ht="14.25"/>
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>86</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <f>B33*B34</f>
+        <v>5504</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>64</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="35" ht="14.25">
       <c r="D35">
         <v>8</v>
@@ -1954,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>25.175000000000001</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -1962,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -2003,40 +3225,47 @@
       <c r="H5" t="s">
         <v>10</v>
       </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>640</v>
+        <v>1024</v>
       </c>
       <c r="C6" s="3">
-        <v>25.42204568</v>
+        <v>15.753846153846</v>
       </c>
       <c r="D6">
         <f>B1/B2</f>
-        <v>3.1468750000000001</v>
+        <v>1.625</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E9" si="5">B6/D6</f>
-        <v>203.37636544190664</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" ref="F6:F9" si="6">ROUND(E6,0)</f>
-        <v>203</v>
+        <f>B6/D6</f>
+        <v>630.15384615384619</v>
+      </c>
+      <c r="F6">
+        <f>ROUND(E6,0)</f>
+        <v>630</v>
       </c>
       <c r="G6" s="3">
         <f>F6/B2</f>
-        <v>25.375</v>
+        <v>15.75</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H9" si="7">(G6-C6)/C6</f>
-        <v>-0.0018505859281423528</v>
-      </c>
-      <c r="J6" t="str">
+        <f>(G6-C6)/C6</f>
+        <v>-0.00024414062499024804</v>
+      </c>
+      <c r="I6">
+        <f>F6</f>
+        <v>630</v>
+      </c>
+      <c r="J6" s="4" t="str">
         <f>DEC2HEX(F6)</f>
-        <v>CB</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" ht="14.25">
@@ -2044,34 +3273,38 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3">
-        <v>0.64555110000000004</v>
-      </c>
-      <c r="D7" s="4">
+        <v>0.36923076923076997</v>
+      </c>
+      <c r="D7">
         <f>B1/B2</f>
-        <v>3.1468750000000001</v>
+        <v>1.625</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="5"/>
-        <v>5.0844091360476664</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>B7/D7</f>
+        <v>14.76923076923077</v>
+      </c>
+      <c r="F7" s="4">
+        <f>ROUND(E7,0)</f>
+        <v>15</v>
       </c>
       <c r="G7" s="5">
         <f>F7/B2</f>
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="7"/>
-        <v>-0.03183497015185946</v>
-      </c>
-      <c r="J7" s="4" t="e">
-        <f>DEC2HEX(F7+J6)</f>
-        <v>#VALUE!</v>
+        <f>(G7-C7)/C7</f>
+        <v>0.015624999999997958</v>
+      </c>
+      <c r="I7">
+        <f>I6+F7</f>
+        <v>645</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f>DEC2HEX(F7+F6)</f>
+        <v>285</v>
       </c>
     </row>
     <row r="8" ht="14.25">
@@ -2079,35 +3312,38 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="C8" s="3">
-        <v>3.8133067999999999</v>
-      </c>
-      <c r="D8" s="4">
+        <v>2.0923076923077</v>
+      </c>
+      <c r="D8">
         <f>B1/B2</f>
-        <v>3.1468750000000001</v>
+        <v>1.625</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="5"/>
-        <v>30.506454816285999</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="6"/>
-        <v>31</v>
+        <f>B8/D8</f>
+        <v>83.692307692307693</v>
+      </c>
+      <c r="F8" s="4">
+        <f>ROUND(E8,0)</f>
+        <v>84</v>
       </c>
       <c r="G8" s="5">
-        <f>F8/B2</f>
-        <v>3.875</v>
+        <f>F8/(B2*1000000)*1000000</f>
+        <v>2.0999999999999996</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="7"/>
-        <v>0.01617839928326777</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" t="str">
+        <f>(G8-C8)/C8</f>
+        <v>0.0036764705882314473</v>
+      </c>
+      <c r="I8" s="4">
+        <f>I7+F8</f>
+        <v>729</v>
+      </c>
+      <c r="J8" s="4" t="str">
         <f>DEC2HEX(F6+F7+F8)</f>
-        <v>EF</v>
+        <v>2D9</v>
       </c>
     </row>
     <row r="9" ht="14.25">
@@ -2115,35 +3351,38 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="C9" s="3">
-        <v>1.9066533999999999</v>
-      </c>
-      <c r="D9" s="4">
+        <v>2.4615384615384999</v>
+      </c>
+      <c r="D9">
         <f>B1/B2</f>
-        <v>3.1468750000000001</v>
+        <v>1.625</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="5"/>
-        <v>15.253227408142999</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="6"/>
-        <v>15</v>
+        <f>B9/D9</f>
+        <v>98.461538461538467</v>
+      </c>
+      <c r="F9" s="4">
+        <f>ROUND(E9,0)</f>
+        <v>98</v>
       </c>
       <c r="G9" s="5">
-        <f>F9/B2</f>
-        <v>1.875</v>
+        <f>F9/(B2*1000000)*1000000</f>
+        <v>2.4499999999999997</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="7"/>
-        <v>-0.01660154908070861</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" t="str">
+        <f>(G9-C9)/C9</f>
+        <v>-0.0046875000000156063</v>
+      </c>
+      <c r="I9" s="4">
+        <f>I8+F9</f>
+        <v>827</v>
+      </c>
+      <c r="J9" s="4" t="str">
         <f>DEC2HEX(F6+F7+F8+F9)</f>
-        <v>FE</v>
+        <v>33B</v>
       </c>
     </row>
     <row r="10" ht="14.25">
@@ -2151,37 +3390,33 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <f>SUM(B6:B9)</f>
-        <v>800</v>
+        <v>1328</v>
       </c>
       <c r="C10" s="3">
         <f>SUM(C6:C9)</f>
-        <v>31.787556979999998</v>
-      </c>
-      <c r="D10" s="4">
+        <v>20.676923076922968</v>
+      </c>
+      <c r="D10">
         <f>B1/B2</f>
-        <v>3.1468750000000001</v>
+        <v>1.625</v>
       </c>
       <c r="E10" s="4">
         <f>B10/D10</f>
-        <v>254.2204568023833</v>
-      </c>
-      <c r="F10" s="5">
-        <f>ROUND(E10,0)</f>
-        <v>254</v>
+        <v>817.23076923076928</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F6:F9)</f>
+        <v>827</v>
       </c>
       <c r="G10" s="5">
-        <f>F10/B2</f>
-        <v>31.75</v>
+        <f>F10/(B2*1000000)*1000000</f>
+        <v>20.675000000000001</v>
       </c>
       <c r="H10" s="6">
         <f>(G10-C10)/C10</f>
-        <v>-0.0011814994157502558</v>
+        <v>-9.3005952375647591e-05</v>
       </c>
       <c r="I10" s="4"/>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="F11" s="3"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="2" t="s">
@@ -2191,7 +3426,6 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
@@ -2206,7 +3440,6 @@
       <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="3"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" ht="14.25">
@@ -2214,34 +3447,32 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>480</v>
-      </c>
-      <c r="C14">
-        <f>C10*B14/1000</f>
-        <v>15.258027350399999</v>
+        <v>768</v>
+      </c>
+      <c r="C14" s="3">
+        <v>15.879876923076999</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" ref="E14:E18" si="8">B14/D14</f>
-        <v>120</v>
-      </c>
-      <c r="F14" s="5">
-        <f>ROUND(E14,0)</f>
-        <v>120</v>
+        <f>B14/D14</f>
+        <v>384</v>
+      </c>
+      <c r="F14" s="4">
+        <v>384</v>
       </c>
       <c r="G14" s="3">
-        <f>F14/B2</f>
-        <v>15</v>
+        <f>F14*D14/B2</f>
+        <v>19.199999999999999</v>
       </c>
       <c r="H14" s="6">
         <f>(G14-C14)/C14</f>
-        <v>-0.016910924621801434</v>
-      </c>
-      <c r="J14" t="str">
+        <v>0.2090773809523751</v>
+      </c>
+      <c r="J14" s="4" t="str">
         <f>DEC2HEX(B14)</f>
-        <v>1E0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" ht="14.25">
@@ -2249,34 +3480,33 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <f>C10*B15/1000</f>
-        <v>0.31787556979999998</v>
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.062030769230769001</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="8"/>
-        <v>2.5</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" ref="F15:F17" si="9">E15</f>
-        <v>2.5</v>
+        <f>B15/D15</f>
+        <v>1.5</v>
+      </c>
+      <c r="F15" s="4">
+        <f>ROUND(E15,0)</f>
+        <v>2</v>
       </c>
       <c r="G15" s="5">
-        <f>F15/B2</f>
-        <v>0.3125</v>
+        <f>(F15*D15)/(B2)</f>
+        <v>0.10000000000000001</v>
       </c>
       <c r="H15" s="6">
         <f>(G15-C15)*100/C15</f>
-        <v>-1.6910924621801433</v>
-      </c>
-      <c r="J15" t="str">
+        <v>61.210317460318066</v>
+      </c>
+      <c r="J15" s="4" t="str">
         <f>DEC2HEX(B15+B14)</f>
-        <v>1EA</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" ht="14.25">
@@ -2284,34 +3514,33 @@
         <v>14</v>
       </c>
       <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.12406153846154</v>
+      </c>
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="C16">
-        <f>C10*B16/1000</f>
-        <v>0.063575113959999999</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
       <c r="E16" s="4">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
+        <f>B16/D16</f>
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <f>ROUND(E16,0)</f>
+        <v>3</v>
       </c>
       <c r="G16" s="5">
-        <f>F16/B2</f>
-        <v>0.0625</v>
+        <f>F16/(B2*1000000)*1000000*D16</f>
+        <v>0.14999999999999999</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" ref="H16:H18" si="10">(G16-C16)/C16</f>
-        <v>-0.016910924621801476</v>
-      </c>
-      <c r="J16" t="str">
+        <f>(G16-C16)/C16</f>
+        <v>0.20907738095236592</v>
+      </c>
+      <c r="J16" s="4" t="str">
         <f>DEC2HEX(B16+B15+B14)</f>
-        <v>1EC</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" ht="14.25">
@@ -2319,34 +3548,33 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33</v>
-      </c>
-      <c r="C17">
-        <f>C10*B17/1000</f>
-        <v>1.0489893803400001</v>
+        <v>29</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.59963076923076997</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="8"/>
-        <v>8.25</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="9"/>
-        <v>8.25</v>
+        <f>B17/D17</f>
+        <v>14.5</v>
+      </c>
+      <c r="F17" s="4">
+        <f>ROUND(E17,0)</f>
+        <v>15</v>
       </c>
       <c r="G17" s="5">
-        <f>F17/B2</f>
-        <v>1.03125</v>
+        <f>F17/(B2*1000000)*1000000*D17</f>
+        <v>0.75</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="10"/>
-        <v>-0.016910924621801601</v>
-      </c>
-      <c r="J17" t="str">
-        <f>DEC2HEX(B14+B15+B16+B17)</f>
-        <v>20D</v>
+        <f>(G17-C17)/C17</f>
+        <v>0.250769704433496</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f>DEC2HEX(B17+B16+B15+B14)</f>
+        <v>326</v>
       </c>
     </row>
     <row r="18" ht="14.25">
@@ -2354,72 +3582,83 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <f>SUM(B14:B17)</f>
-        <v>525</v>
-      </c>
-      <c r="C18">
+        <v>806</v>
+      </c>
+      <c r="C18" s="3">
         <f>SUM(C14:C17)</f>
-        <v>16.6884674145</v>
+        <v>16.665600000000079</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="8"/>
-        <v>131.25</v>
-      </c>
-      <c r="F18" s="5">
+        <f>B18/D18</f>
+        <v>403</v>
+      </c>
+      <c r="F18" s="4">
         <f>SUM(F14:F17)</f>
-        <v>131.25</v>
+        <v>404</v>
       </c>
       <c r="G18" s="5">
-        <f>F18/B2</f>
-        <v>16.40625</v>
+        <f>F18/(B2*1000000)*1000000*D18</f>
+        <v>20.199999999999999</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="10"/>
-        <v>-0.016910924621801486</v>
-      </c>
+        <f>(G18-C18)/C18</f>
+        <v>0.21207757296466392</v>
+      </c>
+      <c r="J18" s="4"/>
     </row>
     <row r="20" ht="14.25"/>
     <row r="21" ht="14.25">
-      <c r="K21" t="s">
-        <v>22</v>
+      <c r="I21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" t="s">
-        <v>25</v>
+      <c r="I22" s="11"/>
+      <c r="J22">
+        <f>F14</f>
+        <v>384</v>
+      </c>
+      <c r="K22" s="12">
+        <v>630</v>
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="I23" s="11"/>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23" s="12">
+        <f>J23/J22*K22</f>
+        <v>14.765625</v>
+      </c>
+      <c r="L23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="14">
         <f>(C6*B14)/(C18*1000)</f>
-        <v>0.73119847516960268</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25"/>
-    <row r="25" ht="14.25">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25">
-        <f>203*120</f>
-        <v>24360</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-    </row>
+        <v>0.72598369372561877</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="I24" s="15"/>
+      <c r="J24" s="16">
+        <v>10</v>
+      </c>
+      <c r="K24" s="17">
+        <f>J24/J22*K22</f>
+        <v>16.40625</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25"/>
     <row r="26" ht="14.25"/>
     <row r="27" ht="14.25"/>
     <row r="28" ht="14.25"/>
@@ -2429,21 +3668,9 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" ht="14.25"/>
-    <row r="35" ht="14.25">
-      <c r="D35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-    </row>
+    <row r="35" ht="14.25"/>
+    <row r="37" ht="14.25"/>
+    <row r="38" ht="14.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:E4"/>
@@ -2469,8 +3696,7 @@
     <col customWidth="1" min="5" max="5" width="13.140625"/>
     <col customWidth="1" min="7" max="7" width="15.8515625"/>
     <col bestFit="1" min="8" max="8" width="10.65234375"/>
-    <col customWidth="1" min="10" max="10" width="11.00390625"/>
-    <col customWidth="1" min="12" max="12" width="11.421875"/>
+    <col customWidth="1" min="11" max="11" width="13.28125"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -2486,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -2501,12 +3727,6 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
@@ -2533,11 +3753,8 @@
       <c r="H5" t="s">
         <v>10</v>
       </c>
-      <c r="L5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
-        <v>47</v>
+      <c r="I5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="14.25">
@@ -2545,34 +3762,37 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="C6" s="3">
-        <v>17.777699999999999</v>
+        <v>22.222000000000001</v>
       </c>
       <c r="D6">
         <f>B1/B2</f>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E9" si="11">B6/D6</f>
-        <v>426.66666666666669</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" ref="F6:F9" si="12">ROUND(E6,0)</f>
-        <v>427</v>
+        <f t="shared" ref="E6:E9" si="14">B6/D6</f>
+        <v>355.55555555555554</v>
+      </c>
+      <c r="F6">
+        <v>360</v>
       </c>
       <c r="G6" s="3">
-        <f>F6/B2</f>
-        <v>17.791666666666668</v>
+        <f>F6/(B2*1000000)*1000000</f>
+        <v>22.5</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H9" si="13">(G6-C6)/C6</f>
-        <v>0.00078562843712451326</v>
-      </c>
-      <c r="J6" t="str">
+        <f t="shared" ref="H6:H9" si="15">(G6-C6)/C6</f>
+        <v>0.012510125101250952</v>
+      </c>
+      <c r="I6">
+        <f>F6</f>
+        <v>360</v>
+      </c>
+      <c r="J6" s="4" t="str">
         <f>DEC2HEX(F6)</f>
-        <v>1AB</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" ht="14.25">
@@ -2580,34 +3800,38 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3">
-        <v>1.5549999999999999</v>
-      </c>
-      <c r="D7" s="4">
+        <v>0.66666669999999995</v>
+      </c>
+      <c r="D7">
         <f>B1/B2</f>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="11"/>
-        <v>37.333333333333336</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="12"/>
-        <v>37</v>
+        <f t="shared" si="14"/>
+        <v>17.777777777777779</v>
+      </c>
+      <c r="F7" s="4">
+        <f>ROUND(E7,0)</f>
+        <v>18</v>
       </c>
       <c r="G7" s="5">
-        <f>F7/B2</f>
-        <v>1.5416666666666667</v>
+        <f>F7/(B2*1000000)*1000000</f>
+        <v>1.125</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="13"/>
-        <v>-0.008574490889603343</v>
+        <f t="shared" si="15"/>
+        <v>0.68749991562500434</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I9" si="16">I6+F7</f>
+        <v>378</v>
       </c>
       <c r="J7" s="4" t="str">
         <f>DEC2HEX(F7+F6)</f>
-        <v>1D0</v>
+        <v>17A</v>
       </c>
     </row>
     <row r="8" ht="14.25">
@@ -2615,35 +3839,37 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="C8" s="3">
-        <v>1.5549999999999999</v>
-      </c>
-      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <f>B1/B2</f>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="11"/>
-        <v>37.333333333333336</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="12"/>
-        <v>37</v>
+        <f t="shared" si="14"/>
+        <v>56.888888888888886</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45</v>
       </c>
       <c r="G8" s="5">
-        <f>F8/B2</f>
-        <v>1.5416666666666667</v>
+        <f>F8/(B2*1000000)*1000000</f>
+        <v>2.8125</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="13"/>
-        <v>-0.008574490889603343</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" t="str">
+        <f t="shared" si="15"/>
+        <v>0.40625</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="16"/>
+        <v>423</v>
+      </c>
+      <c r="J8" s="4" t="str">
         <f>DEC2HEX(F6+F7+F8)</f>
-        <v>1F5</v>
+        <v>1A7</v>
       </c>
     </row>
     <row r="9" ht="14.25">
@@ -2651,35 +3877,37 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C9" s="3">
-        <v>2.222</v>
-      </c>
-      <c r="D9" s="4">
+        <v>3.5555555499999998</v>
+      </c>
+      <c r="D9">
         <f>B1/B2</f>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="11"/>
-        <v>53.333333333333336</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="12"/>
-        <v>53</v>
+        <f t="shared" si="14"/>
+        <v>39.111111111111114</v>
+      </c>
+      <c r="F9" s="4">
+        <v>32</v>
       </c>
       <c r="G9" s="5">
-        <f>F9/B2</f>
-        <v>2.2083333333333335</v>
+        <f>F9/(B2*1000000)*1000000</f>
+        <v>2</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="13"/>
-        <v>-0.0061506150615060727</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" t="str">
+        <f t="shared" si="15"/>
+        <v>-0.43749999912109372</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="16"/>
+        <v>455</v>
+      </c>
+      <c r="J9" s="4" t="str">
         <f>DEC2HEX(F6+F7+F8+F9)</f>
-        <v>22A</v>
+        <v>1C7</v>
       </c>
     </row>
     <row r="10" ht="14.25">
@@ -2687,36 +3915,34 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <f>SUM(B6:B9)</f>
-        <v>832</v>
+        <v>1056</v>
       </c>
       <c r="C10" s="3">
-        <v>23.109999999999999</v>
-      </c>
-      <c r="D10" s="4">
+        <f>SUM(C6:C9)</f>
+        <v>28.444222250000003</v>
+      </c>
+      <c r="D10">
         <f>B1/B2</f>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="E10" s="4">
         <f>B10/D10</f>
-        <v>554.66666666666663</v>
-      </c>
-      <c r="F10" s="5">
-        <f>ROUND(E10,0)</f>
-        <v>555</v>
+        <v>469.33333333333331</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F6:F9)</f>
+        <v>455</v>
       </c>
       <c r="G10" s="5">
-        <f>F10/B2</f>
-        <v>23.125</v>
+        <f>F10/(B2*1000000)*1000000</f>
+        <v>28.4375</v>
       </c>
       <c r="H10" s="6">
         <f>(G10-C10)/C10</f>
-        <v>0.00064906966681092901</v>
+        <v>-0.0002363309476673357</v>
       </c>
       <c r="I10" s="4"/>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="F11" s="3"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="2" t="s">
@@ -2726,7 +3952,6 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
@@ -2741,48 +3966,50 @@
       <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="3"/>
       <c r="H13" s="6"/>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="C14">
-        <f>C10*B14/1000</f>
-        <v>11.092799999999999</v>
+        <v>15.84</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" ref="E14:E18" si="14">B14/D14</f>
-        <v>240</v>
-      </c>
-      <c r="F14" s="5">
-        <f>ROUND(E14,0)</f>
-        <v>240</v>
+        <f t="shared" ref="E14:E18" si="17">B14/D14</f>
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F16" si="18">ROUND(E14,0)</f>
+        <v>300</v>
       </c>
       <c r="G14" s="3">
-        <f>F14/B2</f>
-        <v>10</v>
+        <f>F14*D14*G10/1000</f>
+        <v>17.0625</v>
       </c>
       <c r="H14" s="6">
         <f>(G14-C14)/C14</f>
-        <v>-0.098514351651521601</v>
-      </c>
-      <c r="J14" t="str">
+        <v>0.077178030303030318</v>
+      </c>
+      <c r="J14" s="4" t="str">
         <f>DEC2HEX(B14)</f>
-        <v>1E0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" t="s">
-        <v>40</v>
+        <v>258</v>
+      </c>
+      <c r="K14" t="str">
+        <f>DEC2HEX(HEX2DEC(400)+B14)</f>
+        <v>658</v>
+      </c>
+      <c r="L14">
+        <v>650</v>
       </c>
     </row>
     <row r="15" ht="14.25">
@@ -2793,31 +4020,37 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <f>C10*B15/1000</f>
-        <v>0.023109999999999999</v>
+        <v>0.0264</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="F15" s="5">
-        <f t="shared" ref="F15:F17" si="15">E15</f>
-        <v>0.5</v>
-      </c>
-      <c r="G15" s="5">
-        <f>F15/B2</f>
-        <v>0.020833333333333332</v>
+      <c r="F15" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <f>F15*D15*G10/1000</f>
+        <v>0.056875000000000002</v>
       </c>
       <c r="H15" s="6">
         <f>(G15-C15)*100/C15</f>
-        <v>-9.8514351651521697</v>
-      </c>
-      <c r="J15" t="str">
+        <v>115.43560606060608</v>
+      </c>
+      <c r="J15" s="4" t="str">
         <f>DEC2HEX(B15+B14)</f>
-        <v>1E1</v>
+        <v>259</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <f>DEC2HEX(HEX2DEC(400)+B15+B14)</f>
+        <v>659</v>
+      </c>
+      <c r="L15">
+        <v>654</v>
       </c>
     </row>
     <row r="16" ht="14.25">
@@ -2825,34 +4058,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <f>C10*B16/1000</f>
-        <v>0.069330000000000003</v>
+        <v>0.1056</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="14"/>
-        <v>1.5</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="15"/>
-        <v>1.5</v>
-      </c>
-      <c r="G16" s="5">
-        <f>F16/B2</f>
-        <v>0.0625</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <f>F16*D16*G10/1000</f>
+        <v>0.11375</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" ref="H16:H18" si="16">(G16-C16)/C16</f>
-        <v>-0.098514351651521739</v>
-      </c>
-      <c r="J16" t="str">
+        <f t="shared" ref="H16:H18" si="19">(G16-C16)/C16</f>
+        <v>0.077178030303030346</v>
+      </c>
+      <c r="J16" s="4" t="str">
         <f>DEC2HEX(B16+B15+B14)</f>
-        <v>1E4</v>
+        <v>25D</v>
+      </c>
+      <c r="K16" s="4" t="str">
+        <f>DEC2HEX(HEX2DEC(400)+B16+B15+B14)</f>
+        <v>65D</v>
+      </c>
+      <c r="L16">
+        <v>660</v>
       </c>
     </row>
     <row r="17" ht="14.25">
@@ -2860,34 +4099,39 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <f>C10*B17/1000</f>
-        <v>0.57774999999999999</v>
+        <v>0.60719999999999996</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="14"/>
-        <v>12.5</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="15"/>
-        <v>12.5</v>
-      </c>
-      <c r="G17" s="5">
-        <f>F17/B2</f>
-        <v>0.52083333333333337</v>
+        <f t="shared" si="17"/>
+        <v>11.5</v>
+      </c>
+      <c r="F17" s="4">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3">
+        <f>F17*D17*G10/1000</f>
+        <v>0.62562499999999999</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="16"/>
-        <v>-0.098514351651521628</v>
-      </c>
-      <c r="J17" t="str">
+        <f t="shared" si="19"/>
+        <v>0.030344202898550766</v>
+      </c>
+      <c r="J17" s="4" t="str">
         <f>DEC2HEX(B14+B15+B16+B17)</f>
-        <v>1FD</v>
+        <v>274</v>
+      </c>
+      <c r="K17" s="4" t="str">
+        <f>DEC2HEX(HEX2DEC(400)+B17+B16+B15+B14)</f>
+        <v>674</v>
+      </c>
+      <c r="L17">
+        <v>673</v>
       </c>
     </row>
     <row r="18" ht="14.25">
@@ -2895,31 +4139,29 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <f>SUM(B14:B17)</f>
-        <v>509</v>
+        <v>628</v>
       </c>
       <c r="C18">
-        <f>SUM(C14:C17)</f>
-        <v>11.76299</v>
+        <v>16.5792</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="14"/>
-        <v>254.5</v>
-      </c>
-      <c r="F18" s="5">
+        <f t="shared" si="17"/>
+        <v>314</v>
+      </c>
+      <c r="F18" s="4">
         <f>SUM(F14:F17)</f>
-        <v>254.5</v>
+        <v>314</v>
       </c>
       <c r="G18" s="5">
-        <f>F18/B2</f>
-        <v>10.604166666666666</v>
+        <f>SUM(G14:G17)</f>
+        <v>17.858750000000001</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="16"/>
-        <v>-0.098514351651521781</v>
+        <f t="shared" si="19"/>
+        <v>0.077178030303030332</v>
       </c>
     </row>
     <row r="20" ht="14.25"/>
@@ -2927,58 +4169,142 @@
       <c r="K21" t="s">
         <v>22</v>
       </c>
-      <c r="L21" t="s">
-        <v>48</v>
-      </c>
-      <c r="M21" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" t="s">
-        <v>41</v>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
       </c>
       <c r="K22" t="s">
         <v>25</v>
       </c>
-      <c r="L22" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>160</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>27</v>
       </c>
       <c r="M23" s="7">
         <f>(C6*B14)/(C18*1000)</f>
-        <v>0.72543596483547124</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25"/>
+        <v>0.80421250723798499</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>120</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <f>203*120</f>
-        <v>24360</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25"/>
-    <row r="27" ht="14.25"/>
-    <row r="28" ht="14.25"/>
-    <row r="30" ht="14.25"/>
-    <row r="32" ht="14.25"/>
+        <v>332</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="G26">
+        <f>128*1.33</f>
+        <v>170.24000000000001</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="D27">
+        <f>160*120</f>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="C28">
+        <f>128*256</f>
+        <v>32768</v>
+      </c>
+      <c r="D28">
+        <f>2^15</f>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30">
+        <f>2^7</f>
+        <v>128</v>
+      </c>
+      <c r="G30">
+        <f>64*1.33</f>
+        <v>85.120000000000005</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="33" ht="14.25">
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" ht="14.25"/>
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>86</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <f>B33*B34</f>
+        <v>5504</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>64</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="35" ht="14.25">
       <c r="D35">
         <v>8</v>
@@ -3014,121 +4340,2486 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.7109375"/>
+    <col customWidth="1" min="5" max="5" width="13.140625"/>
+    <col customWidth="1" min="7" max="7" width="15.8515625"/>
+    <col bestFit="1" min="8" max="8" width="10.65234375"/>
+    <col customWidth="1" min="11" max="11" width="13.28125"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>800</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <f>B1/B2</f>
+        <v>2.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E9" si="20">B6/D6</f>
+        <v>320</v>
+      </c>
+      <c r="F6">
+        <v>350</v>
+      </c>
+      <c r="G6" s="3">
+        <f>F6/(B2*1000000)*1000000</f>
+        <v>21.875</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H9" si="21">(G6-C6)/C6</f>
+        <v>0.09375</v>
+      </c>
+      <c r="I6">
+        <f>F6</f>
+        <v>350</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f>DEC2HEX(F6)</f>
+        <v>15E</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>B1/B2</f>
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5">
+        <f>F7/(B2*1000000)*1000000</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I9" si="22">I6+F7</f>
+        <v>366</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f>DEC2HEX(F7+F6)</f>
+        <v>16E</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>128</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.2000000000000002</v>
+      </c>
+      <c r="D8">
+        <f>B1/B2</f>
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="20"/>
+        <v>51.200000000000003</v>
+      </c>
+      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="G8" s="5">
+        <f>F8/(B2*1000000)*1000000</f>
+        <v>2</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="21"/>
+        <v>-0.37500000000000006</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="22"/>
+        <v>398</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f>DEC2HEX(F6+F7+F8)</f>
+        <v>18E</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>88</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D9">
+        <f>B1/B2</f>
+        <v>2.5</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="20"/>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5">
+        <f>F9/(B2*1000000)*1000000</f>
+        <v>1.375</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="21"/>
+        <v>-0.37500000000000006</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="22"/>
+        <v>420</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f>DEC2HEX(F6+F7+F8+F9)</f>
+        <v>1A4</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1056</v>
+      </c>
+      <c r="C10" s="3">
+        <v>26.399999999999999</v>
+      </c>
+      <c r="D10">
+        <f>B1/B2</f>
+        <v>2.5</v>
+      </c>
+      <c r="E10" s="4">
+        <f>B10/D10</f>
+        <v>422.39999999999998</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F6:F9)</f>
+        <v>420</v>
+      </c>
+      <c r="G10" s="5">
+        <f>F10/(B2*1000000)*1000000</f>
+        <v>26.25</v>
+      </c>
+      <c r="H10" s="6">
+        <f>(G10-C10)/C10</f>
+        <v>-0.0056818181818181282</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>600</v>
+      </c>
+      <c r="C14">
+        <v>15.84</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:E18" si="23">B14/D14</f>
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F16" si="24">ROUND(E14,0)</f>
+        <v>300</v>
+      </c>
+      <c r="G14" s="3">
+        <f>F14*D14*G10/1000</f>
+        <v>15.75</v>
+      </c>
+      <c r="H14" s="6">
+        <f>(G14-C14)/C14</f>
+        <v>-0.0056818181818181733</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f>DEC2HEX(B14)</f>
+        <v>258</v>
+      </c>
+      <c r="K14" t="str">
+        <f>DEC2HEX(HEX2DEC(400)+B14)</f>
+        <v>658</v>
+      </c>
+      <c r="L14">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0.0264</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <f>F15*D15*G10/1000</f>
+        <v>0.052499999999999998</v>
+      </c>
+      <c r="H15" s="6">
+        <f>(G15-C15)*100/C15</f>
+        <v>98.86363636363636</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f>DEC2HEX(B15+B14)</f>
+        <v>259</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <f>DEC2HEX(HEX2DEC(400)+B15+B14)</f>
+        <v>659</v>
+      </c>
+      <c r="L15">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>0.1056</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <f>F16*D16*G10/1000</f>
+        <v>0.105</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" ref="H16:H18" si="25">(G16-C16)/C16</f>
+        <v>-0.0056818181818182132</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f>DEC2HEX(B16+B15+B14)</f>
+        <v>25D</v>
+      </c>
+      <c r="K16" s="4" t="str">
+        <f>DEC2HEX(HEX2DEC(400)+B16+B15+B14)</f>
+        <v>65D</v>
+      </c>
+      <c r="L16">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>0.60719999999999996</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="23"/>
+        <v>11.5</v>
+      </c>
+      <c r="F17" s="4">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3">
+        <f>F17*D17*G10/1000</f>
+        <v>0.57750000000000001</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="25"/>
+        <v>-0.048913043478260788</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f>DEC2HEX(B14+B15+B16+B17)</f>
+        <v>274</v>
+      </c>
+      <c r="K17" s="4" t="str">
+        <f>DEC2HEX(HEX2DEC(400)+B17+B16+B15+B14)</f>
+        <v>674</v>
+      </c>
+      <c r="L17">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>628</v>
+      </c>
+      <c r="C18">
+        <v>16.5792</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="23"/>
+        <v>314</v>
+      </c>
+      <c r="F18" s="4">
+        <f>SUM(F14:F17)</f>
+        <v>314</v>
+      </c>
+      <c r="G18" s="5">
+        <f>SUM(G14:G17)</f>
+        <v>16.484999999999999</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="25"/>
+        <v>-0.0056818181818182253</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25"/>
+    <row r="21" ht="14.25">
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>160</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="7">
+        <f>(C6*B14)/(C18*1000)</f>
+        <v>0.72379849449913136</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>120</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>332</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="G26">
+        <f>128*1.33</f>
+        <v>170.24000000000001</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="D27">
+        <f>160*120</f>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="C28">
+        <f>128*256</f>
+        <v>32768</v>
+      </c>
+      <c r="D28">
+        <f>2^15</f>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30">
+        <f>2^7</f>
+        <v>128</v>
+      </c>
+      <c r="G30">
+        <f>64*1.33</f>
+        <v>85.120000000000005</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>86</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <f>B33*B34</f>
+        <v>5504</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>64</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="D35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.7109375"/>
+    <col customWidth="1" min="5" max="5" width="13.7109375"/>
+    <col customWidth="1" min="7" max="7" width="15.8515625"/>
+    <col bestFit="1" min="8" max="8" width="11.22265625"/>
+    <col customWidth="1" min="10" max="10" width="9.8515625"/>
+    <col customWidth="1" min="11" max="11" width="12.28125"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>25.175000000000001</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>640</v>
+      </c>
+      <c r="C6" s="3">
+        <v>25.42204568</v>
+      </c>
+      <c r="D6">
+        <f>B1/B2</f>
+        <v>1.5734375</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" ref="E6:E9" si="26">B6/D6</f>
+        <v>406.75273088381329</v>
+      </c>
+      <c r="F6" s="3">
+        <v>432</v>
+      </c>
+      <c r="G6" s="3">
+        <f>F6/B2</f>
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H9" si="27">(G6-C6)/C6</f>
+        <v>0.062070312509956906</v>
+      </c>
+      <c r="J6" t="str">
+        <f>DEC2HEX(F6)</f>
+        <v>1B0</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.64555110000000004</v>
+      </c>
+      <c r="D7" s="4">
+        <f>B1/B2</f>
+        <v>1.5734375</v>
+      </c>
+      <c r="E7" s="19">
+        <f t="shared" si="26"/>
+        <v>10.168818272095333</v>
+      </c>
+      <c r="F7" s="5">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5">
+        <f>F7/B2</f>
+        <v>0.625</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="27"/>
+        <v>-0.03183497015185946</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f>DEC2HEX(F7+F6)</f>
+        <v>1BA</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>96</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.8133067999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <f>B1/B2</f>
+        <v>1.5734375</v>
+      </c>
+      <c r="E8" s="19">
+        <f t="shared" si="26"/>
+        <v>61.012909632571997</v>
+      </c>
+      <c r="F8" s="5">
+        <v>38</v>
+      </c>
+      <c r="G8" s="5">
+        <f>F8/B2</f>
+        <v>2.375</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="27"/>
+        <v>-0.37718098108444881</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" t="str">
+        <f>DEC2HEX(F6+F7+F8)</f>
+        <v>1E0</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.9066533999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <f>B1/B2</f>
+        <v>1.5734375</v>
+      </c>
+      <c r="E9" s="19">
+        <f t="shared" si="26"/>
+        <v>30.506454816285999</v>
+      </c>
+      <c r="F9" s="5">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5">
+        <f>F9/B2</f>
+        <v>0.9375</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="27"/>
+        <v>-0.50830077454035427</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" t="str">
+        <f>DEC2HEX(F6+F7+F8+F9)</f>
+        <v>1EF</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <f>SUM(B6:B9)</f>
+        <v>800</v>
+      </c>
+      <c r="C10" s="3">
+        <f>SUM(C6:C9)</f>
+        <v>31.787556979999998</v>
+      </c>
+      <c r="D10" s="4">
+        <f>B1/B2</f>
+        <v>1.5734375</v>
+      </c>
+      <c r="E10" s="19">
+        <f>B10/D10</f>
+        <v>508.44091360476659</v>
+      </c>
+      <c r="F10" s="5">
+        <f>SUM(F6:F9)</f>
+        <v>495</v>
+      </c>
+      <c r="G10" s="5">
+        <f>SUM(G6:G9)</f>
+        <v>30.9375</v>
+      </c>
+      <c r="H10" s="6">
+        <f>(G10-C10)/C10</f>
+        <v>-0.026741815375583417</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="F11" s="3"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="H13" s="6"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>480</v>
+      </c>
+      <c r="C14">
+        <f>C10*B14/1000</f>
+        <v>15.258027350399999</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:E18" si="28">B14/D14</f>
+        <v>240</v>
+      </c>
+      <c r="F14" s="5">
+        <f>ROUND(E14,0)</f>
+        <v>240</v>
+      </c>
+      <c r="G14" s="3">
+        <f>F14/B2</f>
+        <v>15</v>
+      </c>
+      <c r="H14" s="6">
+        <f>(G14-C14)/C14</f>
+        <v>-0.016910924621801434</v>
+      </c>
+      <c r="J14" t="str">
+        <f>DEC2HEX(B14)</f>
+        <v>1E0</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <f>C10*B15/1000</f>
+        <v>0.31787556979999998</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="F15" s="20">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5">
+        <f>F15/B2</f>
+        <v>0.4375</v>
+      </c>
+      <c r="H15" s="6">
+        <f>(G15-C15)*100/C15</f>
+        <v>37.632470552947801</v>
+      </c>
+      <c r="J15" t="str">
+        <f>DEC2HEX(B15+B14)</f>
+        <v>1EA</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f>C10*B16/1000</f>
+        <v>0.063575113959999999</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="20">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5">
+        <f>F16/B2</f>
+        <v>0.125</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" ref="H16:H18" si="29">(G16-C16)/C16</f>
+        <v>0.96617815075639701</v>
+      </c>
+      <c r="J16" t="str">
+        <f>DEC2HEX(B16+B15+B14)</f>
+        <v>1EC</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <f>C10*B17/1000</f>
+        <v>1.0489893803400001</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="28"/>
+        <v>16.5</v>
+      </c>
+      <c r="F17" s="5">
+        <f>E17</f>
+        <v>16.5</v>
+      </c>
+      <c r="G17" s="5">
+        <f>F17/B2</f>
+        <v>1.03125</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="29"/>
+        <v>-0.016910924621801601</v>
+      </c>
+      <c r="J17" t="str">
+        <f>DEC2HEX(B14+B15+B16+B17)</f>
+        <v>20D</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B14:B17)</f>
+        <v>525</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C14:C17)</f>
+        <v>16.6884674145</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="28"/>
+        <v>262.5</v>
+      </c>
+      <c r="F18" s="5">
+        <f>SUM(F14:F17)</f>
+        <v>265.5</v>
+      </c>
+      <c r="G18" s="5">
+        <f>F18/B2</f>
+        <v>16.59375</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="29"/>
+        <v>-0.0056756209031935019</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>84000000</v>
+      </c>
+      <c r="L20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21">
+        <f>1/K20</f>
+        <v>1.1904761904761905e-08</v>
+      </c>
+      <c r="L21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="str">
+        <f>F6&amp;" x "&amp;F14</f>
+        <v xml:space="preserve">432 x 240</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22">
+        <f>G10-G6</f>
+        <v>3.9375</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22">
+        <f>F22/1000000/K21</f>
+        <v>330.75</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23">
+        <f>G18-G14</f>
+        <v>1.59375</v>
+      </c>
+      <c r="G23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23">
+        <f>F23/1000/K21</f>
+        <v>133875</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="7">
+        <f>(C6*B14)/(C18*1000)</f>
+        <v>0.73119847516960268</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25"/>
+    <row r="25" ht="14.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <f>407*240</f>
+        <v>97680</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="B26">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27">
+        <v>324</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27">
+        <f>H27/1000000/K21</f>
+        <v>27216</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25"/>
+    <row r="30" ht="14.25"/>
+    <row r="32" ht="14.25"/>
+    <row r="33" ht="14.25">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" ht="14.25"/>
+    <row r="35" ht="14.25">
+      <c r="D35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38">
+        <v>512</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.7109375"/>
+    <col customWidth="1" min="5" max="5" width="13.140625"/>
+    <col customWidth="1" min="7" max="7" width="15.8515625"/>
+    <col bestFit="1" min="8" max="8" width="10.65234375"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>25.175000000000001</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>640</v>
+      </c>
+      <c r="C6" s="3">
+        <v>25.42204568</v>
+      </c>
+      <c r="D6">
+        <f>B1/B2</f>
+        <v>3.1468750000000001</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E9" si="30">B6/D6</f>
+        <v>203.37636544190664</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:F9" si="31">ROUND(E6,0)</f>
+        <v>203</v>
+      </c>
+      <c r="G6" s="3">
+        <f>F6/B2</f>
+        <v>25.375</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H9" si="32">(G6-C6)/C6</f>
+        <v>-0.0018505859281423528</v>
+      </c>
+      <c r="J6" t="str">
+        <f>DEC2HEX(F6)</f>
+        <v>CB</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.64555110000000004</v>
+      </c>
+      <c r="D7" s="4">
+        <f>B1/B2</f>
+        <v>3.1468750000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="30"/>
+        <v>5.0844091360476664</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="G7" s="5">
+        <f>F7/B2</f>
+        <v>0.625</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="32"/>
+        <v>-0.03183497015185946</v>
+      </c>
+      <c r="J7" s="4" t="e">
+        <f>DEC2HEX(F7+J6)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>96</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.8133067999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <f>B1/B2</f>
+        <v>3.1468750000000001</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="30"/>
+        <v>30.506454816285999</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="31"/>
+        <v>31</v>
+      </c>
+      <c r="G8" s="5">
+        <f>F8/B2</f>
+        <v>3.875</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="32"/>
+        <v>0.01617839928326777</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" t="str">
+        <f>DEC2HEX(F6+F7+F8)</f>
+        <v>EF</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.9066533999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <f>B1/B2</f>
+        <v>3.1468750000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="30"/>
+        <v>15.253227408142999</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="31"/>
+        <v>15</v>
+      </c>
+      <c r="G9" s="5">
+        <f>F9/B2</f>
+        <v>1.875</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="32"/>
+        <v>-0.01660154908070861</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" t="str">
+        <f>DEC2HEX(F6+F7+F8+F9)</f>
+        <v>FE</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <f>SUM(B6:B9)</f>
+        <v>800</v>
+      </c>
+      <c r="C10" s="3">
+        <f>SUM(C6:C9)</f>
+        <v>31.787556979999998</v>
+      </c>
+      <c r="D10" s="4">
+        <f>B1/B2</f>
+        <v>3.1468750000000001</v>
+      </c>
+      <c r="E10" s="4">
+        <f>B10/D10</f>
+        <v>254.2204568023833</v>
+      </c>
+      <c r="F10" s="5">
+        <f>ROUND(E10,0)</f>
+        <v>254</v>
+      </c>
+      <c r="G10" s="5">
+        <f>F10/B2</f>
+        <v>31.75</v>
+      </c>
+      <c r="H10" s="6">
+        <f>(G10-C10)/C10</f>
+        <v>-0.0011814994157502558</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>480</v>
+      </c>
+      <c r="C14">
+        <f>C10*B14/1000</f>
+        <v>15.258027350399999</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:E18" si="33">B14/D14</f>
+        <v>120</v>
+      </c>
+      <c r="F14" s="5">
+        <f>ROUND(E14,0)</f>
+        <v>120</v>
+      </c>
+      <c r="G14" s="3">
+        <f>F14/B2</f>
+        <v>15</v>
+      </c>
+      <c r="H14" s="6">
+        <f>(G14-C14)/C14</f>
+        <v>-0.016910924621801434</v>
+      </c>
+      <c r="J14" t="str">
+        <f>DEC2HEX(B14)</f>
+        <v>1E0</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <f>C10*B15/1000</f>
+        <v>0.31787556979999998</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="33"/>
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ref="F15:F17" si="34">E15</f>
+        <v>2.5</v>
+      </c>
+      <c r="G15" s="5">
+        <f>F15/B2</f>
+        <v>0.3125</v>
+      </c>
+      <c r="H15" s="6">
+        <f>(G15-C15)*100/C15</f>
+        <v>-1.6910924621801433</v>
+      </c>
+      <c r="J15" t="str">
+        <f>DEC2HEX(B15+B14)</f>
+        <v>1EA</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f>C10*B16/1000</f>
+        <v>0.063575113959999999</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="34"/>
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="5">
+        <f>F16/B2</f>
+        <v>0.0625</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" ref="H16:H18" si="35">(G16-C16)/C16</f>
+        <v>-0.016910924621801476</v>
+      </c>
+      <c r="J16" t="str">
+        <f>DEC2HEX(B16+B15+B14)</f>
+        <v>1EC</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <f>C10*B17/1000</f>
+        <v>1.0489893803400001</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="33"/>
+        <v>8.25</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="34"/>
+        <v>8.25</v>
+      </c>
+      <c r="G17" s="5">
+        <f>F17/B2</f>
+        <v>1.03125</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="35"/>
+        <v>-0.016910924621801601</v>
+      </c>
+      <c r="J17" t="str">
+        <f>DEC2HEX(B14+B15+B16+B17)</f>
+        <v>20D</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B14:B17)</f>
+        <v>525</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C14:C17)</f>
+        <v>16.6884674145</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="33"/>
+        <v>131.25</v>
+      </c>
+      <c r="F18" s="5">
+        <f>SUM(F14:F17)</f>
+        <v>131.25</v>
+      </c>
+      <c r="G18" s="5">
+        <f>F18/B2</f>
+        <v>16.40625</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="35"/>
+        <v>-0.016910924621801486</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25"/>
+    <row r="21" ht="14.25">
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="7">
+        <f>(C6*B14)/(C18*1000)</f>
+        <v>0.73119847516960268</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25"/>
+    <row r="25" ht="14.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <f>203*120</f>
+        <v>24360</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25"/>
+    <row r="27" ht="14.25"/>
+    <row r="28" ht="14.25"/>
+    <row r="30" ht="14.25"/>
+    <row r="32" ht="14.25"/>
+    <row r="33" ht="14.25">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" ht="14.25"/>
+    <row r="35" ht="14.25">
+      <c r="D35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.7109375"/>
+    <col customWidth="1" min="5" max="5" width="13.140625"/>
+    <col customWidth="1" min="7" max="7" width="15.8515625"/>
+    <col bestFit="1" min="8" max="8" width="10.65234375"/>
+    <col customWidth="1" min="10" max="10" width="11.00390625"/>
+    <col customWidth="1" min="12" max="12" width="11.421875"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>640</v>
+      </c>
+      <c r="C6" s="3">
+        <v>17.777699999999999</v>
+      </c>
+      <c r="D6">
+        <f>B1/B2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E9" si="36">B6/D6</f>
+        <v>426.66666666666669</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:F9" si="37">ROUND(E6,0)</f>
+        <v>427</v>
+      </c>
+      <c r="G6" s="3">
+        <f>F6/B2</f>
+        <v>17.791666666666668</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H9" si="38">(G6-C6)/C6</f>
+        <v>0.00078562843712451326</v>
+      </c>
+      <c r="J6" t="str">
+        <f>DEC2HEX(F6)</f>
+        <v>1AB</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>56</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <f>B1/B2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="36"/>
+        <v>37.333333333333336</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="37"/>
+        <v>37</v>
+      </c>
+      <c r="G7" s="5">
+        <f>F7/B2</f>
+        <v>1.5416666666666667</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="38"/>
+        <v>-0.008574490889603343</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f>DEC2HEX(F7+F6)</f>
+        <v>1D0</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>56</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <f>B1/B2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="36"/>
+        <v>37.333333333333336</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="37"/>
+        <v>37</v>
+      </c>
+      <c r="G8" s="5">
+        <f>F8/B2</f>
+        <v>1.5416666666666667</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="38"/>
+        <v>-0.008574490889603343</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" t="str">
+        <f>DEC2HEX(F6+F7+F8)</f>
+        <v>1F5</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.222</v>
+      </c>
+      <c r="D9" s="4">
+        <f>B1/B2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="36"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="37"/>
+        <v>53</v>
+      </c>
+      <c r="G9" s="5">
+        <f>F9/B2</f>
+        <v>2.2083333333333335</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="38"/>
+        <v>-0.0061506150615060727</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" t="str">
+        <f>DEC2HEX(F6+F7+F8+F9)</f>
+        <v>22A</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <f>SUM(B6:B9)</f>
+        <v>832</v>
+      </c>
+      <c r="C10" s="3">
+        <v>23.109999999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <f>B1/B2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="4">
+        <f>B10/D10</f>
+        <v>554.66666666666663</v>
+      </c>
+      <c r="F10" s="5">
+        <f>ROUND(E10,0)</f>
+        <v>555</v>
+      </c>
+      <c r="G10" s="5">
+        <f>F10/B2</f>
+        <v>23.125</v>
+      </c>
+      <c r="H10" s="6">
+        <f>(G10-C10)/C10</f>
+        <v>0.00064906966681092901</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>480</v>
+      </c>
+      <c r="C14">
+        <f>C10*B14/1000</f>
+        <v>11.092799999999999</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:E18" si="39">B14/D14</f>
+        <v>240</v>
+      </c>
+      <c r="F14" s="5">
+        <f>ROUND(E14,0)</f>
+        <v>240</v>
+      </c>
+      <c r="G14" s="3">
+        <f>F14/B2</f>
+        <v>10</v>
+      </c>
+      <c r="H14" s="6">
+        <f>(G14-C14)/C14</f>
+        <v>-0.098514351651521601</v>
+      </c>
+      <c r="J14" t="str">
+        <f>DEC2HEX(B14)</f>
+        <v>1E0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f>C10*B15/1000</f>
+        <v>0.023109999999999999</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="39"/>
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ref="F15:F17" si="40">E15</f>
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="5">
+        <f>F15/B2</f>
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="H15" s="6">
+        <f>(G15-C15)*100/C15</f>
+        <v>-9.8514351651521697</v>
+      </c>
+      <c r="J15" t="str">
+        <f>DEC2HEX(B15+B14)</f>
+        <v>1E1</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <f>C10*B16/1000</f>
+        <v>0.069330000000000003</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="39"/>
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="40"/>
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="5">
+        <f>F16/B2</f>
+        <v>0.0625</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" ref="H16:H18" si="41">(G16-C16)/C16</f>
+        <v>-0.098514351651521739</v>
+      </c>
+      <c r="J16" t="str">
+        <f>DEC2HEX(B16+B15+B14)</f>
+        <v>1E4</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <f>C10*B17/1000</f>
+        <v>0.57774999999999999</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="39"/>
+        <v>12.5</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="40"/>
+        <v>12.5</v>
+      </c>
+      <c r="G17" s="5">
+        <f>F17/B2</f>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="41"/>
+        <v>-0.098514351651521628</v>
+      </c>
+      <c r="J17" t="str">
+        <f>DEC2HEX(B14+B15+B16+B17)</f>
+        <v>1FD</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B14:B17)</f>
+        <v>509</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C14:C17)</f>
+        <v>11.76299</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="39"/>
+        <v>254.5</v>
+      </c>
+      <c r="F18" s="5">
+        <f>SUM(F14:F17)</f>
+        <v>254.5</v>
+      </c>
+      <c r="G18" s="5">
+        <f>F18/B2</f>
+        <v>10.604166666666666</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="41"/>
+        <v>-0.098514351651521781</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25"/>
+    <row r="21" ht="14.25">
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="7">
+        <f>(C6*B14)/(C18*1000)</f>
+        <v>0.72543596483547124</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25"/>
+    <row r="25" ht="14.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <f>203*120</f>
+        <v>24360</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25"/>
+    <row r="27" ht="14.25"/>
+    <row r="28" ht="14.25"/>
+    <row r="30" ht="14.25"/>
+    <row r="32" ht="14.25"/>
+    <row r="33" ht="14.25">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" ht="14.25"/>
+    <row r="35" ht="14.25">
+      <c r="D35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="K1" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="L1" s="2"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="K3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="W3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11" t="s">
-        <v>54</v>
+      <c r="K3" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="W3" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>1</v>
-      </c>
-      <c r="M4" s="12">
+        <v>75</v>
+      </c>
+      <c r="K4" s="23">
+        <v>0</v>
+      </c>
+      <c r="L4" s="23">
+        <v>1</v>
+      </c>
+      <c r="M4" s="23">
         <v>2</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="23">
         <v>3</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="23">
         <v>4</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="23">
         <v>5</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="23">
         <v>6</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="23">
         <v>7</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="23">
         <v>8</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="23">
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="12">
-        <v>0</v>
-      </c>
-      <c r="X4" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="12">
+        <v>76</v>
+      </c>
+      <c r="W4" s="23">
+        <v>0</v>
+      </c>
+      <c r="X4" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="23">
         <v>2</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Z4" s="23">
         <v>3</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="AA4" s="23">
         <v>4</v>
       </c>
-      <c r="AB4" s="12">
+      <c r="AB4" s="23">
         <v>5</v>
       </c>
-      <c r="AC4" s="12">
+      <c r="AC4" s="23">
         <v>6</v>
       </c>
-      <c r="AD4" s="12">
+      <c r="AD4" s="23">
         <v>7</v>
       </c>
-      <c r="AE4" s="12">
+      <c r="AE4" s="23">
         <v>8</v>
       </c>
-      <c r="AF4" s="12">
+      <c r="AF4" s="23">
         <v>9</v>
       </c>
       <c r="AG4" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="I5">
-        <f t="shared" ref="I5:I9" si="17">A5*(2^0)+B5*(2^1)+C5*(2^2)+D5*(2^3)+E5*(2^4)+F5*(2^5)+G5*(2^6)+H5*(2^7)</f>
+        <f t="shared" ref="I5:I9" si="42">A5*(2^0)+B5*(2^1)+C5*(2^2)+D5*(2^3)+E5*(2^4)+F5*(2^5)+G5*(2^6)+H5*(2^7)</f>
         <v>0</v>
       </c>
       <c r="K5">
@@ -3162,11 +6853,11 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <f t="shared" ref="U5:U9" si="18">K5*(2^0)+L5*(2^1)+M5*(2^2)+N5*(2^3)+O5*(2^4)+P5*(2^5)+Q5*(2^6)+R5*(2^7)+S5*(2^8)+T5*(2^9)</f>
+        <f t="shared" ref="U5:U9" si="43">K5*(2^0)+L5*(2^1)+M5*(2^2)+N5*(2^3)+O5*(2^4)+P5*(2^5)+Q5*(2^6)+R5*(2^7)+S5*(2^8)+T5*(2^9)</f>
         <v>0</v>
       </c>
       <c r="W5" s="4">
-        <f t="shared" ref="W5:W9" si="19">I5+_xlfn.BITLSHIFT(U5,8)</f>
+        <f t="shared" ref="W5:W9" si="44">I5+_xlfn.BITLSHIFT(U5,8)</f>
         <v>0</v>
       </c>
       <c r="X5" s="4">
@@ -3197,17 +6888,17 @@
         <v>0</v>
       </c>
       <c r="AG5" s="4">
-        <f t="shared" ref="AG5:AG8" si="20">W5*(2^0)+X5*(2^1)+Y5*(2^2)+Z5*(2^3)+AA5*(2^4)+AB5*(2^5)+AC5*(2^6)+AD5*(2^7)+AE5*(2^8)+AF5*(2^9)</f>
+        <f t="shared" ref="AG5:AG8" si="45">W5*(2^0)+X5*(2^1)+Y5*(2^2)+Z5*(2^3)+AA5*(2^4)+AB5*(2^5)+AC5*(2^6)+AD5*(2^7)+AE5*(2^8)+AF5*(2^9)</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f t="shared" ref="AI5:AI9" si="21">U5+_xlfn.BITLSHIFT(AG5,7)</f>
+        <f t="shared" ref="AI5:AI9" si="46">U5+_xlfn.BITLSHIFT(AG5,7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="I6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="K6" s="4">
@@ -3241,11 +6932,11 @@
         <v>0</v>
       </c>
       <c r="U6" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="X6" s="4">
@@ -3276,17 +6967,17 @@
         <v>0</v>
       </c>
       <c r="AG6" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AI6" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="I7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="K7" s="4">
@@ -3320,11 +7011,11 @@
         <v>0</v>
       </c>
       <c r="U7" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="X7" s="4">
@@ -3355,17 +7046,17 @@
         <v>0</v>
       </c>
       <c r="AG7" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="AI7" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>256</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="I8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="K8" s="4">
@@ -3399,11 +7090,11 @@
         <v>0</v>
       </c>
       <c r="U8" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="X8" s="4">
@@ -3434,11 +7125,11 @@
         <v>0</v>
       </c>
       <c r="AG8" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="AI8" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>256</v>
       </c>
     </row>
@@ -3453,7 +7144,7 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="K9" s="4">
@@ -3487,15 +7178,15 @@
         <v>0</v>
       </c>
       <c r="U9" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
       <c r="AI9" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -3510,7 +7201,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:I58" si="22">A10*(2^0)+B10*(2^1)+C10*(2^2)+D10*(2^3)+E10*(2^4)+F10*(2^5)+G10*(2^6)+H10*(2^7)</f>
+        <f t="shared" ref="I10:I58" si="47">A10*(2^0)+B10*(2^1)+C10*(2^2)+D10*(2^3)+E10*(2^4)+F10*(2^5)+G10*(2^6)+H10*(2^7)</f>
         <v>5</v>
       </c>
       <c r="K10" s="4">
@@ -3544,15 +7235,15 @@
         <v>0</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" ref="U10:U58" si="23">K10*(2^0)+L10*(2^1)+M10*(2^2)+N10*(2^3)+O10*(2^4)+P10*(2^5)+Q10*(2^6)+R10*(2^7)+S10*(2^8)+T10*(2^9)</f>
+        <f t="shared" ref="U10:U58" si="48">K10*(2^0)+L10*(2^1)+M10*(2^2)+N10*(2^3)+O10*(2^4)+P10*(2^5)+Q10*(2^6)+R10*(2^7)+S10*(2^8)+T10*(2^9)</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f t="shared" ref="W10:W58" si="24">I10+_xlfn.BITLSHIFT(U10,8)</f>
+        <f t="shared" ref="W10:W58" si="49">I10+_xlfn.BITLSHIFT(U10,8)</f>
         <v>5</v>
       </c>
       <c r="AI10" s="4">
-        <f t="shared" ref="AI10:AI12" si="25">U10+_xlfn.BITLSHIFT(AG10,7)</f>
+        <f t="shared" ref="AI10:AI12" si="50">U10+_xlfn.BITLSHIFT(AG10,7)</f>
         <v>0</v>
       </c>
     </row>
@@ -3567,7 +7258,7 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="K11" s="4">
@@ -3601,15 +7292,15 @@
         <v>0</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>6</v>
       </c>
       <c r="AI11" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -3624,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="K12" s="4">
@@ -3658,15 +7349,15 @@
         <v>0</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>7</v>
       </c>
       <c r="AI12" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -3684,7 +7375,7 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>8</v>
       </c>
       <c r="K13" s="4">
@@ -3718,11 +7409,11 @@
         <v>0</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>8</v>
       </c>
     </row>
@@ -3752,7 +7443,7 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>211</v>
       </c>
       <c r="K14" s="4">
@@ -3786,11 +7477,11 @@
         <v>0</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>211</v>
       </c>
     </row>
@@ -3831,18 +7522,18 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="W16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>256</v>
       </c>
     </row>
@@ -3872,18 +7563,18 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="W17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>257</v>
       </c>
     </row>
@@ -3913,18 +7604,18 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="W18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>258</v>
       </c>
     </row>
@@ -3954,18 +7645,18 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="W19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>259</v>
       </c>
     </row>
@@ -3985,18 +7676,18 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>4</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="W20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>260</v>
       </c>
     </row>
@@ -4016,18 +7707,18 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="W21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>261</v>
       </c>
     </row>
@@ -4047,18 +7738,18 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="W22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>262</v>
       </c>
     </row>
@@ -4078,18 +7769,18 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="W23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>263</v>
       </c>
     </row>
@@ -4111,18 +7802,18 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>8</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="W24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>264</v>
       </c>
     </row>
@@ -4152,18 +7843,18 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>211</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="W25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>467</v>
       </c>
     </row>
@@ -4196,18 +7887,18 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="W27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>512</v>
       </c>
     </row>
@@ -4237,18 +7928,18 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="L28" s="4">
         <v>1</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="W28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>513</v>
       </c>
     </row>
@@ -4278,18 +7969,18 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="L29" s="4">
         <v>1</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="W29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>514</v>
       </c>
     </row>
@@ -4319,18 +8010,18 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="L30" s="4">
         <v>1</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="W30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>515</v>
       </c>
     </row>
@@ -4350,18 +8041,18 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>4</v>
       </c>
       <c r="L31" s="4">
         <v>1</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="W31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>516</v>
       </c>
     </row>
@@ -4381,18 +8072,18 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="L32" s="4">
         <v>1</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="W32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>517</v>
       </c>
     </row>
@@ -4412,18 +8103,18 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="L33" s="4">
         <v>1</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="W33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>518</v>
       </c>
     </row>
@@ -4443,18 +8134,18 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="L34" s="4">
         <v>1</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="W34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>519</v>
       </c>
     </row>
@@ -4476,18 +8167,18 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>8</v>
       </c>
       <c r="L35" s="4">
         <v>1</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="W35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>520</v>
       </c>
     </row>
@@ -4517,18 +8208,18 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>211</v>
       </c>
       <c r="L36" s="4">
         <v>1</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="W36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>723</v>
       </c>
     </row>
@@ -4561,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J38" s="4"/>
@@ -4580,12 +8271,12 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="V38" s="4"/>
       <c r="W38" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>768</v>
       </c>
     </row>
@@ -4615,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="J39" s="4"/>
@@ -4634,12 +8325,12 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="V39" s="4"/>
       <c r="W39" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>769</v>
       </c>
     </row>
@@ -4669,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="J40" s="4"/>
@@ -4688,12 +8379,12 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="V40" s="4"/>
       <c r="W40" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>770</v>
       </c>
     </row>
@@ -4723,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="J41" s="4"/>
@@ -4742,12 +8433,12 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="V41" s="4"/>
       <c r="W41" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>771</v>
       </c>
     </row>
@@ -4767,7 +8458,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>4</v>
       </c>
       <c r="J42" s="4"/>
@@ -4786,12 +8477,12 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="V42" s="4"/>
       <c r="W42" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>772</v>
       </c>
     </row>
@@ -4811,7 +8502,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="J43" s="4"/>
@@ -4830,12 +8521,12 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="V43" s="4"/>
       <c r="W43" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>773</v>
       </c>
     </row>
@@ -4855,7 +8546,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="J44" s="4"/>
@@ -4874,12 +8565,12 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="V44" s="4"/>
       <c r="W44" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>774</v>
       </c>
     </row>
@@ -4899,7 +8590,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="J45" s="4"/>
@@ -4918,12 +8609,12 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
       <c r="U45" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="V45" s="4"/>
       <c r="W45" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>775</v>
       </c>
     </row>
@@ -4945,7 +8636,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>8</v>
       </c>
       <c r="J46" s="4"/>
@@ -4964,12 +8655,12 @@
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>776</v>
       </c>
     </row>
@@ -4999,7 +8690,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>211</v>
       </c>
       <c r="J47" s="4"/>
@@ -5018,41 +8709,41 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="V47" s="4"/>
       <c r="W47" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>979</v>
       </c>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
+      <c r="A48" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="24"/>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="4">
@@ -5080,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J49" s="4"/>
@@ -5115,12 +8806,12 @@
         <v>1</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>628</v>
       </c>
       <c r="V49" s="4"/>
       <c r="W49" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>160768</v>
       </c>
     </row>
@@ -5150,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="J50" s="4"/>
@@ -5185,12 +8876,12 @@
         <v>1</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>628</v>
       </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>160769</v>
       </c>
     </row>
@@ -5220,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="J51" s="4"/>
@@ -5255,12 +8946,12 @@
         <v>1</v>
       </c>
       <c r="U51" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>628</v>
       </c>
       <c r="V51" s="4"/>
       <c r="W51" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>160770</v>
       </c>
     </row>
@@ -5290,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="J52" s="4"/>
@@ -5325,12 +9016,12 @@
         <v>1</v>
       </c>
       <c r="U52" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>628</v>
       </c>
       <c r="V52" s="4"/>
       <c r="W52" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>160771</v>
       </c>
     </row>
@@ -5350,7 +9041,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>4</v>
       </c>
       <c r="J53" s="4"/>
@@ -5385,12 +9076,12 @@
         <v>1</v>
       </c>
       <c r="U53" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>628</v>
       </c>
       <c r="V53" s="4"/>
       <c r="W53" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>160772</v>
       </c>
     </row>
@@ -5410,7 +9101,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="J54" s="4"/>
@@ -5445,12 +9136,12 @@
         <v>1</v>
       </c>
       <c r="U54" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>628</v>
       </c>
       <c r="V54" s="4"/>
       <c r="W54" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>160773</v>
       </c>
     </row>
@@ -5470,7 +9161,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="J55" s="4"/>
@@ -5505,12 +9196,12 @@
         <v>1</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>628</v>
       </c>
       <c r="V55" s="4"/>
       <c r="W55" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>160774</v>
       </c>
     </row>
@@ -5530,7 +9221,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="J56" s="4"/>
@@ -5565,12 +9256,12 @@
         <v>1</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>628</v>
       </c>
       <c r="V56" s="4"/>
       <c r="W56" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>160775</v>
       </c>
     </row>
@@ -5592,7 +9283,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>8</v>
       </c>
       <c r="J57" s="4"/>
@@ -5627,12 +9318,12 @@
         <v>1</v>
       </c>
       <c r="U57" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>628</v>
       </c>
       <c r="V57" s="4"/>
       <c r="W57" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>160776</v>
       </c>
     </row>
@@ -5662,7 +9353,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>211</v>
       </c>
       <c r="J58" s="4"/>
@@ -5697,12 +9388,12 @@
         <v>1</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>628</v>
       </c>
       <c r="V58" s="4"/>
       <c r="W58" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>160979</v>
       </c>
     </row>
